--- a/BackTest/2020-01-26 BackTest BTG.xlsx
+++ b/BackTest/2020-01-26 BackTest BTG.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -7876,10 +7876,14 @@
         <v>-6582.608553189993</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
-      </c>
-      <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I227" t="n">
+        <v>11300</v>
+      </c>
+      <c r="J227" t="n">
+        <v>11300</v>
+      </c>
       <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
@@ -7909,11 +7913,19 @@
         <v>-6582.608553189993</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
-      </c>
-      <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I228" t="n">
+        <v>11300</v>
+      </c>
+      <c r="J228" t="n">
+        <v>11300</v>
+      </c>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -7942,11 +7954,19 @@
         <v>-7286.085453189993</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
-      </c>
-      <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I229" t="n">
+        <v>11300</v>
+      </c>
+      <c r="J229" t="n">
+        <v>11300</v>
+      </c>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -7975,11 +7995,19 @@
         <v>-7106.338453189993</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
-      </c>
-      <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I230" t="n">
+        <v>11220</v>
+      </c>
+      <c r="J230" t="n">
+        <v>11300</v>
+      </c>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8008,11 +8036,19 @@
         <v>-7122.760053189993</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
-      </c>
-      <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I231" t="n">
+        <v>11290</v>
+      </c>
+      <c r="J231" t="n">
+        <v>11300</v>
+      </c>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8041,11 +8077,19 @@
         <v>-7087.153753189992</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
-      </c>
-      <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I232" t="n">
+        <v>11270</v>
+      </c>
+      <c r="J232" t="n">
+        <v>11300</v>
+      </c>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8074,11 +8118,19 @@
         <v>-7104.280953189992</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
-      </c>
-      <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I233" t="n">
+        <v>11280</v>
+      </c>
+      <c r="J233" t="n">
+        <v>11300</v>
+      </c>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8107,11 +8159,19 @@
         <v>-7091.208053189992</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
-      </c>
-      <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I234" t="n">
+        <v>11210</v>
+      </c>
+      <c r="J234" t="n">
+        <v>11300</v>
+      </c>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8140,11 +8200,19 @@
         <v>-7229.208053189992</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
-      </c>
-      <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I235" t="n">
+        <v>11270</v>
+      </c>
+      <c r="J235" t="n">
+        <v>11300</v>
+      </c>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8173,11 +8241,19 @@
         <v>-7229.208053189992</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
-      </c>
-      <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I236" t="n">
+        <v>11230</v>
+      </c>
+      <c r="J236" t="n">
+        <v>11300</v>
+      </c>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8206,11 +8282,19 @@
         <v>-7073.082353189992</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
-      </c>
-      <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I237" t="n">
+        <v>11230</v>
+      </c>
+      <c r="J237" t="n">
+        <v>11300</v>
+      </c>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8239,11 +8323,19 @@
         <v>-7085.450253189993</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
-      </c>
-      <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I238" t="n">
+        <v>11260</v>
+      </c>
+      <c r="J238" t="n">
+        <v>11300</v>
+      </c>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8272,11 +8364,19 @@
         <v>-7085.450253189993</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
-      </c>
-      <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I239" t="n">
+        <v>11250</v>
+      </c>
+      <c r="J239" t="n">
+        <v>11300</v>
+      </c>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8305,11 +8405,19 @@
         <v>-7521.553453189992</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
-      </c>
-      <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I240" t="n">
+        <v>11250</v>
+      </c>
+      <c r="J240" t="n">
+        <v>11300</v>
+      </c>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8338,11 +8446,19 @@
         <v>-7351.553453189992</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
-      </c>
-      <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I241" t="n">
+        <v>11200</v>
+      </c>
+      <c r="J241" t="n">
+        <v>11300</v>
+      </c>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8371,11 +8487,19 @@
         <v>-7378.203453189992</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
-      </c>
-      <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I242" t="n">
+        <v>11260</v>
+      </c>
+      <c r="J242" t="n">
+        <v>11300</v>
+      </c>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8404,11 +8528,19 @@
         <v>-6971.013853189992</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
-      </c>
-      <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I243" t="n">
+        <v>11250</v>
+      </c>
+      <c r="J243" t="n">
+        <v>11300</v>
+      </c>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8437,11 +8569,19 @@
         <v>-6769.131053189992</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
-      </c>
-      <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I244" t="n">
+        <v>11260</v>
+      </c>
+      <c r="J244" t="n">
+        <v>11300</v>
+      </c>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -8470,11 +8610,19 @@
         <v>-6778.131053189992</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
-      </c>
-      <c r="I245" t="inlineStr"/>
-      <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I245" t="n">
+        <v>11330</v>
+      </c>
+      <c r="J245" t="n">
+        <v>11300</v>
+      </c>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -8503,11 +8651,19 @@
         <v>-6578.431053189992</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
-      </c>
-      <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I246" t="n">
+        <v>11290</v>
+      </c>
+      <c r="J246" t="n">
+        <v>11300</v>
+      </c>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -8536,11 +8692,19 @@
         <v>-6594.504253189992</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
-      </c>
-      <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I247" t="n">
+        <v>11330</v>
+      </c>
+      <c r="J247" t="n">
+        <v>11300</v>
+      </c>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -8569,11 +8733,19 @@
         <v>-6644.504253189992</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
-      </c>
-      <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I248" t="n">
+        <v>11270</v>
+      </c>
+      <c r="J248" t="n">
+        <v>11300</v>
+      </c>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -8602,11 +8774,19 @@
         <v>-6698.547853189992</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
-      </c>
-      <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I249" t="n">
+        <v>11260</v>
+      </c>
+      <c r="J249" t="n">
+        <v>11300</v>
+      </c>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -8635,11 +8815,19 @@
         <v>-6698.547853189992</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
-      </c>
-      <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I250" t="n">
+        <v>11230</v>
+      </c>
+      <c r="J250" t="n">
+        <v>11300</v>
+      </c>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -8668,15 +8856,19 @@
         <v>-6698.547853189992</v>
       </c>
       <c r="H251" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I251" t="n">
         <v>11230</v>
       </c>
       <c r="J251" t="n">
-        <v>11230</v>
-      </c>
-      <c r="K251" t="inlineStr"/>
+        <v>11300</v>
+      </c>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -8705,17 +8897,17 @@
         <v>-6518.067853189992</v>
       </c>
       <c r="H252" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I252" t="n">
         <v>11230</v>
       </c>
       <c r="J252" t="n">
-        <v>11230</v>
+        <v>11300</v>
       </c>
       <c r="K252" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L252" t="n">
@@ -8746,13 +8938,13 @@
         <v>-6250.608653189992</v>
       </c>
       <c r="H253" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I253" t="n">
         <v>11250</v>
       </c>
       <c r="J253" t="n">
-        <v>11230</v>
+        <v>11300</v>
       </c>
       <c r="K253" t="inlineStr">
         <is>
@@ -8787,13 +8979,13 @@
         <v>-6100.108653189992</v>
       </c>
       <c r="H254" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I254" t="n">
         <v>11260</v>
       </c>
       <c r="J254" t="n">
-        <v>11230</v>
+        <v>11300</v>
       </c>
       <c r="K254" t="inlineStr">
         <is>
@@ -8828,13 +9020,13 @@
         <v>-6106.556353189992</v>
       </c>
       <c r="H255" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I255" t="n">
         <v>11270</v>
       </c>
       <c r="J255" t="n">
-        <v>11230</v>
+        <v>11300</v>
       </c>
       <c r="K255" t="inlineStr">
         <is>
@@ -8869,13 +9061,13 @@
         <v>-6104.820953189992</v>
       </c>
       <c r="H256" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I256" t="n">
         <v>11260</v>
       </c>
       <c r="J256" t="n">
-        <v>11230</v>
+        <v>11300</v>
       </c>
       <c r="K256" t="inlineStr">
         <is>
@@ -8910,13 +9102,13 @@
         <v>-6070.320953189992</v>
       </c>
       <c r="H257" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I257" t="n">
         <v>11270</v>
       </c>
       <c r="J257" t="n">
-        <v>11230</v>
+        <v>11300</v>
       </c>
       <c r="K257" t="inlineStr">
         <is>
@@ -8951,13 +9143,13 @@
         <v>-6070.320953189992</v>
       </c>
       <c r="H258" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I258" t="n">
         <v>11330</v>
       </c>
       <c r="J258" t="n">
-        <v>11230</v>
+        <v>11300</v>
       </c>
       <c r="K258" t="inlineStr">
         <is>
@@ -8992,13 +9184,13 @@
         <v>-6070.320953189992</v>
       </c>
       <c r="H259" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I259" t="n">
         <v>11330</v>
       </c>
       <c r="J259" t="n">
-        <v>11230</v>
+        <v>11300</v>
       </c>
       <c r="K259" t="inlineStr">
         <is>
@@ -9033,11 +9225,13 @@
         <v>-6068.560953189992</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
-      </c>
-      <c r="I260" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I260" t="n">
+        <v>11330</v>
+      </c>
       <c r="J260" t="n">
-        <v>11230</v>
+        <v>11300</v>
       </c>
       <c r="K260" t="inlineStr">
         <is>
@@ -9076,7 +9270,7 @@
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="n">
-        <v>11230</v>
+        <v>11300</v>
       </c>
       <c r="K261" t="inlineStr">
         <is>
@@ -9115,7 +9309,7 @@
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="n">
-        <v>11230</v>
+        <v>11300</v>
       </c>
       <c r="K262" t="inlineStr">
         <is>
@@ -9154,7 +9348,7 @@
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="n">
-        <v>11230</v>
+        <v>11300</v>
       </c>
       <c r="K263" t="inlineStr">
         <is>
@@ -9193,7 +9387,7 @@
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="n">
-        <v>11230</v>
+        <v>11300</v>
       </c>
       <c r="K264" t="inlineStr">
         <is>
@@ -9232,7 +9426,7 @@
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="n">
-        <v>11230</v>
+        <v>11300</v>
       </c>
       <c r="K265" t="inlineStr">
         <is>
@@ -9271,7 +9465,7 @@
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="n">
-        <v>11230</v>
+        <v>11300</v>
       </c>
       <c r="K266" t="inlineStr">
         <is>
@@ -9310,7 +9504,7 @@
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="n">
-        <v>11230</v>
+        <v>11300</v>
       </c>
       <c r="K267" t="inlineStr">
         <is>
@@ -9349,7 +9543,7 @@
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="n">
-        <v>11230</v>
+        <v>11300</v>
       </c>
       <c r="K268" t="inlineStr">
         <is>
@@ -9388,7 +9582,7 @@
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="n">
-        <v>11230</v>
+        <v>11300</v>
       </c>
       <c r="K269" t="inlineStr">
         <is>
@@ -9427,7 +9621,7 @@
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="n">
-        <v>11230</v>
+        <v>11300</v>
       </c>
       <c r="K270" t="inlineStr">
         <is>
@@ -9466,7 +9660,7 @@
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="n">
-        <v>11230</v>
+        <v>11300</v>
       </c>
       <c r="K271" t="inlineStr">
         <is>
@@ -9505,7 +9699,7 @@
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="n">
-        <v>11230</v>
+        <v>11300</v>
       </c>
       <c r="K272" t="inlineStr">
         <is>
@@ -9544,7 +9738,7 @@
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="n">
-        <v>11230</v>
+        <v>11300</v>
       </c>
       <c r="K273" t="inlineStr">
         <is>
@@ -9583,7 +9777,7 @@
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="n">
-        <v>11230</v>
+        <v>11300</v>
       </c>
       <c r="K274" t="inlineStr">
         <is>
@@ -9622,7 +9816,7 @@
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="n">
-        <v>11230</v>
+        <v>11300</v>
       </c>
       <c r="K275" t="inlineStr">
         <is>
@@ -9661,7 +9855,7 @@
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="n">
-        <v>11230</v>
+        <v>11300</v>
       </c>
       <c r="K276" t="inlineStr">
         <is>
@@ -9700,7 +9894,7 @@
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="n">
-        <v>11230</v>
+        <v>11300</v>
       </c>
       <c r="K277" t="inlineStr">
         <is>
@@ -9739,7 +9933,7 @@
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="n">
-        <v>11230</v>
+        <v>11300</v>
       </c>
       <c r="K278" t="inlineStr">
         <is>
@@ -9778,7 +9972,7 @@
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="n">
-        <v>11230</v>
+        <v>11300</v>
       </c>
       <c r="K279" t="inlineStr">
         <is>
@@ -9817,7 +10011,7 @@
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="n">
-        <v>11230</v>
+        <v>11300</v>
       </c>
       <c r="K280" t="inlineStr">
         <is>
@@ -9856,7 +10050,7 @@
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="n">
-        <v>11230</v>
+        <v>11300</v>
       </c>
       <c r="K281" t="inlineStr">
         <is>
@@ -9895,7 +10089,7 @@
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="n">
-        <v>11230</v>
+        <v>11300</v>
       </c>
       <c r="K282" t="inlineStr">
         <is>
@@ -9934,7 +10128,7 @@
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="n">
-        <v>11230</v>
+        <v>11300</v>
       </c>
       <c r="K283" t="inlineStr">
         <is>
@@ -9969,13 +10163,13 @@
         <v>-6005.423753189992</v>
       </c>
       <c r="H284" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I284" t="n">
         <v>11250</v>
       </c>
       <c r="J284" t="n">
-        <v>11230</v>
+        <v>11300</v>
       </c>
       <c r="K284" t="inlineStr">
         <is>
@@ -10010,13 +10204,13 @@
         <v>-6005.423753189992</v>
       </c>
       <c r="H285" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I285" t="n">
         <v>11250</v>
       </c>
       <c r="J285" t="n">
-        <v>11230</v>
+        <v>11300</v>
       </c>
       <c r="K285" t="inlineStr">
         <is>
@@ -10051,13 +10245,13 @@
         <v>-5937.169053189991</v>
       </c>
       <c r="H286" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I286" t="n">
         <v>11250</v>
       </c>
       <c r="J286" t="n">
-        <v>11230</v>
+        <v>11300</v>
       </c>
       <c r="K286" t="inlineStr">
         <is>
@@ -10092,13 +10286,13 @@
         <v>-5937.169053189991</v>
       </c>
       <c r="H287" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I287" t="n">
         <v>11280</v>
       </c>
       <c r="J287" t="n">
-        <v>11230</v>
+        <v>11300</v>
       </c>
       <c r="K287" t="inlineStr">
         <is>
@@ -10133,13 +10327,13 @@
         <v>-5887.169053189991</v>
       </c>
       <c r="H288" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I288" t="n">
         <v>11280</v>
       </c>
       <c r="J288" t="n">
-        <v>11230</v>
+        <v>11300</v>
       </c>
       <c r="K288" t="inlineStr">
         <is>
@@ -10174,13 +10368,13 @@
         <v>-6044.213253189992</v>
       </c>
       <c r="H289" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I289" t="n">
         <v>11310</v>
       </c>
       <c r="J289" t="n">
-        <v>11230</v>
+        <v>11300</v>
       </c>
       <c r="K289" t="inlineStr">
         <is>
@@ -10215,11 +10409,13 @@
         <v>-6027.213253189992</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
-      </c>
-      <c r="I290" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I290" t="n">
+        <v>11280</v>
+      </c>
       <c r="J290" t="n">
-        <v>11230</v>
+        <v>11300</v>
       </c>
       <c r="K290" t="inlineStr">
         <is>
@@ -10254,11 +10450,13 @@
         <v>-5729.113253189991</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
-      </c>
-      <c r="I291" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I291" t="n">
+        <v>11300</v>
+      </c>
       <c r="J291" t="n">
-        <v>11230</v>
+        <v>11300</v>
       </c>
       <c r="K291" t="inlineStr">
         <is>
@@ -10293,11 +10491,13 @@
         <v>-5729.113253189991</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
-      </c>
-      <c r="I292" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I292" t="n">
+        <v>11350</v>
+      </c>
       <c r="J292" t="n">
-        <v>11230</v>
+        <v>11300</v>
       </c>
       <c r="K292" t="inlineStr">
         <is>
@@ -10332,11 +10532,13 @@
         <v>-5732.336953189991</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
-      </c>
-      <c r="I293" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I293" t="n">
+        <v>11350</v>
+      </c>
       <c r="J293" t="n">
-        <v>11230</v>
+        <v>11300</v>
       </c>
       <c r="K293" t="inlineStr">
         <is>
@@ -10371,11 +10573,13 @@
         <v>-5821.336953189991</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
-      </c>
-      <c r="I294" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I294" t="n">
+        <v>11310</v>
+      </c>
       <c r="J294" t="n">
-        <v>11230</v>
+        <v>11300</v>
       </c>
       <c r="K294" t="inlineStr">
         <is>
@@ -10410,11 +10614,13 @@
         <v>-5821.289953189991</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
-      </c>
-      <c r="I295" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I295" t="n">
+        <v>11300</v>
+      </c>
       <c r="J295" t="n">
-        <v>11230</v>
+        <v>11300</v>
       </c>
       <c r="K295" t="inlineStr">
         <is>
@@ -10453,7 +10659,7 @@
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="n">
-        <v>11230</v>
+        <v>11300</v>
       </c>
       <c r="K296" t="inlineStr">
         <is>
@@ -10488,11 +10694,13 @@
         <v>-5821.289953189991</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
-      </c>
-      <c r="I297" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I297" t="n">
+        <v>11360</v>
+      </c>
       <c r="J297" t="n">
-        <v>11230</v>
+        <v>11300</v>
       </c>
       <c r="K297" t="inlineStr">
         <is>
@@ -10531,7 +10739,7 @@
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="n">
-        <v>11230</v>
+        <v>11300</v>
       </c>
       <c r="K298" t="inlineStr">
         <is>
@@ -10566,11 +10774,13 @@
         <v>-5841.467453189991</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
-      </c>
-      <c r="I299" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I299" t="n">
+        <v>11300</v>
+      </c>
       <c r="J299" t="n">
-        <v>11230</v>
+        <v>11300</v>
       </c>
       <c r="K299" t="inlineStr">
         <is>
@@ -10605,11 +10815,13 @@
         <v>-5841.467453189991</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
-      </c>
-      <c r="I300" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I300" t="n">
+        <v>11300</v>
+      </c>
       <c r="J300" t="n">
-        <v>11230</v>
+        <v>11300</v>
       </c>
       <c r="K300" t="inlineStr">
         <is>
@@ -10644,11 +10856,13 @@
         <v>-5671.467453189991</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
-      </c>
-      <c r="I301" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I301" t="n">
+        <v>11300</v>
+      </c>
       <c r="J301" t="n">
-        <v>11230</v>
+        <v>11300</v>
       </c>
       <c r="K301" t="inlineStr">
         <is>
@@ -10683,11 +10897,13 @@
         <v>-5654.813153189991</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
-      </c>
-      <c r="I302" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I302" t="n">
+        <v>11320</v>
+      </c>
       <c r="J302" t="n">
-        <v>11230</v>
+        <v>11300</v>
       </c>
       <c r="K302" t="inlineStr">
         <is>
@@ -10722,11 +10938,13 @@
         <v>-5653.813153189991</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
-      </c>
-      <c r="I303" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I303" t="n">
+        <v>11370</v>
+      </c>
       <c r="J303" t="n">
-        <v>11230</v>
+        <v>11300</v>
       </c>
       <c r="K303" t="inlineStr">
         <is>
@@ -10765,7 +10983,7 @@
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="n">
-        <v>11230</v>
+        <v>11300</v>
       </c>
       <c r="K304" t="inlineStr">
         <is>
@@ -10804,7 +11022,7 @@
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="n">
-        <v>11230</v>
+        <v>11300</v>
       </c>
       <c r="K305" t="inlineStr">
         <is>
@@ -10843,7 +11061,7 @@
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="n">
-        <v>11230</v>
+        <v>11300</v>
       </c>
       <c r="K306" t="inlineStr">
         <is>
@@ -10882,7 +11100,7 @@
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="n">
-        <v>11230</v>
+        <v>11300</v>
       </c>
       <c r="K307" t="inlineStr">
         <is>
@@ -10921,7 +11139,7 @@
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="n">
-        <v>11230</v>
+        <v>11300</v>
       </c>
       <c r="K308" t="inlineStr">
         <is>
@@ -10960,7 +11178,7 @@
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="n">
-        <v>11230</v>
+        <v>11300</v>
       </c>
       <c r="K309" t="inlineStr">
         <is>
@@ -10999,7 +11217,7 @@
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="n">
-        <v>11230</v>
+        <v>11300</v>
       </c>
       <c r="K310" t="inlineStr">
         <is>
@@ -11038,7 +11256,7 @@
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="n">
-        <v>11230</v>
+        <v>11300</v>
       </c>
       <c r="K311" t="inlineStr">
         <is>
@@ -11077,7 +11295,7 @@
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="n">
-        <v>11230</v>
+        <v>11300</v>
       </c>
       <c r="K312" t="inlineStr">
         <is>
@@ -11116,7 +11334,7 @@
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="n">
-        <v>11230</v>
+        <v>11300</v>
       </c>
       <c r="K313" t="inlineStr">
         <is>
@@ -11155,7 +11373,7 @@
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="n">
-        <v>11230</v>
+        <v>11300</v>
       </c>
       <c r="K314" t="inlineStr">
         <is>
@@ -11194,7 +11412,7 @@
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="n">
-        <v>11230</v>
+        <v>11300</v>
       </c>
       <c r="K315" t="inlineStr">
         <is>
@@ -11233,7 +11451,7 @@
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="n">
-        <v>11230</v>
+        <v>11300</v>
       </c>
       <c r="K316" t="inlineStr">
         <is>
@@ -11272,7 +11490,7 @@
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="n">
-        <v>11230</v>
+        <v>11300</v>
       </c>
       <c r="K317" t="inlineStr">
         <is>
@@ -11311,7 +11529,7 @@
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="n">
-        <v>11230</v>
+        <v>11300</v>
       </c>
       <c r="K318" t="inlineStr">
         <is>
@@ -11350,7 +11568,7 @@
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="n">
-        <v>11230</v>
+        <v>11300</v>
       </c>
       <c r="K319" t="inlineStr">
         <is>
@@ -11389,7 +11607,7 @@
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="n">
-        <v>11230</v>
+        <v>11300</v>
       </c>
       <c r="K320" t="inlineStr">
         <is>
@@ -11428,7 +11646,7 @@
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="n">
-        <v>11230</v>
+        <v>11300</v>
       </c>
       <c r="K321" t="inlineStr">
         <is>
@@ -11467,7 +11685,7 @@
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="n">
-        <v>11230</v>
+        <v>11300</v>
       </c>
       <c r="K322" t="inlineStr">
         <is>
@@ -11506,7 +11724,7 @@
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="n">
-        <v>11230</v>
+        <v>11300</v>
       </c>
       <c r="K323" t="inlineStr">
         <is>
@@ -11545,7 +11763,7 @@
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="n">
-        <v>11230</v>
+        <v>11300</v>
       </c>
       <c r="K324" t="inlineStr">
         <is>
@@ -11584,7 +11802,7 @@
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="n">
-        <v>11230</v>
+        <v>11300</v>
       </c>
       <c r="K325" t="inlineStr">
         <is>
@@ -11623,7 +11841,7 @@
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="n">
-        <v>11230</v>
+        <v>11300</v>
       </c>
       <c r="K326" t="inlineStr">
         <is>
@@ -11662,7 +11880,7 @@
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="n">
-        <v>11230</v>
+        <v>11300</v>
       </c>
       <c r="K327" t="inlineStr">
         <is>
@@ -11701,7 +11919,7 @@
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="n">
-        <v>11230</v>
+        <v>11300</v>
       </c>
       <c r="K328" t="inlineStr">
         <is>
@@ -11736,11 +11954,11 @@
         <v>2278.03118411001</v>
       </c>
       <c r="H329" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="n">
-        <v>11230</v>
+        <v>11300</v>
       </c>
       <c r="K329" t="inlineStr">
         <is>
@@ -11775,11 +11993,11 @@
         <v>1757.54648411001</v>
       </c>
       <c r="H330" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="n">
-        <v>11230</v>
+        <v>11300</v>
       </c>
       <c r="K330" t="inlineStr">
         <is>
@@ -11814,11 +12032,11 @@
         <v>1752.54648411001</v>
       </c>
       <c r="H331" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="n">
-        <v>11230</v>
+        <v>11300</v>
       </c>
       <c r="K331" t="inlineStr">
         <is>
@@ -11857,7 +12075,7 @@
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="n">
-        <v>11230</v>
+        <v>11300</v>
       </c>
       <c r="K332" t="inlineStr">
         <is>
@@ -11896,7 +12114,7 @@
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="n">
-        <v>11230</v>
+        <v>11300</v>
       </c>
       <c r="K333" t="inlineStr">
         <is>
@@ -11935,7 +12153,7 @@
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="n">
-        <v>11230</v>
+        <v>11300</v>
       </c>
       <c r="K334" t="inlineStr">
         <is>
@@ -11974,7 +12192,7 @@
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="n">
-        <v>11230</v>
+        <v>11300</v>
       </c>
       <c r="K335" t="inlineStr">
         <is>
@@ -12013,7 +12231,7 @@
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="n">
-        <v>11230</v>
+        <v>11300</v>
       </c>
       <c r="K336" t="inlineStr">
         <is>
@@ -12052,7 +12270,7 @@
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="n">
-        <v>11230</v>
+        <v>11300</v>
       </c>
       <c r="K337" t="inlineStr">
         <is>
@@ -12091,7 +12309,7 @@
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="n">
-        <v>11230</v>
+        <v>11300</v>
       </c>
       <c r="K338" t="inlineStr">
         <is>
@@ -12130,7 +12348,7 @@
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="n">
-        <v>11230</v>
+        <v>11300</v>
       </c>
       <c r="K339" t="inlineStr">
         <is>
@@ -12169,7 +12387,7 @@
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="n">
-        <v>11230</v>
+        <v>11300</v>
       </c>
       <c r="K340" t="inlineStr">
         <is>
@@ -12204,11 +12422,11 @@
         <v>1142.54079776001</v>
       </c>
       <c r="H341" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="n">
-        <v>11230</v>
+        <v>11300</v>
       </c>
       <c r="K341" t="inlineStr">
         <is>
@@ -12243,11 +12461,11 @@
         <v>1086.59379776001</v>
       </c>
       <c r="H342" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="n">
-        <v>11230</v>
+        <v>11300</v>
       </c>
       <c r="K342" t="inlineStr">
         <is>
@@ -12282,11 +12500,11 @@
         <v>1097.90229776001</v>
       </c>
       <c r="H343" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="n">
-        <v>11230</v>
+        <v>11300</v>
       </c>
       <c r="K343" t="inlineStr">
         <is>
@@ -12325,7 +12543,7 @@
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="n">
-        <v>11230</v>
+        <v>11300</v>
       </c>
       <c r="K344" t="inlineStr">
         <is>
@@ -12360,11 +12578,11 @@
         <v>1087.99329776001</v>
       </c>
       <c r="H345" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="n">
-        <v>11230</v>
+        <v>11300</v>
       </c>
       <c r="K345" t="inlineStr">
         <is>
@@ -12399,11 +12617,11 @@
         <v>1373.06759776001</v>
       </c>
       <c r="H346" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="n">
-        <v>11230</v>
+        <v>11300</v>
       </c>
       <c r="K346" t="inlineStr">
         <is>
@@ -12438,11 +12656,11 @@
         <v>950.2407977600101</v>
       </c>
       <c r="H347" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="n">
-        <v>11230</v>
+        <v>11300</v>
       </c>
       <c r="K347" t="inlineStr">
         <is>
@@ -12477,11 +12695,11 @@
         <v>467.0372977600101</v>
       </c>
       <c r="H348" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="n">
-        <v>11230</v>
+        <v>11300</v>
       </c>
       <c r="K348" t="inlineStr">
         <is>
@@ -12516,11 +12734,11 @@
         <v>642.03729776001</v>
       </c>
       <c r="H349" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="n">
-        <v>11230</v>
+        <v>11300</v>
       </c>
       <c r="K349" t="inlineStr">
         <is>
@@ -12555,11 +12773,11 @@
         <v>452.23129776001</v>
       </c>
       <c r="H350" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="n">
-        <v>11230</v>
+        <v>11300</v>
       </c>
       <c r="K350" t="inlineStr">
         <is>
@@ -12598,7 +12816,7 @@
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="n">
-        <v>11230</v>
+        <v>11300</v>
       </c>
       <c r="K351" t="inlineStr">
         <is>
@@ -12633,11 +12851,11 @@
         <v>786.68239776001</v>
       </c>
       <c r="H352" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="n">
-        <v>11230</v>
+        <v>11300</v>
       </c>
       <c r="K352" t="inlineStr">
         <is>
@@ -12676,7 +12894,7 @@
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="n">
-        <v>11230</v>
+        <v>11300</v>
       </c>
       <c r="K353" t="inlineStr">
         <is>
@@ -12715,7 +12933,7 @@
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="n">
-        <v>11230</v>
+        <v>11300</v>
       </c>
       <c r="K354" t="inlineStr">
         <is>
@@ -12754,7 +12972,7 @@
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="n">
-        <v>11230</v>
+        <v>11300</v>
       </c>
       <c r="K355" t="inlineStr">
         <is>
@@ -12793,7 +13011,7 @@
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="n">
-        <v>11230</v>
+        <v>11300</v>
       </c>
       <c r="K356" t="inlineStr">
         <is>
@@ -12832,7 +13050,7 @@
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="n">
-        <v>11230</v>
+        <v>11300</v>
       </c>
       <c r="K357" t="inlineStr">
         <is>
@@ -12871,7 +13089,7 @@
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="n">
-        <v>11230</v>
+        <v>11300</v>
       </c>
       <c r="K358" t="inlineStr">
         <is>
@@ -12910,7 +13128,7 @@
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="n">
-        <v>11230</v>
+        <v>11300</v>
       </c>
       <c r="K359" t="inlineStr">
         <is>
@@ -12949,7 +13167,7 @@
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="n">
-        <v>11230</v>
+        <v>11300</v>
       </c>
       <c r="K360" t="inlineStr">
         <is>
@@ -12988,7 +13206,7 @@
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="n">
-        <v>11230</v>
+        <v>11300</v>
       </c>
       <c r="K361" t="inlineStr">
         <is>
@@ -13023,19 +13241,19 @@
         <v>-173.50770223999</v>
       </c>
       <c r="H362" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="n">
-        <v>11230</v>
+        <v>11300</v>
       </c>
       <c r="K362" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L362" t="n">
-        <v>1</v>
+        <v>1.03924778761062</v>
       </c>
       <c r="M362" t="inlineStr"/>
     </row>
@@ -13062,17 +13280,11 @@
         <v>-47.75070223999003</v>
       </c>
       <c r="H363" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="n">
-        <v>11230</v>
-      </c>
-      <c r="K363" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J363" t="inlineStr"/>
+      <c r="K363" t="inlineStr"/>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -13101,17 +13313,11 @@
         <v>-55.44700223999003</v>
       </c>
       <c r="H364" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I364" t="inlineStr"/>
-      <c r="J364" t="n">
-        <v>11230</v>
-      </c>
-      <c r="K364" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J364" t="inlineStr"/>
+      <c r="K364" t="inlineStr"/>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -13140,17 +13346,11 @@
         <v>-55.44700223999003</v>
       </c>
       <c r="H365" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="n">
-        <v>11230</v>
-      </c>
-      <c r="K365" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J365" t="inlineStr"/>
+      <c r="K365" t="inlineStr"/>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -13179,17 +13379,11 @@
         <v>-382.97930223999</v>
       </c>
       <c r="H366" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="n">
-        <v>11230</v>
-      </c>
-      <c r="K366" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J366" t="inlineStr"/>
+      <c r="K366" t="inlineStr"/>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -13218,17 +13412,11 @@
         <v>-382.92930223999</v>
       </c>
       <c r="H367" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="n">
-        <v>11230</v>
-      </c>
-      <c r="K367" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J367" t="inlineStr"/>
+      <c r="K367" t="inlineStr"/>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -13257,17 +13445,11 @@
         <v>-504.56540223999</v>
       </c>
       <c r="H368" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="n">
-        <v>11230</v>
-      </c>
-      <c r="K368" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J368" t="inlineStr"/>
+      <c r="K368" t="inlineStr"/>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -13296,17 +13478,11 @@
         <v>-547.79100223999</v>
       </c>
       <c r="H369" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="n">
-        <v>11230</v>
-      </c>
-      <c r="K369" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J369" t="inlineStr"/>
+      <c r="K369" t="inlineStr"/>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -13335,17 +13511,11 @@
         <v>-211.77150223999</v>
       </c>
       <c r="H370" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="n">
-        <v>11230</v>
-      </c>
-      <c r="K370" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J370" t="inlineStr"/>
+      <c r="K370" t="inlineStr"/>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -13374,17 +13544,11 @@
         <v>-438.35470223999</v>
       </c>
       <c r="H371" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="n">
-        <v>11230</v>
-      </c>
-      <c r="K371" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J371" t="inlineStr"/>
+      <c r="K371" t="inlineStr"/>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -13413,17 +13577,11 @@
         <v>-438.35470223999</v>
       </c>
       <c r="H372" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I372" t="inlineStr"/>
-      <c r="J372" t="n">
-        <v>11230</v>
-      </c>
-      <c r="K372" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J372" t="inlineStr"/>
+      <c r="K372" t="inlineStr"/>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -13452,17 +13610,11 @@
         <v>-438.35470223999</v>
       </c>
       <c r="H373" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="n">
-        <v>11230</v>
-      </c>
-      <c r="K373" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J373" t="inlineStr"/>
+      <c r="K373" t="inlineStr"/>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -13491,17 +13643,11 @@
         <v>-938.40470223999</v>
       </c>
       <c r="H374" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="n">
-        <v>11230</v>
-      </c>
-      <c r="K374" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J374" t="inlineStr"/>
+      <c r="K374" t="inlineStr"/>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -13530,17 +13676,11 @@
         <v>-1418.01410223999</v>
       </c>
       <c r="H375" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I375" t="inlineStr"/>
-      <c r="J375" t="n">
-        <v>11230</v>
-      </c>
-      <c r="K375" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J375" t="inlineStr"/>
+      <c r="K375" t="inlineStr"/>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -13569,17 +13709,11 @@
         <v>-1417.31410223999</v>
       </c>
       <c r="H376" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="n">
-        <v>11230</v>
-      </c>
-      <c r="K376" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J376" t="inlineStr"/>
+      <c r="K376" t="inlineStr"/>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -13611,14 +13745,8 @@
         <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
-      <c r="J377" t="n">
-        <v>11230</v>
-      </c>
-      <c r="K377" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J377" t="inlineStr"/>
+      <c r="K377" t="inlineStr"/>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -13650,14 +13778,8 @@
         <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
-      <c r="J378" t="n">
-        <v>11230</v>
-      </c>
-      <c r="K378" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J378" t="inlineStr"/>
+      <c r="K378" t="inlineStr"/>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -13689,14 +13811,8 @@
         <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
-      <c r="J379" t="n">
-        <v>11230</v>
-      </c>
-      <c r="K379" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J379" t="inlineStr"/>
+      <c r="K379" t="inlineStr"/>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -13728,14 +13844,8 @@
         <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
-      <c r="J380" t="n">
-        <v>11230</v>
-      </c>
-      <c r="K380" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J380" t="inlineStr"/>
+      <c r="K380" t="inlineStr"/>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -13767,14 +13877,8 @@
         <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
-      <c r="J381" t="n">
-        <v>11230</v>
-      </c>
-      <c r="K381" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J381" t="inlineStr"/>
+      <c r="K381" t="inlineStr"/>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -13806,14 +13910,8 @@
         <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
-      <c r="J382" t="n">
-        <v>11230</v>
-      </c>
-      <c r="K382" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J382" t="inlineStr"/>
+      <c r="K382" t="inlineStr"/>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -13845,14 +13943,8 @@
         <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
-      <c r="J383" t="n">
-        <v>11230</v>
-      </c>
-      <c r="K383" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J383" t="inlineStr"/>
+      <c r="K383" t="inlineStr"/>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -13884,14 +13976,8 @@
         <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
-      <c r="J384" t="n">
-        <v>11230</v>
-      </c>
-      <c r="K384" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J384" t="inlineStr"/>
+      <c r="K384" t="inlineStr"/>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -13923,14 +14009,8 @@
         <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
-      <c r="J385" t="n">
-        <v>11230</v>
-      </c>
-      <c r="K385" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J385" t="inlineStr"/>
+      <c r="K385" t="inlineStr"/>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -13962,14 +14042,8 @@
         <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
-      <c r="J386" t="n">
-        <v>11230</v>
-      </c>
-      <c r="K386" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J386" t="inlineStr"/>
+      <c r="K386" t="inlineStr"/>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -14001,14 +14075,8 @@
         <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
-      <c r="J387" t="n">
-        <v>11230</v>
-      </c>
-      <c r="K387" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J387" t="inlineStr"/>
+      <c r="K387" t="inlineStr"/>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -14040,14 +14108,8 @@
         <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
-      <c r="J388" t="n">
-        <v>11230</v>
-      </c>
-      <c r="K388" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J388" t="inlineStr"/>
+      <c r="K388" t="inlineStr"/>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -14079,14 +14141,8 @@
         <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
-      <c r="J389" t="n">
-        <v>11230</v>
-      </c>
-      <c r="K389" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J389" t="inlineStr"/>
+      <c r="K389" t="inlineStr"/>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -14118,14 +14174,8 @@
         <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
-      <c r="J390" t="n">
-        <v>11230</v>
-      </c>
-      <c r="K390" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J390" t="inlineStr"/>
+      <c r="K390" t="inlineStr"/>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -14157,14 +14207,8 @@
         <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
-      <c r="J391" t="n">
-        <v>11230</v>
-      </c>
-      <c r="K391" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J391" t="inlineStr"/>
+      <c r="K391" t="inlineStr"/>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -14196,14 +14240,8 @@
         <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
-      <c r="J392" t="n">
-        <v>11230</v>
-      </c>
-      <c r="K392" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J392" t="inlineStr"/>
+      <c r="K392" t="inlineStr"/>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -14235,14 +14273,8 @@
         <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
-      <c r="J393" t="n">
-        <v>11230</v>
-      </c>
-      <c r="K393" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J393" t="inlineStr"/>
+      <c r="K393" t="inlineStr"/>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -14274,14 +14306,8 @@
         <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
-      <c r="J394" t="n">
-        <v>11230</v>
-      </c>
-      <c r="K394" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J394" t="inlineStr"/>
+      <c r="K394" t="inlineStr"/>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -14313,14 +14339,8 @@
         <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
-      <c r="J395" t="n">
-        <v>11230</v>
-      </c>
-      <c r="K395" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J395" t="inlineStr"/>
+      <c r="K395" t="inlineStr"/>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -14352,14 +14372,8 @@
         <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
-      <c r="J396" t="n">
-        <v>11230</v>
-      </c>
-      <c r="K396" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J396" t="inlineStr"/>
+      <c r="K396" t="inlineStr"/>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -14391,14 +14405,8 @@
         <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
-      <c r="J397" t="n">
-        <v>11230</v>
-      </c>
-      <c r="K397" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J397" t="inlineStr"/>
+      <c r="K397" t="inlineStr"/>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -14430,14 +14438,8 @@
         <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
-      <c r="J398" t="n">
-        <v>11230</v>
-      </c>
-      <c r="K398" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J398" t="inlineStr"/>
+      <c r="K398" t="inlineStr"/>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -14469,14 +14471,8 @@
         <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
-      <c r="J399" t="n">
-        <v>11230</v>
-      </c>
-      <c r="K399" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J399" t="inlineStr"/>
+      <c r="K399" t="inlineStr"/>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -14508,14 +14504,8 @@
         <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
-      <c r="J400" t="n">
-        <v>11230</v>
-      </c>
-      <c r="K400" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J400" t="inlineStr"/>
+      <c r="K400" t="inlineStr"/>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -14547,14 +14537,8 @@
         <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
-      <c r="J401" t="n">
-        <v>11230</v>
-      </c>
-      <c r="K401" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J401" t="inlineStr"/>
+      <c r="K401" t="inlineStr"/>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -14586,14 +14570,8 @@
         <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
-      <c r="J402" t="n">
-        <v>11230</v>
-      </c>
-      <c r="K402" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J402" t="inlineStr"/>
+      <c r="K402" t="inlineStr"/>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -14625,14 +14603,8 @@
         <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
-      <c r="J403" t="n">
-        <v>11230</v>
-      </c>
-      <c r="K403" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J403" t="inlineStr"/>
+      <c r="K403" t="inlineStr"/>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -14664,14 +14636,8 @@
         <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
-      <c r="J404" t="n">
-        <v>11230</v>
-      </c>
-      <c r="K404" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J404" t="inlineStr"/>
+      <c r="K404" t="inlineStr"/>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -14703,14 +14669,8 @@
         <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
-      <c r="J405" t="n">
-        <v>11230</v>
-      </c>
-      <c r="K405" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J405" t="inlineStr"/>
+      <c r="K405" t="inlineStr"/>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -14742,14 +14702,8 @@
         <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
-      <c r="J406" t="n">
-        <v>11230</v>
-      </c>
-      <c r="K406" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J406" t="inlineStr"/>
+      <c r="K406" t="inlineStr"/>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -14781,14 +14735,8 @@
         <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
-      <c r="J407" t="n">
-        <v>11230</v>
-      </c>
-      <c r="K407" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J407" t="inlineStr"/>
+      <c r="K407" t="inlineStr"/>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -14820,14 +14768,8 @@
         <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
-      <c r="J408" t="n">
-        <v>11230</v>
-      </c>
-      <c r="K408" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J408" t="inlineStr"/>
+      <c r="K408" t="inlineStr"/>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -14859,14 +14801,8 @@
         <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
-      <c r="J409" t="n">
-        <v>11230</v>
-      </c>
-      <c r="K409" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J409" t="inlineStr"/>
+      <c r="K409" t="inlineStr"/>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -14898,14 +14834,8 @@
         <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
-      <c r="J410" t="n">
-        <v>11230</v>
-      </c>
-      <c r="K410" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J410" t="inlineStr"/>
+      <c r="K410" t="inlineStr"/>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -14937,14 +14867,8 @@
         <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
-      <c r="J411" t="n">
-        <v>11230</v>
-      </c>
-      <c r="K411" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J411" t="inlineStr"/>
+      <c r="K411" t="inlineStr"/>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -14976,14 +14900,8 @@
         <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
-      <c r="J412" t="n">
-        <v>11230</v>
-      </c>
-      <c r="K412" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J412" t="inlineStr"/>
+      <c r="K412" t="inlineStr"/>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -15015,14 +14933,8 @@
         <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
-      <c r="J413" t="n">
-        <v>11230</v>
-      </c>
-      <c r="K413" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J413" t="inlineStr"/>
+      <c r="K413" t="inlineStr"/>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -15054,14 +14966,8 @@
         <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
-      <c r="J414" t="n">
-        <v>11230</v>
-      </c>
-      <c r="K414" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J414" t="inlineStr"/>
+      <c r="K414" t="inlineStr"/>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -15093,14 +14999,8 @@
         <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
-      <c r="J415" t="n">
-        <v>11230</v>
-      </c>
-      <c r="K415" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J415" t="inlineStr"/>
+      <c r="K415" t="inlineStr"/>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -15132,14 +15032,8 @@
         <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
-      <c r="J416" t="n">
-        <v>11230</v>
-      </c>
-      <c r="K416" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J416" t="inlineStr"/>
+      <c r="K416" t="inlineStr"/>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -15171,14 +15065,8 @@
         <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
-      <c r="J417" t="n">
-        <v>11230</v>
-      </c>
-      <c r="K417" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J417" t="inlineStr"/>
+      <c r="K417" t="inlineStr"/>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -15210,14 +15098,8 @@
         <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
-      <c r="J418" t="n">
-        <v>11230</v>
-      </c>
-      <c r="K418" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J418" t="inlineStr"/>
+      <c r="K418" t="inlineStr"/>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -15249,14 +15131,8 @@
         <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
-      <c r="J419" t="n">
-        <v>11230</v>
-      </c>
-      <c r="K419" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J419" t="inlineStr"/>
+      <c r="K419" t="inlineStr"/>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -15288,14 +15164,8 @@
         <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
-      <c r="J420" t="n">
-        <v>11230</v>
-      </c>
-      <c r="K420" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J420" t="inlineStr"/>
+      <c r="K420" t="inlineStr"/>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -15327,14 +15197,8 @@
         <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
-      <c r="J421" t="n">
-        <v>11230</v>
-      </c>
-      <c r="K421" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J421" t="inlineStr"/>
+      <c r="K421" t="inlineStr"/>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -15366,14 +15230,8 @@
         <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
-      <c r="J422" t="n">
-        <v>11230</v>
-      </c>
-      <c r="K422" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J422" t="inlineStr"/>
+      <c r="K422" t="inlineStr"/>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -15405,14 +15263,8 @@
         <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
-      <c r="J423" t="n">
-        <v>11230</v>
-      </c>
-      <c r="K423" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J423" t="inlineStr"/>
+      <c r="K423" t="inlineStr"/>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -15444,14 +15296,8 @@
         <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
-      <c r="J424" t="n">
-        <v>11230</v>
-      </c>
-      <c r="K424" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J424" t="inlineStr"/>
+      <c r="K424" t="inlineStr"/>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -15483,14 +15329,8 @@
         <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
-      <c r="J425" t="n">
-        <v>11230</v>
-      </c>
-      <c r="K425" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J425" t="inlineStr"/>
+      <c r="K425" t="inlineStr"/>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -15522,14 +15362,8 @@
         <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
-      <c r="J426" t="n">
-        <v>11230</v>
-      </c>
-      <c r="K426" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J426" t="inlineStr"/>
+      <c r="K426" t="inlineStr"/>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -15561,14 +15395,8 @@
         <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
-      <c r="J427" t="n">
-        <v>11230</v>
-      </c>
-      <c r="K427" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J427" t="inlineStr"/>
+      <c r="K427" t="inlineStr"/>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -15600,14 +15428,8 @@
         <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
-      <c r="J428" t="n">
-        <v>11230</v>
-      </c>
-      <c r="K428" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J428" t="inlineStr"/>
+      <c r="K428" t="inlineStr"/>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -15639,14 +15461,8 @@
         <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
-      <c r="J429" t="n">
-        <v>11230</v>
-      </c>
-      <c r="K429" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J429" t="inlineStr"/>
+      <c r="K429" t="inlineStr"/>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -15678,14 +15494,8 @@
         <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
-      <c r="J430" t="n">
-        <v>11230</v>
-      </c>
-      <c r="K430" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J430" t="inlineStr"/>
+      <c r="K430" t="inlineStr"/>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -15717,14 +15527,8 @@
         <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
-      <c r="J431" t="n">
-        <v>11230</v>
-      </c>
-      <c r="K431" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J431" t="inlineStr"/>
+      <c r="K431" t="inlineStr"/>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -15756,14 +15560,8 @@
         <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
-      <c r="J432" t="n">
-        <v>11230</v>
-      </c>
-      <c r="K432" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J432" t="inlineStr"/>
+      <c r="K432" t="inlineStr"/>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -15795,14 +15593,8 @@
         <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
-      <c r="J433" t="n">
-        <v>11230</v>
-      </c>
-      <c r="K433" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J433" t="inlineStr"/>
+      <c r="K433" t="inlineStr"/>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -15834,14 +15626,8 @@
         <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
-      <c r="J434" t="n">
-        <v>11230</v>
-      </c>
-      <c r="K434" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J434" t="inlineStr"/>
+      <c r="K434" t="inlineStr"/>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -15873,14 +15659,8 @@
         <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
-      <c r="J435" t="n">
-        <v>11230</v>
-      </c>
-      <c r="K435" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J435" t="inlineStr"/>
+      <c r="K435" t="inlineStr"/>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -15912,14 +15692,8 @@
         <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
-      <c r="J436" t="n">
-        <v>11230</v>
-      </c>
-      <c r="K436" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J436" t="inlineStr"/>
+      <c r="K436" t="inlineStr"/>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -15951,14 +15725,8 @@
         <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
-      <c r="J437" t="n">
-        <v>11230</v>
-      </c>
-      <c r="K437" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J437" t="inlineStr"/>
+      <c r="K437" t="inlineStr"/>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -15990,14 +15758,8 @@
         <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
-      <c r="J438" t="n">
-        <v>11230</v>
-      </c>
-      <c r="K438" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J438" t="inlineStr"/>
+      <c r="K438" t="inlineStr"/>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -16029,14 +15791,8 @@
         <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
-      <c r="J439" t="n">
-        <v>11230</v>
-      </c>
-      <c r="K439" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J439" t="inlineStr"/>
+      <c r="K439" t="inlineStr"/>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -16068,14 +15824,8 @@
         <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
-      <c r="J440" t="n">
-        <v>11230</v>
-      </c>
-      <c r="K440" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J440" t="inlineStr"/>
+      <c r="K440" t="inlineStr"/>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -16107,14 +15857,8 @@
         <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
-      <c r="J441" t="n">
-        <v>11230</v>
-      </c>
-      <c r="K441" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J441" t="inlineStr"/>
+      <c r="K441" t="inlineStr"/>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -16146,14 +15890,8 @@
         <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
-      <c r="J442" t="n">
-        <v>11230</v>
-      </c>
-      <c r="K442" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J442" t="inlineStr"/>
+      <c r="K442" t="inlineStr"/>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -16185,14 +15923,8 @@
         <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
-      <c r="J443" t="n">
-        <v>11230</v>
-      </c>
-      <c r="K443" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J443" t="inlineStr"/>
+      <c r="K443" t="inlineStr"/>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -16224,14 +15956,8 @@
         <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
-      <c r="J444" t="n">
-        <v>11230</v>
-      </c>
-      <c r="K444" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J444" t="inlineStr"/>
+      <c r="K444" t="inlineStr"/>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -16263,14 +15989,8 @@
         <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
-      <c r="J445" t="n">
-        <v>11230</v>
-      </c>
-      <c r="K445" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J445" t="inlineStr"/>
+      <c r="K445" t="inlineStr"/>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -16302,14 +16022,8 @@
         <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
-      <c r="J446" t="n">
-        <v>11230</v>
-      </c>
-      <c r="K446" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J446" t="inlineStr"/>
+      <c r="K446" t="inlineStr"/>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -16341,14 +16055,8 @@
         <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
-      <c r="J447" t="n">
-        <v>11230</v>
-      </c>
-      <c r="K447" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J447" t="inlineStr"/>
+      <c r="K447" t="inlineStr"/>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -16380,14 +16088,8 @@
         <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
-      <c r="J448" t="n">
-        <v>11230</v>
-      </c>
-      <c r="K448" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J448" t="inlineStr"/>
+      <c r="K448" t="inlineStr"/>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -16419,14 +16121,8 @@
         <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
-      <c r="J449" t="n">
-        <v>11230</v>
-      </c>
-      <c r="K449" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J449" t="inlineStr"/>
+      <c r="K449" t="inlineStr"/>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -16458,14 +16154,8 @@
         <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
-      <c r="J450" t="n">
-        <v>11230</v>
-      </c>
-      <c r="K450" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J450" t="inlineStr"/>
+      <c r="K450" t="inlineStr"/>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -16497,14 +16187,8 @@
         <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
-      <c r="J451" t="n">
-        <v>11230</v>
-      </c>
-      <c r="K451" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J451" t="inlineStr"/>
+      <c r="K451" t="inlineStr"/>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -16536,14 +16220,8 @@
         <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
-      <c r="J452" t="n">
-        <v>11230</v>
-      </c>
-      <c r="K452" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J452" t="inlineStr"/>
+      <c r="K452" t="inlineStr"/>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -16575,14 +16253,8 @@
         <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
-      <c r="J453" t="n">
-        <v>11230</v>
-      </c>
-      <c r="K453" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J453" t="inlineStr"/>
+      <c r="K453" t="inlineStr"/>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -16614,14 +16286,8 @@
         <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
-      <c r="J454" t="n">
-        <v>11230</v>
-      </c>
-      <c r="K454" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J454" t="inlineStr"/>
+      <c r="K454" t="inlineStr"/>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -16653,14 +16319,8 @@
         <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
-      <c r="J455" t="n">
-        <v>11230</v>
-      </c>
-      <c r="K455" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J455" t="inlineStr"/>
+      <c r="K455" t="inlineStr"/>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -16692,14 +16352,8 @@
         <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
-      <c r="J456" t="n">
-        <v>11230</v>
-      </c>
-      <c r="K456" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J456" t="inlineStr"/>
+      <c r="K456" t="inlineStr"/>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -16731,14 +16385,8 @@
         <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
-      <c r="J457" t="n">
-        <v>11230</v>
-      </c>
-      <c r="K457" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J457" t="inlineStr"/>
+      <c r="K457" t="inlineStr"/>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -16770,14 +16418,8 @@
         <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
-      <c r="J458" t="n">
-        <v>11230</v>
-      </c>
-      <c r="K458" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J458" t="inlineStr"/>
+      <c r="K458" t="inlineStr"/>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -16809,14 +16451,8 @@
         <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
-      <c r="J459" t="n">
-        <v>11230</v>
-      </c>
-      <c r="K459" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J459" t="inlineStr"/>
+      <c r="K459" t="inlineStr"/>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -16848,14 +16484,8 @@
         <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
-      <c r="J460" t="n">
-        <v>11230</v>
-      </c>
-      <c r="K460" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J460" t="inlineStr"/>
+      <c r="K460" t="inlineStr"/>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -16887,14 +16517,8 @@
         <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
-      <c r="J461" t="n">
-        <v>11230</v>
-      </c>
-      <c r="K461" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J461" t="inlineStr"/>
+      <c r="K461" t="inlineStr"/>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -16926,14 +16550,8 @@
         <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
-      <c r="J462" t="n">
-        <v>11230</v>
-      </c>
-      <c r="K462" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J462" t="inlineStr"/>
+      <c r="K462" t="inlineStr"/>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -16965,14 +16583,8 @@
         <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
-      <c r="J463" t="n">
-        <v>11230</v>
-      </c>
-      <c r="K463" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J463" t="inlineStr"/>
+      <c r="K463" t="inlineStr"/>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -17004,14 +16616,8 @@
         <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
-      <c r="J464" t="n">
-        <v>11230</v>
-      </c>
-      <c r="K464" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J464" t="inlineStr"/>
+      <c r="K464" t="inlineStr"/>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -17043,14 +16649,8 @@
         <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
-      <c r="J465" t="n">
-        <v>11230</v>
-      </c>
-      <c r="K465" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J465" t="inlineStr"/>
+      <c r="K465" t="inlineStr"/>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -17079,19 +16679,13 @@
         <v>1162.86030192001</v>
       </c>
       <c r="H466" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
-      <c r="J466" t="n">
-        <v>11230</v>
-      </c>
-      <c r="K466" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J466" t="inlineStr"/>
+      <c r="K466" t="inlineStr"/>
       <c r="L466" t="n">
-        <v>1.047537845057881</v>
+        <v>1</v>
       </c>
       <c r="M466" t="inlineStr"/>
     </row>
@@ -17118,7 +16712,7 @@
         <v>1821.71160192001</v>
       </c>
       <c r="H467" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
@@ -17151,7 +16745,7 @@
         <v>1827.82660192001</v>
       </c>
       <c r="H468" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
@@ -17184,7 +16778,7 @@
         <v>2167.79047694001</v>
       </c>
       <c r="H469" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
@@ -17217,7 +16811,7 @@
         <v>2149.51887694001</v>
       </c>
       <c r="H470" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
@@ -17250,7 +16844,7 @@
         <v>2149.44507694001</v>
       </c>
       <c r="H471" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
@@ -17283,7 +16877,7 @@
         <v>2149.44507694001</v>
       </c>
       <c r="H472" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
@@ -17316,7 +16910,7 @@
         <v>2188.795476940009</v>
       </c>
       <c r="H473" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
@@ -17349,7 +16943,7 @@
         <v>2188.795476940009</v>
       </c>
       <c r="H474" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
@@ -17382,7 +16976,7 @@
         <v>2346.77597694001</v>
       </c>
       <c r="H475" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
@@ -17811,7 +17405,7 @@
         <v>1393.436076940009</v>
       </c>
       <c r="H488" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
@@ -17844,7 +17438,7 @@
         <v>1974.894076940009</v>
       </c>
       <c r="H489" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
@@ -17877,7 +17471,7 @@
         <v>1711.927976940009</v>
       </c>
       <c r="H490" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
@@ -17910,7 +17504,7 @@
         <v>1524.056176940009</v>
       </c>
       <c r="H491" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
@@ -18174,7 +17768,7 @@
         <v>1334.76487694001</v>
       </c>
       <c r="H499" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
@@ -18207,7 +17801,7 @@
         <v>1334.76487694001</v>
       </c>
       <c r="H500" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
@@ -18471,7 +18065,7 @@
         <v>958.1654769400096</v>
       </c>
       <c r="H508" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
@@ -18603,7 +18197,7 @@
         <v>920.0381769400096</v>
       </c>
       <c r="H512" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
@@ -18669,7 +18263,7 @@
         <v>563.8037769400096</v>
       </c>
       <c r="H514" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
@@ -18702,7 +18296,7 @@
         <v>563.8037769400096</v>
       </c>
       <c r="H515" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
@@ -18735,7 +18329,7 @@
         <v>700.3037769400096</v>
       </c>
       <c r="H516" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
@@ -20748,7 +20342,7 @@
         <v>3180.575789680012</v>
       </c>
       <c r="H577" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="inlineStr"/>
@@ -20781,7 +20375,7 @@
         <v>2897.045989680012</v>
       </c>
       <c r="H578" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="inlineStr"/>
@@ -20814,7 +20408,7 @@
         <v>2830.328489680012</v>
       </c>
       <c r="H579" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I579" t="inlineStr"/>
       <c r="J579" t="inlineStr"/>
@@ -20847,7 +20441,7 @@
         <v>3245.716489680012</v>
       </c>
       <c r="H580" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="inlineStr"/>
@@ -20913,7 +20507,7 @@
         <v>3243.936489680012</v>
       </c>
       <c r="H582" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I582" t="inlineStr"/>
       <c r="J582" t="inlineStr"/>
@@ -21210,7 +20804,7 @@
         <v>3791.279043240012</v>
       </c>
       <c r="H591" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="inlineStr"/>
@@ -21243,7 +20837,7 @@
         <v>3791.279043240012</v>
       </c>
       <c r="H592" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I592" t="inlineStr"/>
       <c r="J592" t="inlineStr"/>
@@ -21573,7 +21167,7 @@
         <v>4073.748743240012</v>
       </c>
       <c r="H602" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I602" t="inlineStr"/>
       <c r="J602" t="inlineStr"/>
@@ -21606,7 +21200,7 @@
         <v>3985.987443240012</v>
       </c>
       <c r="H603" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I603" t="inlineStr"/>
       <c r="J603" t="inlineStr"/>
@@ -21639,7 +21233,7 @@
         <v>3985.987443240012</v>
       </c>
       <c r="H604" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
@@ -22035,7 +21629,7 @@
         <v>4555.560070390011</v>
       </c>
       <c r="H616" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I616" t="inlineStr"/>
       <c r="J616" t="inlineStr"/>
@@ -22068,7 +21662,7 @@
         <v>4555.560070390011</v>
       </c>
       <c r="H617" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I617" t="inlineStr"/>
       <c r="J617" t="inlineStr"/>
@@ -22101,7 +21695,7 @@
         <v>4554.560070390011</v>
       </c>
       <c r="H618" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I618" t="inlineStr"/>
       <c r="J618" t="inlineStr"/>
@@ -22134,7 +21728,7 @@
         <v>4505.072270390011</v>
       </c>
       <c r="H619" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I619" t="inlineStr"/>
       <c r="J619" t="inlineStr"/>
@@ -22167,7 +21761,7 @@
         <v>4555.870570390011</v>
       </c>
       <c r="H620" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I620" t="inlineStr"/>
       <c r="J620" t="inlineStr"/>
@@ -22200,7 +21794,7 @@
         <v>4585.210570390012</v>
       </c>
       <c r="H621" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I621" t="inlineStr"/>
       <c r="J621" t="inlineStr"/>
@@ -22233,7 +21827,7 @@
         <v>4780.880570390012</v>
       </c>
       <c r="H622" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I622" t="inlineStr"/>
       <c r="J622" t="inlineStr"/>
@@ -22266,7 +21860,7 @@
         <v>4911.965470390011</v>
       </c>
       <c r="H623" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I623" t="inlineStr"/>
       <c r="J623" t="inlineStr"/>
@@ -22299,7 +21893,7 @@
         <v>4911.838270390012</v>
       </c>
       <c r="H624" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I624" t="inlineStr"/>
       <c r="J624" t="inlineStr"/>
@@ -22332,7 +21926,7 @@
         <v>4703.627570390012</v>
       </c>
       <c r="H625" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="inlineStr"/>
@@ -22365,7 +21959,7 @@
         <v>4703.627570390012</v>
       </c>
       <c r="H626" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I626" t="inlineStr"/>
       <c r="J626" t="inlineStr"/>
@@ -22398,7 +21992,7 @@
         <v>4703.760170390012</v>
       </c>
       <c r="H627" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I627" t="inlineStr"/>
       <c r="J627" t="inlineStr"/>
@@ -22431,7 +22025,7 @@
         <v>4620.355870390012</v>
       </c>
       <c r="H628" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr"/>
@@ -22464,7 +22058,7 @@
         <v>4620.355870390012</v>
       </c>
       <c r="H629" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr"/>
@@ -22497,7 +22091,7 @@
         <v>4620.355870390012</v>
       </c>
       <c r="H630" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="inlineStr"/>
@@ -22530,7 +22124,7 @@
         <v>4620.355870390012</v>
       </c>
       <c r="H631" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr"/>
@@ -22563,7 +22157,7 @@
         <v>4620.355870390012</v>
       </c>
       <c r="H632" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I632" t="inlineStr"/>
       <c r="J632" t="inlineStr"/>
@@ -22596,7 +22190,7 @@
         <v>4570.355870390012</v>
       </c>
       <c r="H633" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I633" t="inlineStr"/>
       <c r="J633" t="inlineStr"/>
@@ -22629,7 +22223,7 @@
         <v>4570.355870390012</v>
       </c>
       <c r="H634" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="inlineStr"/>
@@ -22662,7 +22256,7 @@
         <v>4570.355870390012</v>
       </c>
       <c r="H635" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I635" t="inlineStr"/>
       <c r="J635" t="inlineStr"/>
@@ -22695,7 +22289,7 @@
         <v>4288.660870390012</v>
       </c>
       <c r="H636" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I636" t="inlineStr"/>
       <c r="J636" t="inlineStr"/>
@@ -22728,7 +22322,7 @@
         <v>4275.744470390012</v>
       </c>
       <c r="H637" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr"/>
@@ -22761,7 +22355,7 @@
         <v>4275.744470390012</v>
       </c>
       <c r="H638" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr"/>
@@ -22794,7 +22388,7 @@
         <v>4149.595270390012</v>
       </c>
       <c r="H639" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I639" t="inlineStr"/>
       <c r="J639" t="inlineStr"/>
@@ -22827,7 +22421,7 @@
         <v>4149.595270390012</v>
       </c>
       <c r="H640" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I640" t="inlineStr"/>
       <c r="J640" t="inlineStr"/>
@@ -22860,7 +22454,7 @@
         <v>4149.595270390012</v>
       </c>
       <c r="H641" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I641" t="inlineStr"/>
       <c r="J641" t="inlineStr"/>
@@ -22893,7 +22487,7 @@
         <v>4149.595270390012</v>
       </c>
       <c r="H642" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I642" t="inlineStr"/>
       <c r="J642" t="inlineStr"/>
@@ -22926,7 +22520,7 @@
         <v>4149.595270390012</v>
       </c>
       <c r="H643" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I643" t="inlineStr"/>
       <c r="J643" t="inlineStr"/>
@@ -22959,7 +22553,7 @@
         <v>4359.279670390012</v>
       </c>
       <c r="H644" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I644" t="inlineStr"/>
       <c r="J644" t="inlineStr"/>
@@ -22992,7 +22586,7 @@
         <v>4359.279670390012</v>
       </c>
       <c r="H645" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I645" t="inlineStr"/>
       <c r="J645" t="inlineStr"/>
@@ -23025,7 +22619,7 @@
         <v>4322.279670390012</v>
       </c>
       <c r="H646" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I646" t="inlineStr"/>
       <c r="J646" t="inlineStr"/>
@@ -23058,7 +22652,7 @@
         <v>4502.279670390012</v>
       </c>
       <c r="H647" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I647" t="inlineStr"/>
       <c r="J647" t="inlineStr"/>
@@ -23091,7 +22685,7 @@
         <v>4592.279670390012</v>
       </c>
       <c r="H648" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I648" t="inlineStr"/>
       <c r="J648" t="inlineStr"/>
@@ -23124,7 +22718,7 @@
         <v>4591.222970390012</v>
       </c>
       <c r="H649" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I649" t="inlineStr"/>
       <c r="J649" t="inlineStr"/>
@@ -23157,7 +22751,7 @@
         <v>4551.722970390012</v>
       </c>
       <c r="H650" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I650" t="inlineStr"/>
       <c r="J650" t="inlineStr"/>
@@ -23190,7 +22784,7 @@
         <v>4551.722970390012</v>
       </c>
       <c r="H651" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I651" t="inlineStr"/>
       <c r="J651" t="inlineStr"/>
@@ -23223,7 +22817,7 @@
         <v>4551.722970390012</v>
       </c>
       <c r="H652" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I652" t="inlineStr"/>
       <c r="J652" t="inlineStr"/>
@@ -23256,7 +22850,7 @@
         <v>4609.919570390012</v>
       </c>
       <c r="H653" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I653" t="inlineStr"/>
       <c r="J653" t="inlineStr"/>
@@ -23289,7 +22883,7 @@
         <v>4609.919570390012</v>
       </c>
       <c r="H654" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I654" t="inlineStr"/>
       <c r="J654" t="inlineStr"/>
@@ -23322,7 +22916,7 @@
         <v>4760.788070390012</v>
       </c>
       <c r="H655" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I655" t="inlineStr"/>
       <c r="J655" t="inlineStr"/>
@@ -23355,7 +22949,7 @@
         <v>4760.788070390012</v>
       </c>
       <c r="H656" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I656" t="inlineStr"/>
       <c r="J656" t="inlineStr"/>
@@ -23388,7 +22982,7 @@
         <v>4764.788070390012</v>
       </c>
       <c r="H657" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I657" t="inlineStr"/>
       <c r="J657" t="inlineStr"/>
@@ -23421,7 +23015,7 @@
         <v>4764.788070390012</v>
       </c>
       <c r="H658" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I658" t="inlineStr"/>
       <c r="J658" t="inlineStr"/>
@@ -23520,7 +23114,7 @@
         <v>5096.134470390012</v>
       </c>
       <c r="H661" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I661" t="inlineStr"/>
       <c r="J661" t="inlineStr"/>
@@ -23553,7 +23147,7 @@
         <v>5134.941970390012</v>
       </c>
       <c r="H662" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I662" t="inlineStr"/>
       <c r="J662" t="inlineStr"/>
@@ -23586,7 +23180,7 @@
         <v>5064.547670390012</v>
       </c>
       <c r="H663" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I663" t="inlineStr"/>
       <c r="J663" t="inlineStr"/>
@@ -23619,7 +23213,7 @@
         <v>5064.547670390012</v>
       </c>
       <c r="H664" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I664" t="inlineStr"/>
       <c r="J664" t="inlineStr"/>
@@ -23652,7 +23246,7 @@
         <v>5064.547670390012</v>
       </c>
       <c r="H665" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I665" t="inlineStr"/>
       <c r="J665" t="inlineStr"/>
@@ -23685,7 +23279,7 @@
         <v>5064.547670390012</v>
       </c>
       <c r="H666" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I666" t="inlineStr"/>
       <c r="J666" t="inlineStr"/>
@@ -23718,7 +23312,7 @@
         <v>5064.547670390012</v>
       </c>
       <c r="H667" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I667" t="inlineStr"/>
       <c r="J667" t="inlineStr"/>
@@ -23817,7 +23411,7 @@
         <v>4977.675670390012</v>
       </c>
       <c r="H670" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I670" t="inlineStr"/>
       <c r="J670" t="inlineStr"/>
@@ -23850,7 +23444,7 @@
         <v>5101.641770390012</v>
       </c>
       <c r="H671" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I671" t="inlineStr"/>
       <c r="J671" t="inlineStr"/>
@@ -23883,7 +23477,7 @@
         <v>5102.641770390012</v>
       </c>
       <c r="H672" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I672" t="inlineStr"/>
       <c r="J672" t="inlineStr"/>
@@ -23916,7 +23510,7 @@
         <v>5090.641770390012</v>
       </c>
       <c r="H673" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I673" t="inlineStr"/>
       <c r="J673" t="inlineStr"/>
@@ -23949,7 +23543,7 @@
         <v>5181.641770390012</v>
       </c>
       <c r="H674" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I674" t="inlineStr"/>
       <c r="J674" t="inlineStr"/>
@@ -23982,7 +23576,7 @@
         <v>5181.271370390012</v>
       </c>
       <c r="H675" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I675" t="inlineStr"/>
       <c r="J675" t="inlineStr"/>
@@ -24015,7 +23609,7 @@
         <v>5181.271370390012</v>
       </c>
       <c r="H676" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I676" t="inlineStr"/>
       <c r="J676" t="inlineStr"/>
@@ -24048,7 +23642,7 @@
         <v>5120.585670390012</v>
       </c>
       <c r="H677" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I677" t="inlineStr"/>
       <c r="J677" t="inlineStr"/>
@@ -24114,7 +23708,7 @@
         <v>4255.108070390012</v>
       </c>
       <c r="H679" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I679" t="inlineStr"/>
       <c r="J679" t="inlineStr"/>
@@ -24147,7 +23741,7 @@
         <v>4251.961970390012</v>
       </c>
       <c r="H680" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I680" t="inlineStr"/>
       <c r="J680" t="inlineStr"/>
@@ -24180,7 +23774,7 @@
         <v>4251.961970390012</v>
       </c>
       <c r="H681" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I681" t="inlineStr"/>
       <c r="J681" t="inlineStr"/>
@@ -24213,7 +23807,7 @@
         <v>4360.657670390012</v>
       </c>
       <c r="H682" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I682" t="inlineStr"/>
       <c r="J682" t="inlineStr"/>
@@ -24246,7 +23840,7 @@
         <v>4534.512170390012</v>
       </c>
       <c r="H683" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I683" t="inlineStr"/>
       <c r="J683" t="inlineStr"/>
@@ -24279,7 +23873,7 @@
         <v>4530.512170390012</v>
       </c>
       <c r="H684" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I684" t="inlineStr"/>
       <c r="J684" t="inlineStr"/>
@@ -24510,7 +24104,7 @@
         <v>4547.437070390012</v>
       </c>
       <c r="H691" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I691" t="inlineStr"/>
       <c r="J691" t="inlineStr"/>
@@ -24543,7 +24137,7 @@
         <v>4547.437070390012</v>
       </c>
       <c r="H692" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I692" t="inlineStr"/>
       <c r="J692" t="inlineStr"/>
@@ -24576,7 +24170,7 @@
         <v>4547.437070390012</v>
       </c>
       <c r="H693" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I693" t="inlineStr"/>
       <c r="J693" t="inlineStr"/>
@@ -24609,7 +24203,7 @@
         <v>4125.437070390012</v>
       </c>
       <c r="H694" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I694" t="inlineStr"/>
       <c r="J694" t="inlineStr"/>
@@ -24642,7 +24236,7 @@
         <v>4832.937070390012</v>
       </c>
       <c r="H695" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I695" t="inlineStr"/>
       <c r="J695" t="inlineStr"/>
@@ -25797,7 +25391,7 @@
         <v>5310.213836530012</v>
       </c>
       <c r="H730" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I730" t="inlineStr"/>
       <c r="J730" t="inlineStr"/>
@@ -25830,7 +25424,7 @@
         <v>5544.713836530012</v>
       </c>
       <c r="H731" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I731" t="inlineStr"/>
       <c r="J731" t="inlineStr"/>
@@ -25863,7 +25457,7 @@
         <v>6279.390136530013</v>
       </c>
       <c r="H732" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I732" t="inlineStr"/>
       <c r="J732" t="inlineStr"/>
@@ -25896,7 +25490,7 @@
         <v>6528.125736530013</v>
       </c>
       <c r="H733" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I733" t="inlineStr"/>
       <c r="J733" t="inlineStr"/>
@@ -25929,7 +25523,7 @@
         <v>6530.125736530013</v>
       </c>
       <c r="H734" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I734" t="inlineStr"/>
       <c r="J734" t="inlineStr"/>
@@ -25962,7 +25556,7 @@
         <v>6383.479636530013</v>
       </c>
       <c r="H735" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I735" t="inlineStr"/>
       <c r="J735" t="inlineStr"/>
@@ -25995,7 +25589,7 @@
         <v>6460.160036530013</v>
       </c>
       <c r="H736" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I736" t="inlineStr"/>
       <c r="J736" t="inlineStr"/>
@@ -26028,7 +25622,7 @@
         <v>6130.774936530012</v>
       </c>
       <c r="H737" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I737" t="inlineStr"/>
       <c r="J737" t="inlineStr"/>
@@ -26061,7 +25655,7 @@
         <v>6150.774936530012</v>
       </c>
       <c r="H738" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I738" t="inlineStr"/>
       <c r="J738" t="inlineStr"/>
@@ -26094,7 +25688,7 @@
         <v>6161.774936530012</v>
       </c>
       <c r="H739" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I739" t="inlineStr"/>
       <c r="J739" t="inlineStr"/>
@@ -26127,7 +25721,7 @@
         <v>5961.774936530012</v>
       </c>
       <c r="H740" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I740" t="inlineStr"/>
       <c r="J740" t="inlineStr"/>
@@ -26193,7 +25787,7 @@
         <v>6564.214031780012</v>
       </c>
       <c r="H742" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I742" t="inlineStr"/>
       <c r="J742" t="inlineStr"/>
@@ -26226,7 +25820,7 @@
         <v>6094.223031780012</v>
       </c>
       <c r="H743" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I743" t="inlineStr"/>
       <c r="J743" t="inlineStr"/>
@@ -26259,7 +25853,7 @@
         <v>6090.643031780012</v>
       </c>
       <c r="H744" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I744" t="inlineStr"/>
       <c r="J744" t="inlineStr"/>
@@ -26292,7 +25886,7 @@
         <v>6068.433931780012</v>
       </c>
       <c r="H745" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I745" t="inlineStr"/>
       <c r="J745" t="inlineStr"/>
@@ -26325,7 +25919,7 @@
         <v>5741.778131780013</v>
       </c>
       <c r="H746" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I746" t="inlineStr"/>
       <c r="J746" t="inlineStr"/>
@@ -26358,7 +25952,7 @@
         <v>5519.549231780013</v>
       </c>
       <c r="H747" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I747" t="inlineStr"/>
       <c r="J747" t="inlineStr"/>
@@ -26391,7 +25985,7 @@
         <v>5519.423431780013</v>
       </c>
       <c r="H748" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I748" t="inlineStr"/>
       <c r="J748" t="inlineStr"/>
@@ -26402,6 +25996,6 @@
       <c r="M748" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-26 BackTest BTG.xlsx
+++ b/BackTest/2020-01-26 BackTest BTG.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1144,7 +1144,7 @@
         <v>-4571.324453189998</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-4505.017053189998</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-5005.092353189999</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-5005.092353189999</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-4936.892753189998</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-4941.227953189999</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-4941.227953189999</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-4997.352753189998</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-5016.733453189998</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-5008.779453189998</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>-5085.620853189998</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>-5091.620853189998</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>-4903.120853189998</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>-4903.120853189998</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>-4903.120853189998</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>-4903.120853189998</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>-4903.120853189998</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>-4899.303953189999</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>-4543.445353189998</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>-4546.445353189998</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>-4540.219153189998</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>-4555.219153189998</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>-4847.003153189998</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>-4828.003153189998</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>-4690.164553189998</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -7876,14 +7876,10 @@
         <v>-6582.608553189993</v>
       </c>
       <c r="H227" t="n">
-        <v>1</v>
-      </c>
-      <c r="I227" t="n">
-        <v>11300</v>
-      </c>
-      <c r="J227" t="n">
-        <v>11300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I227" t="inlineStr"/>
+      <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
@@ -7913,306 +7909,262 @@
         <v>-6582.608553189993</v>
       </c>
       <c r="H228" t="n">
-        <v>1</v>
-      </c>
-      <c r="I228" t="n">
+        <v>0</v>
+      </c>
+      <c r="I228" t="inlineStr"/>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
+      <c r="L228" t="n">
+        <v>1</v>
+      </c>
+      <c r="M228" t="inlineStr"/>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n">
+        <v>227</v>
+      </c>
+      <c r="B229" t="n">
+        <v>11280</v>
+      </c>
+      <c r="C229" t="n">
+        <v>11220</v>
+      </c>
+      <c r="D229" t="n">
+        <v>11280</v>
+      </c>
+      <c r="E229" t="n">
+        <v>11220</v>
+      </c>
+      <c r="F229" t="n">
+        <v>703.4769</v>
+      </c>
+      <c r="G229" t="n">
+        <v>-7286.085453189993</v>
+      </c>
+      <c r="H229" t="n">
+        <v>0</v>
+      </c>
+      <c r="I229" t="inlineStr"/>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
+      <c r="L229" t="n">
+        <v>1</v>
+      </c>
+      <c r="M229" t="inlineStr"/>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n">
+        <v>228</v>
+      </c>
+      <c r="B230" t="n">
+        <v>11220</v>
+      </c>
+      <c r="C230" t="n">
+        <v>11290</v>
+      </c>
+      <c r="D230" t="n">
+        <v>11290</v>
+      </c>
+      <c r="E230" t="n">
+        <v>11220</v>
+      </c>
+      <c r="F230" t="n">
+        <v>179.747</v>
+      </c>
+      <c r="G230" t="n">
+        <v>-7106.338453189993</v>
+      </c>
+      <c r="H230" t="n">
+        <v>0</v>
+      </c>
+      <c r="I230" t="inlineStr"/>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
+      <c r="L230" t="n">
+        <v>1</v>
+      </c>
+      <c r="M230" t="inlineStr"/>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="B231" t="n">
+        <v>11280</v>
+      </c>
+      <c r="C231" t="n">
+        <v>11270</v>
+      </c>
+      <c r="D231" t="n">
+        <v>11280</v>
+      </c>
+      <c r="E231" t="n">
+        <v>11270</v>
+      </c>
+      <c r="F231" t="n">
+        <v>16.4216</v>
+      </c>
+      <c r="G231" t="n">
+        <v>-7122.760053189993</v>
+      </c>
+      <c r="H231" t="n">
+        <v>0</v>
+      </c>
+      <c r="I231" t="inlineStr"/>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
+      <c r="L231" t="n">
+        <v>1</v>
+      </c>
+      <c r="M231" t="inlineStr"/>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="n">
+        <v>230</v>
+      </c>
+      <c r="B232" t="n">
+        <v>11260</v>
+      </c>
+      <c r="C232" t="n">
+        <v>11280</v>
+      </c>
+      <c r="D232" t="n">
         <v>11300</v>
       </c>
-      <c r="J228" t="n">
-        <v>11300</v>
-      </c>
-      <c r="K228" t="inlineStr">
+      <c r="E232" t="n">
+        <v>11220</v>
+      </c>
+      <c r="F232" t="n">
+        <v>35.6063</v>
+      </c>
+      <c r="G232" t="n">
+        <v>-7087.153753189992</v>
+      </c>
+      <c r="H232" t="n">
+        <v>0</v>
+      </c>
+      <c r="I232" t="inlineStr"/>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
+      <c r="L232" t="n">
+        <v>1</v>
+      </c>
+      <c r="M232" t="inlineStr"/>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="n">
+        <v>231</v>
+      </c>
+      <c r="B233" t="n">
+        <v>11210</v>
+      </c>
+      <c r="C233" t="n">
+        <v>11210</v>
+      </c>
+      <c r="D233" t="n">
+        <v>11210</v>
+      </c>
+      <c r="E233" t="n">
+        <v>11210</v>
+      </c>
+      <c r="F233" t="n">
+        <v>17.1272</v>
+      </c>
+      <c r="G233" t="n">
+        <v>-7104.280953189992</v>
+      </c>
+      <c r="H233" t="n">
+        <v>1</v>
+      </c>
+      <c r="I233" t="n">
+        <v>11280</v>
+      </c>
+      <c r="J233" t="n">
+        <v>11280</v>
+      </c>
+      <c r="K233" t="inlineStr"/>
+      <c r="L233" t="n">
+        <v>1</v>
+      </c>
+      <c r="M233" t="inlineStr"/>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="n">
+        <v>232</v>
+      </c>
+      <c r="B234" t="n">
+        <v>11270</v>
+      </c>
+      <c r="C234" t="n">
+        <v>11270</v>
+      </c>
+      <c r="D234" t="n">
+        <v>11270</v>
+      </c>
+      <c r="E234" t="n">
+        <v>11270</v>
+      </c>
+      <c r="F234" t="n">
+        <v>13.0729</v>
+      </c>
+      <c r="G234" t="n">
+        <v>-7091.208053189992</v>
+      </c>
+      <c r="H234" t="n">
+        <v>1</v>
+      </c>
+      <c r="I234" t="n">
+        <v>11210</v>
+      </c>
+      <c r="J234" t="n">
+        <v>11280</v>
+      </c>
+      <c r="K234" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L228" t="n">
-        <v>1</v>
-      </c>
-      <c r="M228" t="inlineStr"/>
-    </row>
-    <row r="229">
-      <c r="A229" s="1" t="n">
-        <v>227</v>
-      </c>
-      <c r="B229" t="n">
+      <c r="L234" t="n">
+        <v>1</v>
+      </c>
+      <c r="M234" t="inlineStr"/>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="n">
+        <v>233</v>
+      </c>
+      <c r="B235" t="n">
+        <v>11240</v>
+      </c>
+      <c r="C235" t="n">
+        <v>11230</v>
+      </c>
+      <c r="D235" t="n">
+        <v>11240</v>
+      </c>
+      <c r="E235" t="n">
+        <v>11230</v>
+      </c>
+      <c r="F235" t="n">
+        <v>138</v>
+      </c>
+      <c r="G235" t="n">
+        <v>-7229.208053189992</v>
+      </c>
+      <c r="H235" t="n">
+        <v>1</v>
+      </c>
+      <c r="I235" t="n">
+        <v>11270</v>
+      </c>
+      <c r="J235" t="n">
         <v>11280</v>
       </c>
-      <c r="C229" t="n">
-        <v>11220</v>
-      </c>
-      <c r="D229" t="n">
-        <v>11280</v>
-      </c>
-      <c r="E229" t="n">
-        <v>11220</v>
-      </c>
-      <c r="F229" t="n">
-        <v>703.4769</v>
-      </c>
-      <c r="G229" t="n">
-        <v>-7286.085453189993</v>
-      </c>
-      <c r="H229" t="n">
-        <v>1</v>
-      </c>
-      <c r="I229" t="n">
-        <v>11300</v>
-      </c>
-      <c r="J229" t="n">
-        <v>11300</v>
-      </c>
-      <c r="K229" t="inlineStr">
+      <c r="K235" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L229" t="n">
-        <v>1</v>
-      </c>
-      <c r="M229" t="inlineStr"/>
-    </row>
-    <row r="230">
-      <c r="A230" s="1" t="n">
-        <v>228</v>
-      </c>
-      <c r="B230" t="n">
-        <v>11220</v>
-      </c>
-      <c r="C230" t="n">
-        <v>11290</v>
-      </c>
-      <c r="D230" t="n">
-        <v>11290</v>
-      </c>
-      <c r="E230" t="n">
-        <v>11220</v>
-      </c>
-      <c r="F230" t="n">
-        <v>179.747</v>
-      </c>
-      <c r="G230" t="n">
-        <v>-7106.338453189993</v>
-      </c>
-      <c r="H230" t="n">
-        <v>1</v>
-      </c>
-      <c r="I230" t="n">
-        <v>11220</v>
-      </c>
-      <c r="J230" t="n">
-        <v>11300</v>
-      </c>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L230" t="n">
-        <v>1</v>
-      </c>
-      <c r="M230" t="inlineStr"/>
-    </row>
-    <row r="231">
-      <c r="A231" s="1" t="n">
-        <v>229</v>
-      </c>
-      <c r="B231" t="n">
-        <v>11280</v>
-      </c>
-      <c r="C231" t="n">
-        <v>11270</v>
-      </c>
-      <c r="D231" t="n">
-        <v>11280</v>
-      </c>
-      <c r="E231" t="n">
-        <v>11270</v>
-      </c>
-      <c r="F231" t="n">
-        <v>16.4216</v>
-      </c>
-      <c r="G231" t="n">
-        <v>-7122.760053189993</v>
-      </c>
-      <c r="H231" t="n">
-        <v>1</v>
-      </c>
-      <c r="I231" t="n">
-        <v>11290</v>
-      </c>
-      <c r="J231" t="n">
-        <v>11300</v>
-      </c>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L231" t="n">
-        <v>1</v>
-      </c>
-      <c r="M231" t="inlineStr"/>
-    </row>
-    <row r="232">
-      <c r="A232" s="1" t="n">
-        <v>230</v>
-      </c>
-      <c r="B232" t="n">
-        <v>11260</v>
-      </c>
-      <c r="C232" t="n">
-        <v>11280</v>
-      </c>
-      <c r="D232" t="n">
-        <v>11300</v>
-      </c>
-      <c r="E232" t="n">
-        <v>11220</v>
-      </c>
-      <c r="F232" t="n">
-        <v>35.6063</v>
-      </c>
-      <c r="G232" t="n">
-        <v>-7087.153753189992</v>
-      </c>
-      <c r="H232" t="n">
-        <v>1</v>
-      </c>
-      <c r="I232" t="n">
-        <v>11270</v>
-      </c>
-      <c r="J232" t="n">
-        <v>11300</v>
-      </c>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L232" t="n">
-        <v>1</v>
-      </c>
-      <c r="M232" t="inlineStr"/>
-    </row>
-    <row r="233">
-      <c r="A233" s="1" t="n">
-        <v>231</v>
-      </c>
-      <c r="B233" t="n">
-        <v>11210</v>
-      </c>
-      <c r="C233" t="n">
-        <v>11210</v>
-      </c>
-      <c r="D233" t="n">
-        <v>11210</v>
-      </c>
-      <c r="E233" t="n">
-        <v>11210</v>
-      </c>
-      <c r="F233" t="n">
-        <v>17.1272</v>
-      </c>
-      <c r="G233" t="n">
-        <v>-7104.280953189992</v>
-      </c>
-      <c r="H233" t="n">
-        <v>1</v>
-      </c>
-      <c r="I233" t="n">
-        <v>11280</v>
-      </c>
-      <c r="J233" t="n">
-        <v>11300</v>
-      </c>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L233" t="n">
-        <v>1</v>
-      </c>
-      <c r="M233" t="inlineStr"/>
-    </row>
-    <row r="234">
-      <c r="A234" s="1" t="n">
-        <v>232</v>
-      </c>
-      <c r="B234" t="n">
-        <v>11270</v>
-      </c>
-      <c r="C234" t="n">
-        <v>11270</v>
-      </c>
-      <c r="D234" t="n">
-        <v>11270</v>
-      </c>
-      <c r="E234" t="n">
-        <v>11270</v>
-      </c>
-      <c r="F234" t="n">
-        <v>13.0729</v>
-      </c>
-      <c r="G234" t="n">
-        <v>-7091.208053189992</v>
-      </c>
-      <c r="H234" t="n">
-        <v>1</v>
-      </c>
-      <c r="I234" t="n">
-        <v>11210</v>
-      </c>
-      <c r="J234" t="n">
-        <v>11300</v>
-      </c>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L234" t="n">
-        <v>1</v>
-      </c>
-      <c r="M234" t="inlineStr"/>
-    </row>
-    <row r="235">
-      <c r="A235" s="1" t="n">
-        <v>233</v>
-      </c>
-      <c r="B235" t="n">
-        <v>11240</v>
-      </c>
-      <c r="C235" t="n">
-        <v>11230</v>
-      </c>
-      <c r="D235" t="n">
-        <v>11240</v>
-      </c>
-      <c r="E235" t="n">
-        <v>11230</v>
-      </c>
-      <c r="F235" t="n">
-        <v>138</v>
-      </c>
-      <c r="G235" t="n">
-        <v>-7229.208053189992</v>
-      </c>
-      <c r="H235" t="n">
-        <v>1</v>
-      </c>
-      <c r="I235" t="n">
-        <v>11270</v>
-      </c>
-      <c r="J235" t="n">
-        <v>11300</v>
-      </c>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8247,7 +8199,7 @@
         <v>11230</v>
       </c>
       <c r="J236" t="n">
-        <v>11300</v>
+        <v>11280</v>
       </c>
       <c r="K236" t="inlineStr">
         <is>
@@ -8288,7 +8240,7 @@
         <v>11230</v>
       </c>
       <c r="J237" t="n">
-        <v>11300</v>
+        <v>11280</v>
       </c>
       <c r="K237" t="inlineStr">
         <is>
@@ -8329,7 +8281,7 @@
         <v>11260</v>
       </c>
       <c r="J238" t="n">
-        <v>11300</v>
+        <v>11280</v>
       </c>
       <c r="K238" t="inlineStr">
         <is>
@@ -8370,7 +8322,7 @@
         <v>11250</v>
       </c>
       <c r="J239" t="n">
-        <v>11300</v>
+        <v>11280</v>
       </c>
       <c r="K239" t="inlineStr">
         <is>
@@ -8411,7 +8363,7 @@
         <v>11250</v>
       </c>
       <c r="J240" t="n">
-        <v>11300</v>
+        <v>11280</v>
       </c>
       <c r="K240" t="inlineStr">
         <is>
@@ -8452,7 +8404,7 @@
         <v>11200</v>
       </c>
       <c r="J241" t="n">
-        <v>11300</v>
+        <v>11280</v>
       </c>
       <c r="K241" t="inlineStr">
         <is>
@@ -8493,7 +8445,7 @@
         <v>11260</v>
       </c>
       <c r="J242" t="n">
-        <v>11300</v>
+        <v>11280</v>
       </c>
       <c r="K242" t="inlineStr">
         <is>
@@ -8534,7 +8486,7 @@
         <v>11250</v>
       </c>
       <c r="J243" t="n">
-        <v>11300</v>
+        <v>11280</v>
       </c>
       <c r="K243" t="inlineStr">
         <is>
@@ -8575,7 +8527,7 @@
         <v>11260</v>
       </c>
       <c r="J244" t="n">
-        <v>11300</v>
+        <v>11280</v>
       </c>
       <c r="K244" t="inlineStr">
         <is>
@@ -8616,7 +8568,7 @@
         <v>11330</v>
       </c>
       <c r="J245" t="n">
-        <v>11300</v>
+        <v>11280</v>
       </c>
       <c r="K245" t="inlineStr">
         <is>
@@ -8651,13 +8603,11 @@
         <v>-6578.431053189992</v>
       </c>
       <c r="H246" t="n">
-        <v>1</v>
-      </c>
-      <c r="I246" t="n">
-        <v>11290</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I246" t="inlineStr"/>
       <c r="J246" t="n">
-        <v>11300</v>
+        <v>11280</v>
       </c>
       <c r="K246" t="inlineStr">
         <is>
@@ -8692,13 +8642,11 @@
         <v>-6594.504253189992</v>
       </c>
       <c r="H247" t="n">
-        <v>1</v>
-      </c>
-      <c r="I247" t="n">
-        <v>11330</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I247" t="inlineStr"/>
       <c r="J247" t="n">
-        <v>11300</v>
+        <v>11280</v>
       </c>
       <c r="K247" t="inlineStr">
         <is>
@@ -8733,13 +8681,11 @@
         <v>-6644.504253189992</v>
       </c>
       <c r="H248" t="n">
-        <v>1</v>
-      </c>
-      <c r="I248" t="n">
-        <v>11270</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I248" t="inlineStr"/>
       <c r="J248" t="n">
-        <v>11300</v>
+        <v>11280</v>
       </c>
       <c r="K248" t="inlineStr">
         <is>
@@ -8774,13 +8720,11 @@
         <v>-6698.547853189992</v>
       </c>
       <c r="H249" t="n">
-        <v>1</v>
-      </c>
-      <c r="I249" t="n">
-        <v>11260</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I249" t="inlineStr"/>
       <c r="J249" t="n">
-        <v>11300</v>
+        <v>11280</v>
       </c>
       <c r="K249" t="inlineStr">
         <is>
@@ -8815,13 +8759,11 @@
         <v>-6698.547853189992</v>
       </c>
       <c r="H250" t="n">
-        <v>1</v>
-      </c>
-      <c r="I250" t="n">
-        <v>11230</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I250" t="inlineStr"/>
       <c r="J250" t="n">
-        <v>11300</v>
+        <v>11280</v>
       </c>
       <c r="K250" t="inlineStr">
         <is>
@@ -8862,7 +8804,7 @@
         <v>11230</v>
       </c>
       <c r="J251" t="n">
-        <v>11300</v>
+        <v>11280</v>
       </c>
       <c r="K251" t="inlineStr">
         <is>
@@ -8897,13 +8839,11 @@
         <v>-6518.067853189992</v>
       </c>
       <c r="H252" t="n">
-        <v>1</v>
-      </c>
-      <c r="I252" t="n">
-        <v>11230</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I252" t="inlineStr"/>
       <c r="J252" t="n">
-        <v>11300</v>
+        <v>11280</v>
       </c>
       <c r="K252" t="inlineStr">
         <is>
@@ -8938,13 +8878,11 @@
         <v>-6250.608653189992</v>
       </c>
       <c r="H253" t="n">
-        <v>1</v>
-      </c>
-      <c r="I253" t="n">
-        <v>11250</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I253" t="inlineStr"/>
       <c r="J253" t="n">
-        <v>11300</v>
+        <v>11280</v>
       </c>
       <c r="K253" t="inlineStr">
         <is>
@@ -8979,13 +8917,11 @@
         <v>-6100.108653189992</v>
       </c>
       <c r="H254" t="n">
-        <v>1</v>
-      </c>
-      <c r="I254" t="n">
-        <v>11260</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I254" t="inlineStr"/>
       <c r="J254" t="n">
-        <v>11300</v>
+        <v>11280</v>
       </c>
       <c r="K254" t="inlineStr">
         <is>
@@ -9020,13 +8956,11 @@
         <v>-6106.556353189992</v>
       </c>
       <c r="H255" t="n">
-        <v>1</v>
-      </c>
-      <c r="I255" t="n">
-        <v>11270</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I255" t="inlineStr"/>
       <c r="J255" t="n">
-        <v>11300</v>
+        <v>11280</v>
       </c>
       <c r="K255" t="inlineStr">
         <is>
@@ -9061,13 +8995,11 @@
         <v>-6104.820953189992</v>
       </c>
       <c r="H256" t="n">
-        <v>1</v>
-      </c>
-      <c r="I256" t="n">
-        <v>11260</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I256" t="inlineStr"/>
       <c r="J256" t="n">
-        <v>11300</v>
+        <v>11280</v>
       </c>
       <c r="K256" t="inlineStr">
         <is>
@@ -9102,13 +9034,11 @@
         <v>-6070.320953189992</v>
       </c>
       <c r="H257" t="n">
-        <v>1</v>
-      </c>
-      <c r="I257" t="n">
-        <v>11270</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I257" t="inlineStr"/>
       <c r="J257" t="n">
-        <v>11300</v>
+        <v>11280</v>
       </c>
       <c r="K257" t="inlineStr">
         <is>
@@ -9143,13 +9073,11 @@
         <v>-6070.320953189992</v>
       </c>
       <c r="H258" t="n">
-        <v>1</v>
-      </c>
-      <c r="I258" t="n">
-        <v>11330</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I258" t="inlineStr"/>
       <c r="J258" t="n">
-        <v>11300</v>
+        <v>11280</v>
       </c>
       <c r="K258" t="inlineStr">
         <is>
@@ -9184,13 +9112,11 @@
         <v>-6070.320953189992</v>
       </c>
       <c r="H259" t="n">
-        <v>1</v>
-      </c>
-      <c r="I259" t="n">
-        <v>11330</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I259" t="inlineStr"/>
       <c r="J259" t="n">
-        <v>11300</v>
+        <v>11280</v>
       </c>
       <c r="K259" t="inlineStr">
         <is>
@@ -9225,13 +9151,11 @@
         <v>-6068.560953189992</v>
       </c>
       <c r="H260" t="n">
-        <v>1</v>
-      </c>
-      <c r="I260" t="n">
-        <v>11330</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I260" t="inlineStr"/>
       <c r="J260" t="n">
-        <v>11300</v>
+        <v>11280</v>
       </c>
       <c r="K260" t="inlineStr">
         <is>
@@ -9270,7 +9194,7 @@
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="n">
-        <v>11300</v>
+        <v>11280</v>
       </c>
       <c r="K261" t="inlineStr">
         <is>
@@ -9309,7 +9233,7 @@
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="n">
-        <v>11300</v>
+        <v>11280</v>
       </c>
       <c r="K262" t="inlineStr">
         <is>
@@ -9348,7 +9272,7 @@
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="n">
-        <v>11300</v>
+        <v>11280</v>
       </c>
       <c r="K263" t="inlineStr">
         <is>
@@ -9387,7 +9311,7 @@
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="n">
-        <v>11300</v>
+        <v>11280</v>
       </c>
       <c r="K264" t="inlineStr">
         <is>
@@ -9426,7 +9350,7 @@
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="n">
-        <v>11300</v>
+        <v>11280</v>
       </c>
       <c r="K265" t="inlineStr">
         <is>
@@ -9465,7 +9389,7 @@
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="n">
-        <v>11300</v>
+        <v>11280</v>
       </c>
       <c r="K266" t="inlineStr">
         <is>
@@ -9504,7 +9428,7 @@
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="n">
-        <v>11300</v>
+        <v>11280</v>
       </c>
       <c r="K267" t="inlineStr">
         <is>
@@ -9543,7 +9467,7 @@
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="n">
-        <v>11300</v>
+        <v>11280</v>
       </c>
       <c r="K268" t="inlineStr">
         <is>
@@ -9582,7 +9506,7 @@
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="n">
-        <v>11300</v>
+        <v>11280</v>
       </c>
       <c r="K269" t="inlineStr">
         <is>
@@ -9621,7 +9545,7 @@
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="n">
-        <v>11300</v>
+        <v>11280</v>
       </c>
       <c r="K270" t="inlineStr">
         <is>
@@ -9660,7 +9584,7 @@
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="n">
-        <v>11300</v>
+        <v>11280</v>
       </c>
       <c r="K271" t="inlineStr">
         <is>
@@ -9699,7 +9623,7 @@
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="n">
-        <v>11300</v>
+        <v>11280</v>
       </c>
       <c r="K272" t="inlineStr">
         <is>
@@ -9738,7 +9662,7 @@
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="n">
-        <v>11300</v>
+        <v>11280</v>
       </c>
       <c r="K273" t="inlineStr">
         <is>
@@ -9777,7 +9701,7 @@
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="n">
-        <v>11300</v>
+        <v>11280</v>
       </c>
       <c r="K274" t="inlineStr">
         <is>
@@ -9816,7 +9740,7 @@
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="n">
-        <v>11300</v>
+        <v>11280</v>
       </c>
       <c r="K275" t="inlineStr">
         <is>
@@ -9855,7 +9779,7 @@
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="n">
-        <v>11300</v>
+        <v>11280</v>
       </c>
       <c r="K276" t="inlineStr">
         <is>
@@ -9894,7 +9818,7 @@
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="n">
-        <v>11300</v>
+        <v>11280</v>
       </c>
       <c r="K277" t="inlineStr">
         <is>
@@ -9933,7 +9857,7 @@
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="n">
-        <v>11300</v>
+        <v>11280</v>
       </c>
       <c r="K278" t="inlineStr">
         <is>
@@ -9972,7 +9896,7 @@
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="n">
-        <v>11300</v>
+        <v>11280</v>
       </c>
       <c r="K279" t="inlineStr">
         <is>
@@ -10011,7 +9935,7 @@
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="n">
-        <v>11300</v>
+        <v>11280</v>
       </c>
       <c r="K280" t="inlineStr">
         <is>
@@ -10050,7 +9974,7 @@
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="n">
-        <v>11300</v>
+        <v>11280</v>
       </c>
       <c r="K281" t="inlineStr">
         <is>
@@ -10089,7 +10013,7 @@
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="n">
-        <v>11300</v>
+        <v>11280</v>
       </c>
       <c r="K282" t="inlineStr">
         <is>
@@ -10128,7 +10052,7 @@
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="n">
-        <v>11300</v>
+        <v>11280</v>
       </c>
       <c r="K283" t="inlineStr">
         <is>
@@ -10163,13 +10087,11 @@
         <v>-6005.423753189992</v>
       </c>
       <c r="H284" t="n">
-        <v>1</v>
-      </c>
-      <c r="I284" t="n">
-        <v>11250</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I284" t="inlineStr"/>
       <c r="J284" t="n">
-        <v>11300</v>
+        <v>11280</v>
       </c>
       <c r="K284" t="inlineStr">
         <is>
@@ -10204,13 +10126,11 @@
         <v>-6005.423753189992</v>
       </c>
       <c r="H285" t="n">
-        <v>1</v>
-      </c>
-      <c r="I285" t="n">
-        <v>11250</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I285" t="inlineStr"/>
       <c r="J285" t="n">
-        <v>11300</v>
+        <v>11280</v>
       </c>
       <c r="K285" t="inlineStr">
         <is>
@@ -10245,13 +10165,11 @@
         <v>-5937.169053189991</v>
       </c>
       <c r="H286" t="n">
-        <v>1</v>
-      </c>
-      <c r="I286" t="n">
-        <v>11250</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I286" t="inlineStr"/>
       <c r="J286" t="n">
-        <v>11300</v>
+        <v>11280</v>
       </c>
       <c r="K286" t="inlineStr">
         <is>
@@ -10286,13 +10204,11 @@
         <v>-5937.169053189991</v>
       </c>
       <c r="H287" t="n">
-        <v>1</v>
-      </c>
-      <c r="I287" t="n">
+        <v>0</v>
+      </c>
+      <c r="I287" t="inlineStr"/>
+      <c r="J287" t="n">
         <v>11280</v>
-      </c>
-      <c r="J287" t="n">
-        <v>11300</v>
       </c>
       <c r="K287" t="inlineStr">
         <is>
@@ -10327,13 +10243,11 @@
         <v>-5887.169053189991</v>
       </c>
       <c r="H288" t="n">
-        <v>1</v>
-      </c>
-      <c r="I288" t="n">
+        <v>0</v>
+      </c>
+      <c r="I288" t="inlineStr"/>
+      <c r="J288" t="n">
         <v>11280</v>
-      </c>
-      <c r="J288" t="n">
-        <v>11300</v>
       </c>
       <c r="K288" t="inlineStr">
         <is>
@@ -10368,13 +10282,11 @@
         <v>-6044.213253189992</v>
       </c>
       <c r="H289" t="n">
-        <v>1</v>
-      </c>
-      <c r="I289" t="n">
-        <v>11310</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I289" t="inlineStr"/>
       <c r="J289" t="n">
-        <v>11300</v>
+        <v>11280</v>
       </c>
       <c r="K289" t="inlineStr">
         <is>
@@ -10409,13 +10321,11 @@
         <v>-6027.213253189992</v>
       </c>
       <c r="H290" t="n">
-        <v>1</v>
-      </c>
-      <c r="I290" t="n">
+        <v>0</v>
+      </c>
+      <c r="I290" t="inlineStr"/>
+      <c r="J290" t="n">
         <v>11280</v>
-      </c>
-      <c r="J290" t="n">
-        <v>11300</v>
       </c>
       <c r="K290" t="inlineStr">
         <is>
@@ -10450,13 +10360,11 @@
         <v>-5729.113253189991</v>
       </c>
       <c r="H291" t="n">
-        <v>1</v>
-      </c>
-      <c r="I291" t="n">
-        <v>11300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I291" t="inlineStr"/>
       <c r="J291" t="n">
-        <v>11300</v>
+        <v>11280</v>
       </c>
       <c r="K291" t="inlineStr">
         <is>
@@ -10491,13 +10399,11 @@
         <v>-5729.113253189991</v>
       </c>
       <c r="H292" t="n">
-        <v>1</v>
-      </c>
-      <c r="I292" t="n">
-        <v>11350</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I292" t="inlineStr"/>
       <c r="J292" t="n">
-        <v>11300</v>
+        <v>11280</v>
       </c>
       <c r="K292" t="inlineStr">
         <is>
@@ -10532,13 +10438,11 @@
         <v>-5732.336953189991</v>
       </c>
       <c r="H293" t="n">
-        <v>1</v>
-      </c>
-      <c r="I293" t="n">
-        <v>11350</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I293" t="inlineStr"/>
       <c r="J293" t="n">
-        <v>11300</v>
+        <v>11280</v>
       </c>
       <c r="K293" t="inlineStr">
         <is>
@@ -10573,13 +10477,11 @@
         <v>-5821.336953189991</v>
       </c>
       <c r="H294" t="n">
-        <v>1</v>
-      </c>
-      <c r="I294" t="n">
-        <v>11310</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I294" t="inlineStr"/>
       <c r="J294" t="n">
-        <v>11300</v>
+        <v>11280</v>
       </c>
       <c r="K294" t="inlineStr">
         <is>
@@ -10614,13 +10516,11 @@
         <v>-5821.289953189991</v>
       </c>
       <c r="H295" t="n">
-        <v>1</v>
-      </c>
-      <c r="I295" t="n">
-        <v>11300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I295" t="inlineStr"/>
       <c r="J295" t="n">
-        <v>11300</v>
+        <v>11280</v>
       </c>
       <c r="K295" t="inlineStr">
         <is>
@@ -10659,7 +10559,7 @@
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="n">
-        <v>11300</v>
+        <v>11280</v>
       </c>
       <c r="K296" t="inlineStr">
         <is>
@@ -10694,13 +10594,11 @@
         <v>-5821.289953189991</v>
       </c>
       <c r="H297" t="n">
-        <v>1</v>
-      </c>
-      <c r="I297" t="n">
-        <v>11360</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I297" t="inlineStr"/>
       <c r="J297" t="n">
-        <v>11300</v>
+        <v>11280</v>
       </c>
       <c r="K297" t="inlineStr">
         <is>
@@ -10739,7 +10637,7 @@
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="n">
-        <v>11300</v>
+        <v>11280</v>
       </c>
       <c r="K298" t="inlineStr">
         <is>
@@ -10774,13 +10672,11 @@
         <v>-5841.467453189991</v>
       </c>
       <c r="H299" t="n">
-        <v>1</v>
-      </c>
-      <c r="I299" t="n">
-        <v>11300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I299" t="inlineStr"/>
       <c r="J299" t="n">
-        <v>11300</v>
+        <v>11280</v>
       </c>
       <c r="K299" t="inlineStr">
         <is>
@@ -10815,13 +10711,11 @@
         <v>-5841.467453189991</v>
       </c>
       <c r="H300" t="n">
-        <v>1</v>
-      </c>
-      <c r="I300" t="n">
-        <v>11300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I300" t="inlineStr"/>
       <c r="J300" t="n">
-        <v>11300</v>
+        <v>11280</v>
       </c>
       <c r="K300" t="inlineStr">
         <is>
@@ -10856,13 +10750,11 @@
         <v>-5671.467453189991</v>
       </c>
       <c r="H301" t="n">
-        <v>1</v>
-      </c>
-      <c r="I301" t="n">
-        <v>11300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I301" t="inlineStr"/>
       <c r="J301" t="n">
-        <v>11300</v>
+        <v>11280</v>
       </c>
       <c r="K301" t="inlineStr">
         <is>
@@ -10897,13 +10789,11 @@
         <v>-5654.813153189991</v>
       </c>
       <c r="H302" t="n">
-        <v>1</v>
-      </c>
-      <c r="I302" t="n">
-        <v>11320</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I302" t="inlineStr"/>
       <c r="J302" t="n">
-        <v>11300</v>
+        <v>11280</v>
       </c>
       <c r="K302" t="inlineStr">
         <is>
@@ -10938,13 +10828,11 @@
         <v>-5653.813153189991</v>
       </c>
       <c r="H303" t="n">
-        <v>1</v>
-      </c>
-      <c r="I303" t="n">
-        <v>11370</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I303" t="inlineStr"/>
       <c r="J303" t="n">
-        <v>11300</v>
+        <v>11280</v>
       </c>
       <c r="K303" t="inlineStr">
         <is>
@@ -10983,7 +10871,7 @@
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="n">
-        <v>11300</v>
+        <v>11280</v>
       </c>
       <c r="K304" t="inlineStr">
         <is>
@@ -11022,7 +10910,7 @@
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="n">
-        <v>11300</v>
+        <v>11280</v>
       </c>
       <c r="K305" t="inlineStr">
         <is>
@@ -11061,7 +10949,7 @@
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="n">
-        <v>11300</v>
+        <v>11280</v>
       </c>
       <c r="K306" t="inlineStr">
         <is>
@@ -11100,7 +10988,7 @@
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="n">
-        <v>11300</v>
+        <v>11280</v>
       </c>
       <c r="K307" t="inlineStr">
         <is>
@@ -11139,7 +11027,7 @@
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="n">
-        <v>11300</v>
+        <v>11280</v>
       </c>
       <c r="K308" t="inlineStr">
         <is>
@@ -11178,7 +11066,7 @@
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="n">
-        <v>11300</v>
+        <v>11280</v>
       </c>
       <c r="K309" t="inlineStr">
         <is>
@@ -11217,7 +11105,7 @@
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="n">
-        <v>11300</v>
+        <v>11280</v>
       </c>
       <c r="K310" t="inlineStr">
         <is>
@@ -11252,19 +11140,19 @@
         <v>-4212.886553189991</v>
       </c>
       <c r="H311" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="n">
-        <v>11300</v>
+        <v>11280</v>
       </c>
       <c r="K311" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L311" t="n">
-        <v>1</v>
+        <v>1.025141843971631</v>
       </c>
       <c r="M311" t="inlineStr"/>
     </row>
@@ -11291,17 +11179,11 @@
         <v>-4310.822953189991</v>
       </c>
       <c r="H312" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="n">
-        <v>11300</v>
-      </c>
-      <c r="K312" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J312" t="inlineStr"/>
+      <c r="K312" t="inlineStr"/>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -11333,14 +11215,8 @@
         <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="n">
-        <v>11300</v>
-      </c>
-      <c r="K313" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J313" t="inlineStr"/>
+      <c r="K313" t="inlineStr"/>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -11369,17 +11245,11 @@
         <v>-1978.14245318999</v>
       </c>
       <c r="H314" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="n">
-        <v>11300</v>
-      </c>
-      <c r="K314" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J314" t="inlineStr"/>
+      <c r="K314" t="inlineStr"/>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -11408,17 +11278,11 @@
         <v>-1978.14245318999</v>
       </c>
       <c r="H315" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="n">
-        <v>11300</v>
-      </c>
-      <c r="K315" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J315" t="inlineStr"/>
+      <c r="K315" t="inlineStr"/>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -11447,17 +11311,11 @@
         <v>-2028.14245318999</v>
       </c>
       <c r="H316" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="n">
-        <v>11300</v>
-      </c>
-      <c r="K316" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J316" t="inlineStr"/>
+      <c r="K316" t="inlineStr"/>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -11486,17 +11344,11 @@
         <v>-1898.28095318999</v>
       </c>
       <c r="H317" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="n">
-        <v>11300</v>
-      </c>
-      <c r="K317" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J317" t="inlineStr"/>
+      <c r="K317" t="inlineStr"/>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -11525,17 +11377,11 @@
         <v>-1766.78095318999</v>
       </c>
       <c r="H318" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="n">
-        <v>11300</v>
-      </c>
-      <c r="K318" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J318" t="inlineStr"/>
+      <c r="K318" t="inlineStr"/>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -11564,17 +11410,11 @@
         <v>-1976.28095318999</v>
       </c>
       <c r="H319" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="n">
-        <v>11300</v>
-      </c>
-      <c r="K319" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J319" t="inlineStr"/>
+      <c r="K319" t="inlineStr"/>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -11603,17 +11443,11 @@
         <v>-1906.28095318999</v>
       </c>
       <c r="H320" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="n">
-        <v>11300</v>
-      </c>
-      <c r="K320" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J320" t="inlineStr"/>
+      <c r="K320" t="inlineStr"/>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -11642,17 +11476,11 @@
         <v>-1277.71485318999</v>
       </c>
       <c r="H321" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="n">
-        <v>11300</v>
-      </c>
-      <c r="K321" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J321" t="inlineStr"/>
+      <c r="K321" t="inlineStr"/>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11684,14 +11512,8 @@
         <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="n">
-        <v>11300</v>
-      </c>
-      <c r="K322" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J322" t="inlineStr"/>
+      <c r="K322" t="inlineStr"/>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11723,14 +11545,8 @@
         <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="n">
-        <v>11300</v>
-      </c>
-      <c r="K323" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J323" t="inlineStr"/>
+      <c r="K323" t="inlineStr"/>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11759,17 +11575,11 @@
         <v>-834.9935345399902</v>
       </c>
       <c r="H324" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="n">
-        <v>11300</v>
-      </c>
-      <c r="K324" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J324" t="inlineStr"/>
+      <c r="K324" t="inlineStr"/>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -11798,17 +11608,11 @@
         <v>-834.9935345399902</v>
       </c>
       <c r="H325" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="n">
-        <v>11300</v>
-      </c>
-      <c r="K325" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J325" t="inlineStr"/>
+      <c r="K325" t="inlineStr"/>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -11837,17 +11641,11 @@
         <v>-320.8305158899901</v>
       </c>
       <c r="H326" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="n">
-        <v>11300</v>
-      </c>
-      <c r="K326" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J326" t="inlineStr"/>
+      <c r="K326" t="inlineStr"/>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -11876,17 +11674,11 @@
         <v>1061.67908411001</v>
       </c>
       <c r="H327" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="n">
-        <v>11300</v>
-      </c>
-      <c r="K327" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J327" t="inlineStr"/>
+      <c r="K327" t="inlineStr"/>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -11918,14 +11710,8 @@
         <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="n">
-        <v>11300</v>
-      </c>
-      <c r="K328" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J328" t="inlineStr"/>
+      <c r="K328" t="inlineStr"/>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -11957,14 +11743,8 @@
         <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="n">
-        <v>11300</v>
-      </c>
-      <c r="K329" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J329" t="inlineStr"/>
+      <c r="K329" t="inlineStr"/>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -11996,14 +11776,8 @@
         <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="n">
-        <v>11300</v>
-      </c>
-      <c r="K330" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J330" t="inlineStr"/>
+      <c r="K330" t="inlineStr"/>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -12035,14 +11809,8 @@
         <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="n">
-        <v>11300</v>
-      </c>
-      <c r="K331" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J331" t="inlineStr"/>
+      <c r="K331" t="inlineStr"/>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -12074,14 +11842,8 @@
         <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="n">
-        <v>11300</v>
-      </c>
-      <c r="K332" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J332" t="inlineStr"/>
+      <c r="K332" t="inlineStr"/>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -12113,14 +11875,8 @@
         <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="n">
-        <v>11300</v>
-      </c>
-      <c r="K333" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J333" t="inlineStr"/>
+      <c r="K333" t="inlineStr"/>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -12152,14 +11908,8 @@
         <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="n">
-        <v>11300</v>
-      </c>
-      <c r="K334" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J334" t="inlineStr"/>
+      <c r="K334" t="inlineStr"/>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -12191,14 +11941,8 @@
         <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="n">
-        <v>11300</v>
-      </c>
-      <c r="K335" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J335" t="inlineStr"/>
+      <c r="K335" t="inlineStr"/>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -12230,14 +11974,8 @@
         <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="n">
-        <v>11300</v>
-      </c>
-      <c r="K336" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J336" t="inlineStr"/>
+      <c r="K336" t="inlineStr"/>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -12269,14 +12007,8 @@
         <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="n">
-        <v>11300</v>
-      </c>
-      <c r="K337" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J337" t="inlineStr"/>
+      <c r="K337" t="inlineStr"/>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -12308,14 +12040,8 @@
         <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="n">
-        <v>11300</v>
-      </c>
-      <c r="K338" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J338" t="inlineStr"/>
+      <c r="K338" t="inlineStr"/>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -12347,14 +12073,8 @@
         <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="n">
-        <v>11300</v>
-      </c>
-      <c r="K339" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J339" t="inlineStr"/>
+      <c r="K339" t="inlineStr"/>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -12386,14 +12106,8 @@
         <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="n">
-        <v>11300</v>
-      </c>
-      <c r="K340" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J340" t="inlineStr"/>
+      <c r="K340" t="inlineStr"/>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -12425,14 +12139,8 @@
         <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="n">
-        <v>11300</v>
-      </c>
-      <c r="K341" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J341" t="inlineStr"/>
+      <c r="K341" t="inlineStr"/>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -12464,14 +12172,8 @@
         <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="n">
-        <v>11300</v>
-      </c>
-      <c r="K342" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J342" t="inlineStr"/>
+      <c r="K342" t="inlineStr"/>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -12503,14 +12205,8 @@
         <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="n">
-        <v>11300</v>
-      </c>
-      <c r="K343" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J343" t="inlineStr"/>
+      <c r="K343" t="inlineStr"/>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -12542,14 +12238,8 @@
         <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="n">
-        <v>11300</v>
-      </c>
-      <c r="K344" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J344" t="inlineStr"/>
+      <c r="K344" t="inlineStr"/>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -12581,14 +12271,8 @@
         <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="n">
-        <v>11300</v>
-      </c>
-      <c r="K345" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J345" t="inlineStr"/>
+      <c r="K345" t="inlineStr"/>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -12620,14 +12304,8 @@
         <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="n">
-        <v>11300</v>
-      </c>
-      <c r="K346" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J346" t="inlineStr"/>
+      <c r="K346" t="inlineStr"/>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -12659,14 +12337,8 @@
         <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="n">
-        <v>11300</v>
-      </c>
-      <c r="K347" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J347" t="inlineStr"/>
+      <c r="K347" t="inlineStr"/>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -12698,14 +12370,8 @@
         <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="n">
-        <v>11300</v>
-      </c>
-      <c r="K348" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J348" t="inlineStr"/>
+      <c r="K348" t="inlineStr"/>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -12737,14 +12403,8 @@
         <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="n">
-        <v>11300</v>
-      </c>
-      <c r="K349" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J349" t="inlineStr"/>
+      <c r="K349" t="inlineStr"/>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -12776,14 +12436,8 @@
         <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="n">
-        <v>11300</v>
-      </c>
-      <c r="K350" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J350" t="inlineStr"/>
+      <c r="K350" t="inlineStr"/>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -12815,14 +12469,8 @@
         <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="n">
-        <v>11300</v>
-      </c>
-      <c r="K351" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J351" t="inlineStr"/>
+      <c r="K351" t="inlineStr"/>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12854,14 +12502,8 @@
         <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="n">
-        <v>11300</v>
-      </c>
-      <c r="K352" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J352" t="inlineStr"/>
+      <c r="K352" t="inlineStr"/>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -12893,14 +12535,8 @@
         <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="n">
-        <v>11300</v>
-      </c>
-      <c r="K353" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J353" t="inlineStr"/>
+      <c r="K353" t="inlineStr"/>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -12932,14 +12568,8 @@
         <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="n">
-        <v>11300</v>
-      </c>
-      <c r="K354" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J354" t="inlineStr"/>
+      <c r="K354" t="inlineStr"/>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -12971,14 +12601,8 @@
         <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="n">
-        <v>11300</v>
-      </c>
-      <c r="K355" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J355" t="inlineStr"/>
+      <c r="K355" t="inlineStr"/>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -13010,14 +12634,8 @@
         <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="n">
-        <v>11300</v>
-      </c>
-      <c r="K356" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J356" t="inlineStr"/>
+      <c r="K356" t="inlineStr"/>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -13049,14 +12667,8 @@
         <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="n">
-        <v>11300</v>
-      </c>
-      <c r="K357" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J357" t="inlineStr"/>
+      <c r="K357" t="inlineStr"/>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -13088,14 +12700,8 @@
         <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="n">
-        <v>11300</v>
-      </c>
-      <c r="K358" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J358" t="inlineStr"/>
+      <c r="K358" t="inlineStr"/>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -13127,14 +12733,8 @@
         <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="n">
-        <v>11300</v>
-      </c>
-      <c r="K359" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J359" t="inlineStr"/>
+      <c r="K359" t="inlineStr"/>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -13166,14 +12766,8 @@
         <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="n">
-        <v>11300</v>
-      </c>
-      <c r="K360" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J360" t="inlineStr"/>
+      <c r="K360" t="inlineStr"/>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -13205,14 +12799,8 @@
         <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="n">
-        <v>11300</v>
-      </c>
-      <c r="K361" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J361" t="inlineStr"/>
+      <c r="K361" t="inlineStr"/>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -13241,19 +12829,13 @@
         <v>-173.50770223999</v>
       </c>
       <c r="H362" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="n">
-        <v>11300</v>
-      </c>
-      <c r="K362" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J362" t="inlineStr"/>
+      <c r="K362" t="inlineStr"/>
       <c r="L362" t="n">
-        <v>1.03924778761062</v>
+        <v>1</v>
       </c>
       <c r="M362" t="inlineStr"/>
     </row>
@@ -13280,7 +12862,7 @@
         <v>-47.75070223999003</v>
       </c>
       <c r="H363" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -13313,7 +12895,7 @@
         <v>-55.44700223999003</v>
       </c>
       <c r="H364" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -13346,7 +12928,7 @@
         <v>-55.44700223999003</v>
       </c>
       <c r="H365" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -13379,7 +12961,7 @@
         <v>-382.97930223999</v>
       </c>
       <c r="H366" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
@@ -13412,7 +12994,7 @@
         <v>-382.92930223999</v>
       </c>
       <c r="H367" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -13445,7 +13027,7 @@
         <v>-504.56540223999</v>
       </c>
       <c r="H368" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -13478,7 +13060,7 @@
         <v>-547.79100223999</v>
       </c>
       <c r="H369" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
@@ -13511,7 +13093,7 @@
         <v>-211.77150223999</v>
       </c>
       <c r="H370" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
@@ -13544,7 +13126,7 @@
         <v>-438.35470223999</v>
       </c>
       <c r="H371" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -13577,7 +13159,7 @@
         <v>-438.35470223999</v>
       </c>
       <c r="H372" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -13610,7 +13192,7 @@
         <v>-438.35470223999</v>
       </c>
       <c r="H373" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -13643,7 +13225,7 @@
         <v>-938.40470223999</v>
       </c>
       <c r="H374" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
@@ -13676,7 +13258,7 @@
         <v>-1418.01410223999</v>
       </c>
       <c r="H375" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -13709,7 +13291,7 @@
         <v>-1417.31410223999</v>
       </c>
       <c r="H376" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -15392,7 +14974,7 @@
         <v>-970.06720223999</v>
       </c>
       <c r="H427" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
@@ -16019,7 +15601,7 @@
         <v>-1673.46440223999</v>
       </c>
       <c r="H446" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
@@ -16118,7 +15700,7 @@
         <v>-1444.17500223999</v>
       </c>
       <c r="H449" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
@@ -16151,7 +15733,7 @@
         <v>-1444.17500223999</v>
       </c>
       <c r="H450" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
@@ -17768,7 +17350,7 @@
         <v>1334.76487694001</v>
       </c>
       <c r="H499" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
@@ -17801,7 +17383,7 @@
         <v>1334.76487694001</v>
       </c>
       <c r="H500" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
@@ -18065,7 +17647,7 @@
         <v>958.1654769400096</v>
       </c>
       <c r="H508" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
@@ -18197,7 +17779,7 @@
         <v>920.0381769400096</v>
       </c>
       <c r="H512" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
@@ -18263,7 +17845,7 @@
         <v>563.8037769400096</v>
       </c>
       <c r="H514" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
@@ -18296,7 +17878,7 @@
         <v>563.8037769400096</v>
       </c>
       <c r="H515" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
@@ -18329,7 +17911,7 @@
         <v>700.3037769400096</v>
       </c>
       <c r="H516" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
@@ -20111,7 +19693,7 @@
         <v>-3012.947335299988</v>
       </c>
       <c r="H570" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
@@ -20144,7 +19726,7 @@
         <v>-2411.555135299988</v>
       </c>
       <c r="H571" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="inlineStr"/>
@@ -20177,7 +19759,7 @@
         <v>-2376.139935299988</v>
       </c>
       <c r="H572" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="inlineStr"/>
@@ -20210,7 +19792,7 @@
         <v>-2393.184635299988</v>
       </c>
       <c r="H573" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="inlineStr"/>
@@ -20243,7 +19825,7 @@
         <v>-631.5364352999882</v>
       </c>
       <c r="H574" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="inlineStr"/>
@@ -21167,7 +20749,7 @@
         <v>4073.748743240012</v>
       </c>
       <c r="H602" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I602" t="inlineStr"/>
       <c r="J602" t="inlineStr"/>
@@ -21200,7 +20782,7 @@
         <v>3985.987443240012</v>
       </c>
       <c r="H603" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I603" t="inlineStr"/>
       <c r="J603" t="inlineStr"/>
@@ -21233,7 +20815,7 @@
         <v>3985.987443240012</v>
       </c>
       <c r="H604" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
@@ -21629,7 +21211,7 @@
         <v>4555.560070390011</v>
       </c>
       <c r="H616" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I616" t="inlineStr"/>
       <c r="J616" t="inlineStr"/>
@@ -21662,7 +21244,7 @@
         <v>4555.560070390011</v>
       </c>
       <c r="H617" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I617" t="inlineStr"/>
       <c r="J617" t="inlineStr"/>
@@ -21695,7 +21277,7 @@
         <v>4554.560070390011</v>
       </c>
       <c r="H618" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I618" t="inlineStr"/>
       <c r="J618" t="inlineStr"/>
@@ -21728,7 +21310,7 @@
         <v>4505.072270390011</v>
       </c>
       <c r="H619" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I619" t="inlineStr"/>
       <c r="J619" t="inlineStr"/>
@@ -21761,7 +21343,7 @@
         <v>4555.870570390011</v>
       </c>
       <c r="H620" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I620" t="inlineStr"/>
       <c r="J620" t="inlineStr"/>
@@ -21794,7 +21376,7 @@
         <v>4585.210570390012</v>
       </c>
       <c r="H621" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I621" t="inlineStr"/>
       <c r="J621" t="inlineStr"/>
@@ -21827,7 +21409,7 @@
         <v>4780.880570390012</v>
       </c>
       <c r="H622" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I622" t="inlineStr"/>
       <c r="J622" t="inlineStr"/>
@@ -21860,7 +21442,7 @@
         <v>4911.965470390011</v>
       </c>
       <c r="H623" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I623" t="inlineStr"/>
       <c r="J623" t="inlineStr"/>
@@ -21893,7 +21475,7 @@
         <v>4911.838270390012</v>
       </c>
       <c r="H624" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I624" t="inlineStr"/>
       <c r="J624" t="inlineStr"/>
@@ -21926,7 +21508,7 @@
         <v>4703.627570390012</v>
       </c>
       <c r="H625" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="inlineStr"/>
@@ -21959,7 +21541,7 @@
         <v>4703.627570390012</v>
       </c>
       <c r="H626" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I626" t="inlineStr"/>
       <c r="J626" t="inlineStr"/>
@@ -21992,7 +21574,7 @@
         <v>4703.760170390012</v>
       </c>
       <c r="H627" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I627" t="inlineStr"/>
       <c r="J627" t="inlineStr"/>
@@ -22025,7 +21607,7 @@
         <v>4620.355870390012</v>
       </c>
       <c r="H628" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr"/>
@@ -22058,7 +21640,7 @@
         <v>4620.355870390012</v>
       </c>
       <c r="H629" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr"/>
@@ -22091,7 +21673,7 @@
         <v>4620.355870390012</v>
       </c>
       <c r="H630" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="inlineStr"/>
@@ -22124,7 +21706,7 @@
         <v>4620.355870390012</v>
       </c>
       <c r="H631" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr"/>
@@ -22157,7 +21739,7 @@
         <v>4620.355870390012</v>
       </c>
       <c r="H632" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I632" t="inlineStr"/>
       <c r="J632" t="inlineStr"/>
@@ -22190,7 +21772,7 @@
         <v>4570.355870390012</v>
       </c>
       <c r="H633" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I633" t="inlineStr"/>
       <c r="J633" t="inlineStr"/>
@@ -22223,7 +21805,7 @@
         <v>4570.355870390012</v>
       </c>
       <c r="H634" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="inlineStr"/>
@@ -22256,7 +21838,7 @@
         <v>4570.355870390012</v>
       </c>
       <c r="H635" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I635" t="inlineStr"/>
       <c r="J635" t="inlineStr"/>
@@ -22289,7 +21871,7 @@
         <v>4288.660870390012</v>
       </c>
       <c r="H636" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I636" t="inlineStr"/>
       <c r="J636" t="inlineStr"/>
@@ -22322,7 +21904,7 @@
         <v>4275.744470390012</v>
       </c>
       <c r="H637" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr"/>
@@ -22355,7 +21937,7 @@
         <v>4275.744470390012</v>
       </c>
       <c r="H638" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr"/>
@@ -22388,7 +21970,7 @@
         <v>4149.595270390012</v>
       </c>
       <c r="H639" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I639" t="inlineStr"/>
       <c r="J639" t="inlineStr"/>
@@ -22421,7 +22003,7 @@
         <v>4149.595270390012</v>
       </c>
       <c r="H640" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I640" t="inlineStr"/>
       <c r="J640" t="inlineStr"/>
@@ -22454,7 +22036,7 @@
         <v>4149.595270390012</v>
       </c>
       <c r="H641" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I641" t="inlineStr"/>
       <c r="J641" t="inlineStr"/>
@@ -22487,7 +22069,7 @@
         <v>4149.595270390012</v>
       </c>
       <c r="H642" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I642" t="inlineStr"/>
       <c r="J642" t="inlineStr"/>
@@ -22520,7 +22102,7 @@
         <v>4149.595270390012</v>
       </c>
       <c r="H643" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I643" t="inlineStr"/>
       <c r="J643" t="inlineStr"/>
@@ -22553,7 +22135,7 @@
         <v>4359.279670390012</v>
       </c>
       <c r="H644" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I644" t="inlineStr"/>
       <c r="J644" t="inlineStr"/>
@@ -22586,7 +22168,7 @@
         <v>4359.279670390012</v>
       </c>
       <c r="H645" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I645" t="inlineStr"/>
       <c r="J645" t="inlineStr"/>
@@ -22619,7 +22201,7 @@
         <v>4322.279670390012</v>
       </c>
       <c r="H646" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I646" t="inlineStr"/>
       <c r="J646" t="inlineStr"/>
@@ -22652,7 +22234,7 @@
         <v>4502.279670390012</v>
       </c>
       <c r="H647" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I647" t="inlineStr"/>
       <c r="J647" t="inlineStr"/>
@@ -22685,7 +22267,7 @@
         <v>4592.279670390012</v>
       </c>
       <c r="H648" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I648" t="inlineStr"/>
       <c r="J648" t="inlineStr"/>
@@ -22718,7 +22300,7 @@
         <v>4591.222970390012</v>
       </c>
       <c r="H649" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I649" t="inlineStr"/>
       <c r="J649" t="inlineStr"/>
@@ -22751,7 +22333,7 @@
         <v>4551.722970390012</v>
       </c>
       <c r="H650" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I650" t="inlineStr"/>
       <c r="J650" t="inlineStr"/>
@@ -22784,7 +22366,7 @@
         <v>4551.722970390012</v>
       </c>
       <c r="H651" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I651" t="inlineStr"/>
       <c r="J651" t="inlineStr"/>
@@ -22817,7 +22399,7 @@
         <v>4551.722970390012</v>
       </c>
       <c r="H652" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I652" t="inlineStr"/>
       <c r="J652" t="inlineStr"/>
@@ -22850,7 +22432,7 @@
         <v>4609.919570390012</v>
       </c>
       <c r="H653" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I653" t="inlineStr"/>
       <c r="J653" t="inlineStr"/>
@@ -22883,7 +22465,7 @@
         <v>4609.919570390012</v>
       </c>
       <c r="H654" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I654" t="inlineStr"/>
       <c r="J654" t="inlineStr"/>
@@ -22916,7 +22498,7 @@
         <v>4760.788070390012</v>
       </c>
       <c r="H655" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I655" t="inlineStr"/>
       <c r="J655" t="inlineStr"/>
@@ -22949,7 +22531,7 @@
         <v>4760.788070390012</v>
       </c>
       <c r="H656" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I656" t="inlineStr"/>
       <c r="J656" t="inlineStr"/>
@@ -22982,7 +22564,7 @@
         <v>4764.788070390012</v>
       </c>
       <c r="H657" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I657" t="inlineStr"/>
       <c r="J657" t="inlineStr"/>
@@ -23015,7 +22597,7 @@
         <v>4764.788070390012</v>
       </c>
       <c r="H658" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I658" t="inlineStr"/>
       <c r="J658" t="inlineStr"/>
@@ -23114,7 +22696,7 @@
         <v>5096.134470390012</v>
       </c>
       <c r="H661" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I661" t="inlineStr"/>
       <c r="J661" t="inlineStr"/>
@@ -23147,7 +22729,7 @@
         <v>5134.941970390012</v>
       </c>
       <c r="H662" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I662" t="inlineStr"/>
       <c r="J662" t="inlineStr"/>
@@ -23180,7 +22762,7 @@
         <v>5064.547670390012</v>
       </c>
       <c r="H663" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I663" t="inlineStr"/>
       <c r="J663" t="inlineStr"/>
@@ -23213,7 +22795,7 @@
         <v>5064.547670390012</v>
       </c>
       <c r="H664" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I664" t="inlineStr"/>
       <c r="J664" t="inlineStr"/>
@@ -23246,7 +22828,7 @@
         <v>5064.547670390012</v>
       </c>
       <c r="H665" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I665" t="inlineStr"/>
       <c r="J665" t="inlineStr"/>
@@ -23279,7 +22861,7 @@
         <v>5064.547670390012</v>
       </c>
       <c r="H666" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I666" t="inlineStr"/>
       <c r="J666" t="inlineStr"/>
@@ -23312,7 +22894,7 @@
         <v>5064.547670390012</v>
       </c>
       <c r="H667" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I667" t="inlineStr"/>
       <c r="J667" t="inlineStr"/>
@@ -23411,7 +22993,7 @@
         <v>4977.675670390012</v>
       </c>
       <c r="H670" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I670" t="inlineStr"/>
       <c r="J670" t="inlineStr"/>
@@ -23444,7 +23026,7 @@
         <v>5101.641770390012</v>
       </c>
       <c r="H671" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I671" t="inlineStr"/>
       <c r="J671" t="inlineStr"/>
@@ -23477,7 +23059,7 @@
         <v>5102.641770390012</v>
       </c>
       <c r="H672" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I672" t="inlineStr"/>
       <c r="J672" t="inlineStr"/>
@@ -23510,7 +23092,7 @@
         <v>5090.641770390012</v>
       </c>
       <c r="H673" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I673" t="inlineStr"/>
       <c r="J673" t="inlineStr"/>
@@ -23543,7 +23125,7 @@
         <v>5181.641770390012</v>
       </c>
       <c r="H674" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I674" t="inlineStr"/>
       <c r="J674" t="inlineStr"/>
@@ -23576,7 +23158,7 @@
         <v>5181.271370390012</v>
       </c>
       <c r="H675" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I675" t="inlineStr"/>
       <c r="J675" t="inlineStr"/>
@@ -23642,7 +23224,7 @@
         <v>5120.585670390012</v>
       </c>
       <c r="H677" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I677" t="inlineStr"/>
       <c r="J677" t="inlineStr"/>
@@ -23708,7 +23290,7 @@
         <v>4255.108070390012</v>
       </c>
       <c r="H679" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I679" t="inlineStr"/>
       <c r="J679" t="inlineStr"/>
@@ -23741,7 +23323,7 @@
         <v>4251.961970390012</v>
       </c>
       <c r="H680" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I680" t="inlineStr"/>
       <c r="J680" t="inlineStr"/>
@@ -23774,7 +23356,7 @@
         <v>4251.961970390012</v>
       </c>
       <c r="H681" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I681" t="inlineStr"/>
       <c r="J681" t="inlineStr"/>
@@ -23807,7 +23389,7 @@
         <v>4360.657670390012</v>
       </c>
       <c r="H682" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I682" t="inlineStr"/>
       <c r="J682" t="inlineStr"/>
@@ -23840,7 +23422,7 @@
         <v>4534.512170390012</v>
       </c>
       <c r="H683" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I683" t="inlineStr"/>
       <c r="J683" t="inlineStr"/>
@@ -23873,7 +23455,7 @@
         <v>4530.512170390012</v>
       </c>
       <c r="H684" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I684" t="inlineStr"/>
       <c r="J684" t="inlineStr"/>
@@ -24236,7 +23818,7 @@
         <v>4832.937070390012</v>
       </c>
       <c r="H695" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I695" t="inlineStr"/>
       <c r="J695" t="inlineStr"/>
@@ -25589,7 +25171,7 @@
         <v>6460.160036530013</v>
       </c>
       <c r="H736" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I736" t="inlineStr"/>
       <c r="J736" t="inlineStr"/>
@@ -25622,7 +25204,7 @@
         <v>6130.774936530012</v>
       </c>
       <c r="H737" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I737" t="inlineStr"/>
       <c r="J737" t="inlineStr"/>
@@ -25721,7 +25303,7 @@
         <v>5961.774936530012</v>
       </c>
       <c r="H740" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I740" t="inlineStr"/>
       <c r="J740" t="inlineStr"/>
@@ -25820,7 +25402,7 @@
         <v>6094.223031780012</v>
       </c>
       <c r="H743" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I743" t="inlineStr"/>
       <c r="J743" t="inlineStr"/>
@@ -25853,7 +25435,7 @@
         <v>6090.643031780012</v>
       </c>
       <c r="H744" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I744" t="inlineStr"/>
       <c r="J744" t="inlineStr"/>
@@ -25886,7 +25468,7 @@
         <v>6068.433931780012</v>
       </c>
       <c r="H745" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I745" t="inlineStr"/>
       <c r="J745" t="inlineStr"/>
@@ -25919,7 +25501,7 @@
         <v>5741.778131780013</v>
       </c>
       <c r="H746" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I746" t="inlineStr"/>
       <c r="J746" t="inlineStr"/>
@@ -25952,7 +25534,7 @@
         <v>5519.549231780013</v>
       </c>
       <c r="H747" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I747" t="inlineStr"/>
       <c r="J747" t="inlineStr"/>
@@ -25985,7 +25567,7 @@
         <v>5519.423431780013</v>
       </c>
       <c r="H748" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I748" t="inlineStr"/>
       <c r="J748" t="inlineStr"/>
@@ -25996,6 +25578,6 @@
       <c r="M748" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-26 BackTest BTG.xlsx
+++ b/BackTest/2020-01-26 BackTest BTG.xlsx
@@ -1144,7 +1144,7 @@
         <v>-4571.324453189998</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-4505.017053189998</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-5005.092353189999</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-5005.092353189999</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-4936.892753189998</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-4941.227953189999</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-4941.227953189999</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-4997.352753189998</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-5016.733453189998</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-5008.779453189998</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>-5085.620853189998</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>-5091.620853189998</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>-4903.120853189998</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>-4903.120853189998</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>-4903.120853189998</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>-4903.120853189998</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>-4903.120853189998</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>-4899.303953189999</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>-4543.445353189998</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>-4546.445353189998</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>-4540.219153189998</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>-4555.219153189998</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>-4847.003153189998</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>-4828.003153189998</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>-4690.164553189998</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -8074,14 +8074,10 @@
         <v>-7104.280953189992</v>
       </c>
       <c r="H233" t="n">
-        <v>1</v>
-      </c>
-      <c r="I233" t="n">
-        <v>11280</v>
-      </c>
-      <c r="J233" t="n">
-        <v>11280</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I233" t="inlineStr"/>
+      <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
@@ -8111,265 +8107,229 @@
         <v>-7091.208053189992</v>
       </c>
       <c r="H234" t="n">
-        <v>1</v>
-      </c>
-      <c r="I234" t="n">
-        <v>11210</v>
-      </c>
-      <c r="J234" t="n">
-        <v>11280</v>
-      </c>
-      <c r="K234" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I234" t="inlineStr"/>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
+      <c r="L234" t="n">
+        <v>1</v>
+      </c>
+      <c r="M234" t="inlineStr"/>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="n">
+        <v>233</v>
+      </c>
+      <c r="B235" t="n">
+        <v>11240</v>
+      </c>
+      <c r="C235" t="n">
+        <v>11230</v>
+      </c>
+      <c r="D235" t="n">
+        <v>11240</v>
+      </c>
+      <c r="E235" t="n">
+        <v>11230</v>
+      </c>
+      <c r="F235" t="n">
+        <v>138</v>
+      </c>
+      <c r="G235" t="n">
+        <v>-7229.208053189992</v>
+      </c>
+      <c r="H235" t="n">
+        <v>0</v>
+      </c>
+      <c r="I235" t="inlineStr"/>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
+      <c r="L235" t="n">
+        <v>1</v>
+      </c>
+      <c r="M235" t="inlineStr"/>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="n">
+        <v>234</v>
+      </c>
+      <c r="B236" t="n">
+        <v>11230</v>
+      </c>
+      <c r="C236" t="n">
+        <v>11230</v>
+      </c>
+      <c r="D236" t="n">
+        <v>11240</v>
+      </c>
+      <c r="E236" t="n">
+        <v>11230</v>
+      </c>
+      <c r="F236" t="n">
+        <v>149.5</v>
+      </c>
+      <c r="G236" t="n">
+        <v>-7229.208053189992</v>
+      </c>
+      <c r="H236" t="n">
+        <v>0</v>
+      </c>
+      <c r="I236" t="inlineStr"/>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
+      <c r="L236" t="n">
+        <v>1</v>
+      </c>
+      <c r="M236" t="inlineStr"/>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="n">
+        <v>235</v>
+      </c>
+      <c r="B237" t="n">
+        <v>11260</v>
+      </c>
+      <c r="C237" t="n">
+        <v>11260</v>
+      </c>
+      <c r="D237" t="n">
+        <v>11260</v>
+      </c>
+      <c r="E237" t="n">
+        <v>11230</v>
+      </c>
+      <c r="F237" t="n">
+        <v>156.1257</v>
+      </c>
+      <c r="G237" t="n">
+        <v>-7073.082353189992</v>
+      </c>
+      <c r="H237" t="n">
+        <v>0</v>
+      </c>
+      <c r="I237" t="inlineStr"/>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="inlineStr"/>
+      <c r="L237" t="n">
+        <v>1</v>
+      </c>
+      <c r="M237" t="inlineStr"/>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="n">
+        <v>236</v>
+      </c>
+      <c r="B238" t="n">
+        <v>11250</v>
+      </c>
+      <c r="C238" t="n">
+        <v>11250</v>
+      </c>
+      <c r="D238" t="n">
+        <v>11250</v>
+      </c>
+      <c r="E238" t="n">
+        <v>11250</v>
+      </c>
+      <c r="F238" t="n">
+        <v>12.3679</v>
+      </c>
+      <c r="G238" t="n">
+        <v>-7085.450253189993</v>
+      </c>
+      <c r="H238" t="n">
+        <v>1</v>
+      </c>
+      <c r="I238" t="n">
+        <v>11260</v>
+      </c>
+      <c r="J238" t="n">
+        <v>11260</v>
+      </c>
+      <c r="K238" t="inlineStr"/>
+      <c r="L238" t="n">
+        <v>1</v>
+      </c>
+      <c r="M238" t="inlineStr"/>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="n">
+        <v>237</v>
+      </c>
+      <c r="B239" t="n">
+        <v>11250</v>
+      </c>
+      <c r="C239" t="n">
+        <v>11250</v>
+      </c>
+      <c r="D239" t="n">
+        <v>11250</v>
+      </c>
+      <c r="E239" t="n">
+        <v>11250</v>
+      </c>
+      <c r="F239" t="n">
+        <v>30.2828</v>
+      </c>
+      <c r="G239" t="n">
+        <v>-7085.450253189993</v>
+      </c>
+      <c r="H239" t="n">
+        <v>1</v>
+      </c>
+      <c r="I239" t="n">
+        <v>11250</v>
+      </c>
+      <c r="J239" t="n">
+        <v>11260</v>
+      </c>
+      <c r="K239" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L234" t="n">
-        <v>1</v>
-      </c>
-      <c r="M234" t="inlineStr"/>
-    </row>
-    <row r="235">
-      <c r="A235" s="1" t="n">
-        <v>233</v>
-      </c>
-      <c r="B235" t="n">
-        <v>11240</v>
-      </c>
-      <c r="C235" t="n">
-        <v>11230</v>
-      </c>
-      <c r="D235" t="n">
-        <v>11240</v>
-      </c>
-      <c r="E235" t="n">
-        <v>11230</v>
-      </c>
-      <c r="F235" t="n">
-        <v>138</v>
-      </c>
-      <c r="G235" t="n">
-        <v>-7229.208053189992</v>
-      </c>
-      <c r="H235" t="n">
-        <v>1</v>
-      </c>
-      <c r="I235" t="n">
-        <v>11270</v>
-      </c>
-      <c r="J235" t="n">
-        <v>11280</v>
-      </c>
-      <c r="K235" t="inlineStr">
+      <c r="L239" t="n">
+        <v>1</v>
+      </c>
+      <c r="M239" t="inlineStr"/>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="n">
+        <v>238</v>
+      </c>
+      <c r="B240" t="n">
+        <v>11250</v>
+      </c>
+      <c r="C240" t="n">
+        <v>11200</v>
+      </c>
+      <c r="D240" t="n">
+        <v>11250</v>
+      </c>
+      <c r="E240" t="n">
+        <v>11200</v>
+      </c>
+      <c r="F240" t="n">
+        <v>436.1032</v>
+      </c>
+      <c r="G240" t="n">
+        <v>-7521.553453189992</v>
+      </c>
+      <c r="H240" t="n">
+        <v>1</v>
+      </c>
+      <c r="I240" t="n">
+        <v>11250</v>
+      </c>
+      <c r="J240" t="n">
+        <v>11260</v>
+      </c>
+      <c r="K240" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L235" t="n">
-        <v>1</v>
-      </c>
-      <c r="M235" t="inlineStr"/>
-    </row>
-    <row r="236">
-      <c r="A236" s="1" t="n">
-        <v>234</v>
-      </c>
-      <c r="B236" t="n">
-        <v>11230</v>
-      </c>
-      <c r="C236" t="n">
-        <v>11230</v>
-      </c>
-      <c r="D236" t="n">
-        <v>11240</v>
-      </c>
-      <c r="E236" t="n">
-        <v>11230</v>
-      </c>
-      <c r="F236" t="n">
-        <v>149.5</v>
-      </c>
-      <c r="G236" t="n">
-        <v>-7229.208053189992</v>
-      </c>
-      <c r="H236" t="n">
-        <v>1</v>
-      </c>
-      <c r="I236" t="n">
-        <v>11230</v>
-      </c>
-      <c r="J236" t="n">
-        <v>11280</v>
-      </c>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L236" t="n">
-        <v>1</v>
-      </c>
-      <c r="M236" t="inlineStr"/>
-    </row>
-    <row r="237">
-      <c r="A237" s="1" t="n">
-        <v>235</v>
-      </c>
-      <c r="B237" t="n">
-        <v>11260</v>
-      </c>
-      <c r="C237" t="n">
-        <v>11260</v>
-      </c>
-      <c r="D237" t="n">
-        <v>11260</v>
-      </c>
-      <c r="E237" t="n">
-        <v>11230</v>
-      </c>
-      <c r="F237" t="n">
-        <v>156.1257</v>
-      </c>
-      <c r="G237" t="n">
-        <v>-7073.082353189992</v>
-      </c>
-      <c r="H237" t="n">
-        <v>1</v>
-      </c>
-      <c r="I237" t="n">
-        <v>11230</v>
-      </c>
-      <c r="J237" t="n">
-        <v>11280</v>
-      </c>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L237" t="n">
-        <v>1</v>
-      </c>
-      <c r="M237" t="inlineStr"/>
-    </row>
-    <row r="238">
-      <c r="A238" s="1" t="n">
-        <v>236</v>
-      </c>
-      <c r="B238" t="n">
-        <v>11250</v>
-      </c>
-      <c r="C238" t="n">
-        <v>11250</v>
-      </c>
-      <c r="D238" t="n">
-        <v>11250</v>
-      </c>
-      <c r="E238" t="n">
-        <v>11250</v>
-      </c>
-      <c r="F238" t="n">
-        <v>12.3679</v>
-      </c>
-      <c r="G238" t="n">
-        <v>-7085.450253189993</v>
-      </c>
-      <c r="H238" t="n">
-        <v>1</v>
-      </c>
-      <c r="I238" t="n">
-        <v>11260</v>
-      </c>
-      <c r="J238" t="n">
-        <v>11280</v>
-      </c>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L238" t="n">
-        <v>1</v>
-      </c>
-      <c r="M238" t="inlineStr"/>
-    </row>
-    <row r="239">
-      <c r="A239" s="1" t="n">
-        <v>237</v>
-      </c>
-      <c r="B239" t="n">
-        <v>11250</v>
-      </c>
-      <c r="C239" t="n">
-        <v>11250</v>
-      </c>
-      <c r="D239" t="n">
-        <v>11250</v>
-      </c>
-      <c r="E239" t="n">
-        <v>11250</v>
-      </c>
-      <c r="F239" t="n">
-        <v>30.2828</v>
-      </c>
-      <c r="G239" t="n">
-        <v>-7085.450253189993</v>
-      </c>
-      <c r="H239" t="n">
-        <v>1</v>
-      </c>
-      <c r="I239" t="n">
-        <v>11250</v>
-      </c>
-      <c r="J239" t="n">
-        <v>11280</v>
-      </c>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L239" t="n">
-        <v>1</v>
-      </c>
-      <c r="M239" t="inlineStr"/>
-    </row>
-    <row r="240">
-      <c r="A240" s="1" t="n">
-        <v>238</v>
-      </c>
-      <c r="B240" t="n">
-        <v>11250</v>
-      </c>
-      <c r="C240" t="n">
-        <v>11200</v>
-      </c>
-      <c r="D240" t="n">
-        <v>11250</v>
-      </c>
-      <c r="E240" t="n">
-        <v>11200</v>
-      </c>
-      <c r="F240" t="n">
-        <v>436.1032</v>
-      </c>
-      <c r="G240" t="n">
-        <v>-7521.553453189992</v>
-      </c>
-      <c r="H240" t="n">
-        <v>1</v>
-      </c>
-      <c r="I240" t="n">
-        <v>11250</v>
-      </c>
-      <c r="J240" t="n">
-        <v>11280</v>
-      </c>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8404,7 +8364,7 @@
         <v>11200</v>
       </c>
       <c r="J241" t="n">
-        <v>11280</v>
+        <v>11260</v>
       </c>
       <c r="K241" t="inlineStr">
         <is>
@@ -8445,7 +8405,7 @@
         <v>11260</v>
       </c>
       <c r="J242" t="n">
-        <v>11280</v>
+        <v>11260</v>
       </c>
       <c r="K242" t="inlineStr">
         <is>
@@ -8486,7 +8446,7 @@
         <v>11250</v>
       </c>
       <c r="J243" t="n">
-        <v>11280</v>
+        <v>11260</v>
       </c>
       <c r="K243" t="inlineStr">
         <is>
@@ -8527,7 +8487,7 @@
         <v>11260</v>
       </c>
       <c r="J244" t="n">
-        <v>11280</v>
+        <v>11260</v>
       </c>
       <c r="K244" t="inlineStr">
         <is>
@@ -8568,7 +8528,7 @@
         <v>11330</v>
       </c>
       <c r="J245" t="n">
-        <v>11280</v>
+        <v>11260</v>
       </c>
       <c r="K245" t="inlineStr">
         <is>
@@ -8603,11 +8563,13 @@
         <v>-6578.431053189992</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
-      </c>
-      <c r="I246" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I246" t="n">
+        <v>11290</v>
+      </c>
       <c r="J246" t="n">
-        <v>11280</v>
+        <v>11260</v>
       </c>
       <c r="K246" t="inlineStr">
         <is>
@@ -8646,7 +8608,7 @@
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="n">
-        <v>11280</v>
+        <v>11260</v>
       </c>
       <c r="K247" t="inlineStr">
         <is>
@@ -8681,11 +8643,13 @@
         <v>-6644.504253189992</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
-      </c>
-      <c r="I248" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I248" t="n">
+        <v>11270</v>
+      </c>
       <c r="J248" t="n">
-        <v>11280</v>
+        <v>11260</v>
       </c>
       <c r="K248" t="inlineStr">
         <is>
@@ -8720,11 +8684,13 @@
         <v>-6698.547853189992</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
-      </c>
-      <c r="I249" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I249" t="n">
+        <v>11260</v>
+      </c>
       <c r="J249" t="n">
-        <v>11280</v>
+        <v>11260</v>
       </c>
       <c r="K249" t="inlineStr">
         <is>
@@ -8759,11 +8725,13 @@
         <v>-6698.547853189992</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
-      </c>
-      <c r="I250" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I250" t="n">
+        <v>11230</v>
+      </c>
       <c r="J250" t="n">
-        <v>11280</v>
+        <v>11260</v>
       </c>
       <c r="K250" t="inlineStr">
         <is>
@@ -8804,7 +8772,7 @@
         <v>11230</v>
       </c>
       <c r="J251" t="n">
-        <v>11280</v>
+        <v>11260</v>
       </c>
       <c r="K251" t="inlineStr">
         <is>
@@ -8839,11 +8807,13 @@
         <v>-6518.067853189992</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
-      </c>
-      <c r="I252" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I252" t="n">
+        <v>11230</v>
+      </c>
       <c r="J252" t="n">
-        <v>11280</v>
+        <v>11260</v>
       </c>
       <c r="K252" t="inlineStr">
         <is>
@@ -8878,11 +8848,13 @@
         <v>-6250.608653189992</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
-      </c>
-      <c r="I253" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I253" t="n">
+        <v>11250</v>
+      </c>
       <c r="J253" t="n">
-        <v>11280</v>
+        <v>11260</v>
       </c>
       <c r="K253" t="inlineStr">
         <is>
@@ -8917,11 +8889,13 @@
         <v>-6100.108653189992</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
-      </c>
-      <c r="I254" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I254" t="n">
+        <v>11260</v>
+      </c>
       <c r="J254" t="n">
-        <v>11280</v>
+        <v>11260</v>
       </c>
       <c r="K254" t="inlineStr">
         <is>
@@ -8956,11 +8930,13 @@
         <v>-6106.556353189992</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
-      </c>
-      <c r="I255" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I255" t="n">
+        <v>11270</v>
+      </c>
       <c r="J255" t="n">
-        <v>11280</v>
+        <v>11260</v>
       </c>
       <c r="K255" t="inlineStr">
         <is>
@@ -8995,11 +8971,13 @@
         <v>-6104.820953189992</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
-      </c>
-      <c r="I256" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I256" t="n">
+        <v>11260</v>
+      </c>
       <c r="J256" t="n">
-        <v>11280</v>
+        <v>11260</v>
       </c>
       <c r="K256" t="inlineStr">
         <is>
@@ -9034,11 +9012,13 @@
         <v>-6070.320953189992</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
-      </c>
-      <c r="I257" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I257" t="n">
+        <v>11270</v>
+      </c>
       <c r="J257" t="n">
-        <v>11280</v>
+        <v>11260</v>
       </c>
       <c r="K257" t="inlineStr">
         <is>
@@ -9073,11 +9053,13 @@
         <v>-6070.320953189992</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
-      </c>
-      <c r="I258" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I258" t="n">
+        <v>11330</v>
+      </c>
       <c r="J258" t="n">
-        <v>11280</v>
+        <v>11260</v>
       </c>
       <c r="K258" t="inlineStr">
         <is>
@@ -9112,11 +9094,13 @@
         <v>-6070.320953189992</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
-      </c>
-      <c r="I259" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I259" t="n">
+        <v>11330</v>
+      </c>
       <c r="J259" t="n">
-        <v>11280</v>
+        <v>11260</v>
       </c>
       <c r="K259" t="inlineStr">
         <is>
@@ -9151,11 +9135,13 @@
         <v>-6068.560953189992</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
-      </c>
-      <c r="I260" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I260" t="n">
+        <v>11330</v>
+      </c>
       <c r="J260" t="n">
-        <v>11280</v>
+        <v>11260</v>
       </c>
       <c r="K260" t="inlineStr">
         <is>
@@ -9194,7 +9180,7 @@
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="n">
-        <v>11280</v>
+        <v>11260</v>
       </c>
       <c r="K261" t="inlineStr">
         <is>
@@ -9233,7 +9219,7 @@
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="n">
-        <v>11280</v>
+        <v>11260</v>
       </c>
       <c r="K262" t="inlineStr">
         <is>
@@ -9272,7 +9258,7 @@
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="n">
-        <v>11280</v>
+        <v>11260</v>
       </c>
       <c r="K263" t="inlineStr">
         <is>
@@ -9311,7 +9297,7 @@
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="n">
-        <v>11280</v>
+        <v>11260</v>
       </c>
       <c r="K264" t="inlineStr">
         <is>
@@ -9350,7 +9336,7 @@
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="n">
-        <v>11280</v>
+        <v>11260</v>
       </c>
       <c r="K265" t="inlineStr">
         <is>
@@ -9389,7 +9375,7 @@
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="n">
-        <v>11280</v>
+        <v>11260</v>
       </c>
       <c r="K266" t="inlineStr">
         <is>
@@ -9428,7 +9414,7 @@
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="n">
-        <v>11280</v>
+        <v>11260</v>
       </c>
       <c r="K267" t="inlineStr">
         <is>
@@ -9467,7 +9453,7 @@
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="n">
-        <v>11280</v>
+        <v>11260</v>
       </c>
       <c r="K268" t="inlineStr">
         <is>
@@ -9506,7 +9492,7 @@
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="n">
-        <v>11280</v>
+        <v>11260</v>
       </c>
       <c r="K269" t="inlineStr">
         <is>
@@ -9545,7 +9531,7 @@
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="n">
-        <v>11280</v>
+        <v>11260</v>
       </c>
       <c r="K270" t="inlineStr">
         <is>
@@ -9584,7 +9570,7 @@
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="n">
-        <v>11280</v>
+        <v>11260</v>
       </c>
       <c r="K271" t="inlineStr">
         <is>
@@ -9623,7 +9609,7 @@
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="n">
-        <v>11280</v>
+        <v>11260</v>
       </c>
       <c r="K272" t="inlineStr">
         <is>
@@ -9662,7 +9648,7 @@
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="n">
-        <v>11280</v>
+        <v>11260</v>
       </c>
       <c r="K273" t="inlineStr">
         <is>
@@ -9697,11 +9683,13 @@
         <v>-6315.745853189991</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
-      </c>
-      <c r="I274" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I274" t="n">
+        <v>11340</v>
+      </c>
       <c r="J274" t="n">
-        <v>11280</v>
+        <v>11260</v>
       </c>
       <c r="K274" t="inlineStr">
         <is>
@@ -9736,11 +9724,13 @@
         <v>-6444.800153189991</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
-      </c>
-      <c r="I275" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I275" t="n">
+        <v>11330</v>
+      </c>
       <c r="J275" t="n">
-        <v>11280</v>
+        <v>11260</v>
       </c>
       <c r="K275" t="inlineStr">
         <is>
@@ -9775,11 +9765,13 @@
         <v>-5860.80035318999</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
-      </c>
-      <c r="I276" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I276" t="n">
+        <v>11290</v>
+      </c>
       <c r="J276" t="n">
-        <v>11280</v>
+        <v>11260</v>
       </c>
       <c r="K276" t="inlineStr">
         <is>
@@ -9814,11 +9806,13 @@
         <v>-5410.85525318999</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
-      </c>
-      <c r="I277" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I277" t="n">
+        <v>11320</v>
+      </c>
       <c r="J277" t="n">
-        <v>11280</v>
+        <v>11260</v>
       </c>
       <c r="K277" t="inlineStr">
         <is>
@@ -9853,11 +9847,13 @@
         <v>-5359.85525318999</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
-      </c>
-      <c r="I278" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I278" t="n">
+        <v>11350</v>
+      </c>
       <c r="J278" t="n">
-        <v>11280</v>
+        <v>11260</v>
       </c>
       <c r="K278" t="inlineStr">
         <is>
@@ -9892,11 +9888,13 @@
         <v>-5629.958853189991</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
-      </c>
-      <c r="I279" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I279" t="n">
+        <v>11380</v>
+      </c>
       <c r="J279" t="n">
-        <v>11280</v>
+        <v>11260</v>
       </c>
       <c r="K279" t="inlineStr">
         <is>
@@ -9931,11 +9929,13 @@
         <v>-5967.345253189991</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
-      </c>
-      <c r="I280" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I280" t="n">
+        <v>11350</v>
+      </c>
       <c r="J280" t="n">
-        <v>11280</v>
+        <v>11260</v>
       </c>
       <c r="K280" t="inlineStr">
         <is>
@@ -9970,11 +9970,13 @@
         <v>-5969.185253189991</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
-      </c>
-      <c r="I281" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I281" t="n">
+        <v>11290</v>
+      </c>
       <c r="J281" t="n">
-        <v>11280</v>
+        <v>11260</v>
       </c>
       <c r="K281" t="inlineStr">
         <is>
@@ -10009,11 +10011,13 @@
         <v>-6027.461853189991</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
-      </c>
-      <c r="I282" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I282" t="n">
+        <v>11270</v>
+      </c>
       <c r="J282" t="n">
-        <v>11280</v>
+        <v>11260</v>
       </c>
       <c r="K282" t="inlineStr">
         <is>
@@ -10048,11 +10052,13 @@
         <v>-6005.423753189992</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
-      </c>
-      <c r="I283" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I283" t="n">
+        <v>11200</v>
+      </c>
       <c r="J283" t="n">
-        <v>11280</v>
+        <v>11260</v>
       </c>
       <c r="K283" t="inlineStr">
         <is>
@@ -10087,11 +10093,13 @@
         <v>-6005.423753189992</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
-      </c>
-      <c r="I284" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I284" t="n">
+        <v>11250</v>
+      </c>
       <c r="J284" t="n">
-        <v>11280</v>
+        <v>11260</v>
       </c>
       <c r="K284" t="inlineStr">
         <is>
@@ -10126,11 +10134,13 @@
         <v>-6005.423753189992</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
-      </c>
-      <c r="I285" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I285" t="n">
+        <v>11250</v>
+      </c>
       <c r="J285" t="n">
-        <v>11280</v>
+        <v>11260</v>
       </c>
       <c r="K285" t="inlineStr">
         <is>
@@ -10165,11 +10175,13 @@
         <v>-5937.169053189991</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
-      </c>
-      <c r="I286" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I286" t="n">
+        <v>11250</v>
+      </c>
       <c r="J286" t="n">
-        <v>11280</v>
+        <v>11260</v>
       </c>
       <c r="K286" t="inlineStr">
         <is>
@@ -10204,11 +10216,13 @@
         <v>-5937.169053189991</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
-      </c>
-      <c r="I287" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I287" t="n">
+        <v>11280</v>
+      </c>
       <c r="J287" t="n">
-        <v>11280</v>
+        <v>11260</v>
       </c>
       <c r="K287" t="inlineStr">
         <is>
@@ -10243,11 +10257,13 @@
         <v>-5887.169053189991</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
-      </c>
-      <c r="I288" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I288" t="n">
+        <v>11280</v>
+      </c>
       <c r="J288" t="n">
-        <v>11280</v>
+        <v>11260</v>
       </c>
       <c r="K288" t="inlineStr">
         <is>
@@ -10282,11 +10298,13 @@
         <v>-6044.213253189992</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
-      </c>
-      <c r="I289" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I289" t="n">
+        <v>11310</v>
+      </c>
       <c r="J289" t="n">
-        <v>11280</v>
+        <v>11260</v>
       </c>
       <c r="K289" t="inlineStr">
         <is>
@@ -10321,11 +10339,13 @@
         <v>-6027.213253189992</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
-      </c>
-      <c r="I290" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I290" t="n">
+        <v>11280</v>
+      </c>
       <c r="J290" t="n">
-        <v>11280</v>
+        <v>11260</v>
       </c>
       <c r="K290" t="inlineStr">
         <is>
@@ -10360,11 +10380,13 @@
         <v>-5729.113253189991</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
-      </c>
-      <c r="I291" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I291" t="n">
+        <v>11300</v>
+      </c>
       <c r="J291" t="n">
-        <v>11280</v>
+        <v>11260</v>
       </c>
       <c r="K291" t="inlineStr">
         <is>
@@ -10399,11 +10421,13 @@
         <v>-5729.113253189991</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
-      </c>
-      <c r="I292" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I292" t="n">
+        <v>11350</v>
+      </c>
       <c r="J292" t="n">
-        <v>11280</v>
+        <v>11260</v>
       </c>
       <c r="K292" t="inlineStr">
         <is>
@@ -10438,11 +10462,13 @@
         <v>-5732.336953189991</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
-      </c>
-      <c r="I293" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I293" t="n">
+        <v>11350</v>
+      </c>
       <c r="J293" t="n">
-        <v>11280</v>
+        <v>11260</v>
       </c>
       <c r="K293" t="inlineStr">
         <is>
@@ -10477,11 +10503,13 @@
         <v>-5821.336953189991</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
-      </c>
-      <c r="I294" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I294" t="n">
+        <v>11310</v>
+      </c>
       <c r="J294" t="n">
-        <v>11280</v>
+        <v>11260</v>
       </c>
       <c r="K294" t="inlineStr">
         <is>
@@ -10516,11 +10544,13 @@
         <v>-5821.289953189991</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
-      </c>
-      <c r="I295" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I295" t="n">
+        <v>11300</v>
+      </c>
       <c r="J295" t="n">
-        <v>11280</v>
+        <v>11260</v>
       </c>
       <c r="K295" t="inlineStr">
         <is>
@@ -10555,11 +10585,13 @@
         <v>-5821.289953189991</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
-      </c>
-      <c r="I296" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I296" t="n">
+        <v>11360</v>
+      </c>
       <c r="J296" t="n">
-        <v>11280</v>
+        <v>11260</v>
       </c>
       <c r="K296" t="inlineStr">
         <is>
@@ -10594,11 +10626,13 @@
         <v>-5821.289953189991</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
-      </c>
-      <c r="I297" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I297" t="n">
+        <v>11360</v>
+      </c>
       <c r="J297" t="n">
-        <v>11280</v>
+        <v>11260</v>
       </c>
       <c r="K297" t="inlineStr">
         <is>
@@ -10633,11 +10667,13 @@
         <v>-5841.467453189991</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
-      </c>
-      <c r="I298" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I298" t="n">
+        <v>11360</v>
+      </c>
       <c r="J298" t="n">
-        <v>11280</v>
+        <v>11260</v>
       </c>
       <c r="K298" t="inlineStr">
         <is>
@@ -10672,11 +10708,13 @@
         <v>-5841.467453189991</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
-      </c>
-      <c r="I299" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I299" t="n">
+        <v>11300</v>
+      </c>
       <c r="J299" t="n">
-        <v>11280</v>
+        <v>11260</v>
       </c>
       <c r="K299" t="inlineStr">
         <is>
@@ -10711,11 +10749,13 @@
         <v>-5841.467453189991</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
-      </c>
-      <c r="I300" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I300" t="n">
+        <v>11300</v>
+      </c>
       <c r="J300" t="n">
-        <v>11280</v>
+        <v>11260</v>
       </c>
       <c r="K300" t="inlineStr">
         <is>
@@ -10750,11 +10790,13 @@
         <v>-5671.467453189991</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
-      </c>
-      <c r="I301" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I301" t="n">
+        <v>11300</v>
+      </c>
       <c r="J301" t="n">
-        <v>11280</v>
+        <v>11260</v>
       </c>
       <c r="K301" t="inlineStr">
         <is>
@@ -10789,11 +10831,13 @@
         <v>-5654.813153189991</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
-      </c>
-      <c r="I302" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I302" t="n">
+        <v>11320</v>
+      </c>
       <c r="J302" t="n">
-        <v>11280</v>
+        <v>11260</v>
       </c>
       <c r="K302" t="inlineStr">
         <is>
@@ -10828,11 +10872,13 @@
         <v>-5653.813153189991</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
-      </c>
-      <c r="I303" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I303" t="n">
+        <v>11370</v>
+      </c>
       <c r="J303" t="n">
-        <v>11280</v>
+        <v>11260</v>
       </c>
       <c r="K303" t="inlineStr">
         <is>
@@ -10871,7 +10917,7 @@
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="n">
-        <v>11280</v>
+        <v>11260</v>
       </c>
       <c r="K304" t="inlineStr">
         <is>
@@ -10910,7 +10956,7 @@
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="n">
-        <v>11280</v>
+        <v>11260</v>
       </c>
       <c r="K305" t="inlineStr">
         <is>
@@ -10949,7 +10995,7 @@
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="n">
-        <v>11280</v>
+        <v>11260</v>
       </c>
       <c r="K306" t="inlineStr">
         <is>
@@ -10988,7 +11034,7 @@
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="n">
-        <v>11280</v>
+        <v>11260</v>
       </c>
       <c r="K307" t="inlineStr">
         <is>
@@ -11027,7 +11073,7 @@
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="n">
-        <v>11280</v>
+        <v>11260</v>
       </c>
       <c r="K308" t="inlineStr">
         <is>
@@ -11066,7 +11112,7 @@
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="n">
-        <v>11280</v>
+        <v>11260</v>
       </c>
       <c r="K309" t="inlineStr">
         <is>
@@ -11105,7 +11151,7 @@
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="n">
-        <v>11280</v>
+        <v>11260</v>
       </c>
       <c r="K310" t="inlineStr">
         <is>
@@ -11140,582 +11186,686 @@
         <v>-4212.886553189991</v>
       </c>
       <c r="H311" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="n">
-        <v>11280</v>
+        <v>11260</v>
       </c>
       <c r="K311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L311" t="n">
+        <v>1</v>
+      </c>
+      <c r="M311" t="inlineStr"/>
+    </row>
+    <row r="312">
+      <c r="A312" s="1" t="n">
+        <v>310</v>
+      </c>
+      <c r="B312" t="n">
+        <v>11610</v>
+      </c>
+      <c r="C312" t="n">
+        <v>11600</v>
+      </c>
+      <c r="D312" t="n">
+        <v>11610</v>
+      </c>
+      <c r="E312" t="n">
+        <v>11600</v>
+      </c>
+      <c r="F312" t="n">
+        <v>97.93640000000001</v>
+      </c>
+      <c r="G312" t="n">
+        <v>-4310.822953189991</v>
+      </c>
+      <c r="H312" t="n">
+        <v>0</v>
+      </c>
+      <c r="I312" t="inlineStr"/>
+      <c r="J312" t="n">
+        <v>11260</v>
+      </c>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L312" t="n">
+        <v>1</v>
+      </c>
+      <c r="M312" t="inlineStr"/>
+    </row>
+    <row r="313">
+      <c r="A313" s="1" t="n">
+        <v>311</v>
+      </c>
+      <c r="B313" t="n">
+        <v>11590</v>
+      </c>
+      <c r="C313" t="n">
+        <v>11590</v>
+      </c>
+      <c r="D313" t="n">
+        <v>11590</v>
+      </c>
+      <c r="E313" t="n">
+        <v>11590</v>
+      </c>
+      <c r="F313" t="n">
+        <v>50.3569</v>
+      </c>
+      <c r="G313" t="n">
+        <v>-4361.17985318999</v>
+      </c>
+      <c r="H313" t="n">
+        <v>0</v>
+      </c>
+      <c r="I313" t="inlineStr"/>
+      <c r="J313" t="n">
+        <v>11260</v>
+      </c>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L313" t="n">
+        <v>1</v>
+      </c>
+      <c r="M313" t="inlineStr"/>
+    </row>
+    <row r="314">
+      <c r="A314" s="1" t="n">
+        <v>312</v>
+      </c>
+      <c r="B314" t="n">
+        <v>11630</v>
+      </c>
+      <c r="C314" t="n">
+        <v>11700</v>
+      </c>
+      <c r="D314" t="n">
+        <v>11700</v>
+      </c>
+      <c r="E314" t="n">
+        <v>11600</v>
+      </c>
+      <c r="F314" t="n">
+        <v>2383.0374</v>
+      </c>
+      <c r="G314" t="n">
+        <v>-1978.14245318999</v>
+      </c>
+      <c r="H314" t="n">
+        <v>0</v>
+      </c>
+      <c r="I314" t="inlineStr"/>
+      <c r="J314" t="n">
+        <v>11260</v>
+      </c>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L314" t="n">
+        <v>1</v>
+      </c>
+      <c r="M314" t="inlineStr"/>
+    </row>
+    <row r="315">
+      <c r="A315" s="1" t="n">
+        <v>313</v>
+      </c>
+      <c r="B315" t="n">
+        <v>11700</v>
+      </c>
+      <c r="C315" t="n">
+        <v>11700</v>
+      </c>
+      <c r="D315" t="n">
+        <v>11700</v>
+      </c>
+      <c r="E315" t="n">
+        <v>11700</v>
+      </c>
+      <c r="F315" t="n">
+        <v>540.3949</v>
+      </c>
+      <c r="G315" t="n">
+        <v>-1978.14245318999</v>
+      </c>
+      <c r="H315" t="n">
+        <v>0</v>
+      </c>
+      <c r="I315" t="inlineStr"/>
+      <c r="J315" t="n">
+        <v>11260</v>
+      </c>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L315" t="n">
+        <v>1</v>
+      </c>
+      <c r="M315" t="inlineStr"/>
+    </row>
+    <row r="316">
+      <c r="A316" s="1" t="n">
+        <v>314</v>
+      </c>
+      <c r="B316" t="n">
+        <v>11670</v>
+      </c>
+      <c r="C316" t="n">
+        <v>11660</v>
+      </c>
+      <c r="D316" t="n">
+        <v>11670</v>
+      </c>
+      <c r="E316" t="n">
+        <v>11660</v>
+      </c>
+      <c r="F316" t="n">
+        <v>50</v>
+      </c>
+      <c r="G316" t="n">
+        <v>-2028.14245318999</v>
+      </c>
+      <c r="H316" t="n">
+        <v>0</v>
+      </c>
+      <c r="I316" t="inlineStr"/>
+      <c r="J316" t="n">
+        <v>11260</v>
+      </c>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L316" t="n">
+        <v>1</v>
+      </c>
+      <c r="M316" t="inlineStr"/>
+    </row>
+    <row r="317">
+      <c r="A317" s="1" t="n">
+        <v>315</v>
+      </c>
+      <c r="B317" t="n">
+        <v>11710</v>
+      </c>
+      <c r="C317" t="n">
+        <v>11700</v>
+      </c>
+      <c r="D317" t="n">
+        <v>11710</v>
+      </c>
+      <c r="E317" t="n">
+        <v>11650</v>
+      </c>
+      <c r="F317" t="n">
+        <v>129.8615</v>
+      </c>
+      <c r="G317" t="n">
+        <v>-1898.28095318999</v>
+      </c>
+      <c r="H317" t="n">
+        <v>0</v>
+      </c>
+      <c r="I317" t="inlineStr"/>
+      <c r="J317" t="n">
+        <v>11260</v>
+      </c>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L317" t="n">
+        <v>1</v>
+      </c>
+      <c r="M317" t="inlineStr"/>
+    </row>
+    <row r="318">
+      <c r="A318" s="1" t="n">
+        <v>316</v>
+      </c>
+      <c r="B318" t="n">
+        <v>11700</v>
+      </c>
+      <c r="C318" t="n">
+        <v>11710</v>
+      </c>
+      <c r="D318" t="n">
+        <v>11710</v>
+      </c>
+      <c r="E318" t="n">
+        <v>11700</v>
+      </c>
+      <c r="F318" t="n">
+        <v>131.5</v>
+      </c>
+      <c r="G318" t="n">
+        <v>-1766.78095318999</v>
+      </c>
+      <c r="H318" t="n">
+        <v>0</v>
+      </c>
+      <c r="I318" t="inlineStr"/>
+      <c r="J318" t="n">
+        <v>11260</v>
+      </c>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L318" t="n">
+        <v>1</v>
+      </c>
+      <c r="M318" t="inlineStr"/>
+    </row>
+    <row r="319">
+      <c r="A319" s="1" t="n">
+        <v>317</v>
+      </c>
+      <c r="B319" t="n">
+        <v>11700</v>
+      </c>
+      <c r="C319" t="n">
+        <v>11680</v>
+      </c>
+      <c r="D319" t="n">
+        <v>11710</v>
+      </c>
+      <c r="E319" t="n">
+        <v>11680</v>
+      </c>
+      <c r="F319" t="n">
+        <v>209.5</v>
+      </c>
+      <c r="G319" t="n">
+        <v>-1976.28095318999</v>
+      </c>
+      <c r="H319" t="n">
+        <v>0</v>
+      </c>
+      <c r="I319" t="inlineStr"/>
+      <c r="J319" t="n">
+        <v>11260</v>
+      </c>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L319" t="n">
+        <v>1</v>
+      </c>
+      <c r="M319" t="inlineStr"/>
+    </row>
+    <row r="320">
+      <c r="A320" s="1" t="n">
+        <v>318</v>
+      </c>
+      <c r="B320" t="n">
+        <v>11710</v>
+      </c>
+      <c r="C320" t="n">
+        <v>11720</v>
+      </c>
+      <c r="D320" t="n">
+        <v>11720</v>
+      </c>
+      <c r="E320" t="n">
+        <v>11710</v>
+      </c>
+      <c r="F320" t="n">
+        <v>70</v>
+      </c>
+      <c r="G320" t="n">
+        <v>-1906.28095318999</v>
+      </c>
+      <c r="H320" t="n">
+        <v>0</v>
+      </c>
+      <c r="I320" t="inlineStr"/>
+      <c r="J320" t="n">
+        <v>11260</v>
+      </c>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L320" t="n">
+        <v>1</v>
+      </c>
+      <c r="M320" t="inlineStr"/>
+    </row>
+    <row r="321">
+      <c r="A321" s="1" t="n">
+        <v>319</v>
+      </c>
+      <c r="B321" t="n">
+        <v>11720</v>
+      </c>
+      <c r="C321" t="n">
+        <v>11730</v>
+      </c>
+      <c r="D321" t="n">
+        <v>11730</v>
+      </c>
+      <c r="E321" t="n">
+        <v>11720</v>
+      </c>
+      <c r="F321" t="n">
+        <v>628.5661</v>
+      </c>
+      <c r="G321" t="n">
+        <v>-1277.71485318999</v>
+      </c>
+      <c r="H321" t="n">
+        <v>0</v>
+      </c>
+      <c r="I321" t="inlineStr"/>
+      <c r="J321" t="n">
+        <v>11260</v>
+      </c>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L321" t="n">
+        <v>1</v>
+      </c>
+      <c r="M321" t="inlineStr"/>
+    </row>
+    <row r="322">
+      <c r="A322" s="1" t="n">
+        <v>320</v>
+      </c>
+      <c r="B322" t="n">
+        <v>11730</v>
+      </c>
+      <c r="C322" t="n">
+        <v>11730</v>
+      </c>
+      <c r="D322" t="n">
+        <v>11730</v>
+      </c>
+      <c r="E322" t="n">
+        <v>11730</v>
+      </c>
+      <c r="F322" t="n">
+        <v>79.48999999999999</v>
+      </c>
+      <c r="G322" t="n">
+        <v>-1277.71485318999</v>
+      </c>
+      <c r="H322" t="n">
+        <v>0</v>
+      </c>
+      <c r="I322" t="inlineStr"/>
+      <c r="J322" t="n">
+        <v>11260</v>
+      </c>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L322" t="n">
+        <v>1</v>
+      </c>
+      <c r="M322" t="inlineStr"/>
+    </row>
+    <row r="323">
+      <c r="A323" s="1" t="n">
+        <v>321</v>
+      </c>
+      <c r="B323" t="n">
+        <v>11730</v>
+      </c>
+      <c r="C323" t="n">
+        <v>11810</v>
+      </c>
+      <c r="D323" t="n">
+        <v>11810</v>
+      </c>
+      <c r="E323" t="n">
+        <v>11730</v>
+      </c>
+      <c r="F323" t="n">
+        <v>599.383</v>
+      </c>
+      <c r="G323" t="n">
+        <v>-678.3318531899902</v>
+      </c>
+      <c r="H323" t="n">
+        <v>0</v>
+      </c>
+      <c r="I323" t="inlineStr"/>
+      <c r="J323" t="n">
+        <v>11260</v>
+      </c>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L323" t="n">
+        <v>1</v>
+      </c>
+      <c r="M323" t="inlineStr"/>
+    </row>
+    <row r="324">
+      <c r="A324" s="1" t="n">
+        <v>322</v>
+      </c>
+      <c r="B324" t="n">
+        <v>11800</v>
+      </c>
+      <c r="C324" t="n">
+        <v>11800</v>
+      </c>
+      <c r="D324" t="n">
+        <v>11800</v>
+      </c>
+      <c r="E324" t="n">
+        <v>11800</v>
+      </c>
+      <c r="F324" t="n">
+        <v>156.66168135</v>
+      </c>
+      <c r="G324" t="n">
+        <v>-834.9935345399902</v>
+      </c>
+      <c r="H324" t="n">
+        <v>0</v>
+      </c>
+      <c r="I324" t="inlineStr"/>
+      <c r="J324" t="n">
+        <v>11260</v>
+      </c>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L324" t="n">
+        <v>1</v>
+      </c>
+      <c r="M324" t="inlineStr"/>
+    </row>
+    <row r="325">
+      <c r="A325" s="1" t="n">
+        <v>323</v>
+      </c>
+      <c r="B325" t="n">
+        <v>11790</v>
+      </c>
+      <c r="C325" t="n">
+        <v>11800</v>
+      </c>
+      <c r="D325" t="n">
+        <v>11800</v>
+      </c>
+      <c r="E325" t="n">
+        <v>11790</v>
+      </c>
+      <c r="F325" t="n">
+        <v>42.1513</v>
+      </c>
+      <c r="G325" t="n">
+        <v>-834.9935345399902</v>
+      </c>
+      <c r="H325" t="n">
+        <v>0</v>
+      </c>
+      <c r="I325" t="inlineStr"/>
+      <c r="J325" t="n">
+        <v>11260</v>
+      </c>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L325" t="n">
+        <v>1</v>
+      </c>
+      <c r="M325" t="inlineStr"/>
+    </row>
+    <row r="326">
+      <c r="A326" s="1" t="n">
+        <v>324</v>
+      </c>
+      <c r="B326" t="n">
+        <v>11800</v>
+      </c>
+      <c r="C326" t="n">
+        <v>11900</v>
+      </c>
+      <c r="D326" t="n">
+        <v>11900</v>
+      </c>
+      <c r="E326" t="n">
+        <v>11800</v>
+      </c>
+      <c r="F326" t="n">
+        <v>514.16301865</v>
+      </c>
+      <c r="G326" t="n">
+        <v>-320.8305158899901</v>
+      </c>
+      <c r="H326" t="n">
+        <v>0</v>
+      </c>
+      <c r="I326" t="inlineStr"/>
+      <c r="J326" t="n">
+        <v>11260</v>
+      </c>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L326" t="n">
+        <v>1</v>
+      </c>
+      <c r="M326" t="inlineStr"/>
+    </row>
+    <row r="327">
+      <c r="A327" s="1" t="n">
+        <v>325</v>
+      </c>
+      <c r="B327" t="n">
+        <v>11900</v>
+      </c>
+      <c r="C327" t="n">
+        <v>11950</v>
+      </c>
+      <c r="D327" t="n">
+        <v>11990</v>
+      </c>
+      <c r="E327" t="n">
+        <v>11900</v>
+      </c>
+      <c r="F327" t="n">
+        <v>1382.5096</v>
+      </c>
+      <c r="G327" t="n">
+        <v>1061.67908411001</v>
+      </c>
+      <c r="H327" t="n">
+        <v>0</v>
+      </c>
+      <c r="I327" t="inlineStr"/>
+      <c r="J327" t="n">
+        <v>11260</v>
+      </c>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L327" t="n">
+        <v>1</v>
+      </c>
+      <c r="M327" t="inlineStr"/>
+    </row>
+    <row r="328">
+      <c r="A328" s="1" t="n">
+        <v>326</v>
+      </c>
+      <c r="B328" t="n">
+        <v>11930</v>
+      </c>
+      <c r="C328" t="n">
+        <v>11990</v>
+      </c>
+      <c r="D328" t="n">
+        <v>11990</v>
+      </c>
+      <c r="E328" t="n">
+        <v>11920</v>
+      </c>
+      <c r="F328" t="n">
+        <v>1325.5812</v>
+      </c>
+      <c r="G328" t="n">
+        <v>2387.26028411001</v>
+      </c>
+      <c r="H328" t="n">
+        <v>2</v>
+      </c>
+      <c r="I328" t="inlineStr"/>
+      <c r="J328" t="n">
+        <v>11260</v>
+      </c>
+      <c r="K328" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="L311" t="n">
-        <v>1.025141843971631</v>
-      </c>
-      <c r="M311" t="inlineStr"/>
-    </row>
-    <row r="312">
-      <c r="A312" s="1" t="n">
-        <v>310</v>
-      </c>
-      <c r="B312" t="n">
-        <v>11610</v>
-      </c>
-      <c r="C312" t="n">
-        <v>11600</v>
-      </c>
-      <c r="D312" t="n">
-        <v>11610</v>
-      </c>
-      <c r="E312" t="n">
-        <v>11600</v>
-      </c>
-      <c r="F312" t="n">
-        <v>97.93640000000001</v>
-      </c>
-      <c r="G312" t="n">
-        <v>-4310.822953189991</v>
-      </c>
-      <c r="H312" t="n">
-        <v>2</v>
-      </c>
-      <c r="I312" t="inlineStr"/>
-      <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
-      <c r="L312" t="n">
-        <v>1</v>
-      </c>
-      <c r="M312" t="inlineStr"/>
-    </row>
-    <row r="313">
-      <c r="A313" s="1" t="n">
-        <v>311</v>
-      </c>
-      <c r="B313" t="n">
-        <v>11590</v>
-      </c>
-      <c r="C313" t="n">
-        <v>11590</v>
-      </c>
-      <c r="D313" t="n">
-        <v>11590</v>
-      </c>
-      <c r="E313" t="n">
-        <v>11590</v>
-      </c>
-      <c r="F313" t="n">
-        <v>50.3569</v>
-      </c>
-      <c r="G313" t="n">
-        <v>-4361.17985318999</v>
-      </c>
-      <c r="H313" t="n">
-        <v>0</v>
-      </c>
-      <c r="I313" t="inlineStr"/>
-      <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
-      <c r="L313" t="n">
-        <v>1</v>
-      </c>
-      <c r="M313" t="inlineStr"/>
-    </row>
-    <row r="314">
-      <c r="A314" s="1" t="n">
-        <v>312</v>
-      </c>
-      <c r="B314" t="n">
-        <v>11630</v>
-      </c>
-      <c r="C314" t="n">
-        <v>11700</v>
-      </c>
-      <c r="D314" t="n">
-        <v>11700</v>
-      </c>
-      <c r="E314" t="n">
-        <v>11600</v>
-      </c>
-      <c r="F314" t="n">
-        <v>2383.0374</v>
-      </c>
-      <c r="G314" t="n">
-        <v>-1978.14245318999</v>
-      </c>
-      <c r="H314" t="n">
-        <v>2</v>
-      </c>
-      <c r="I314" t="inlineStr"/>
-      <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
-      <c r="L314" t="n">
-        <v>1</v>
-      </c>
-      <c r="M314" t="inlineStr"/>
-    </row>
-    <row r="315">
-      <c r="A315" s="1" t="n">
-        <v>313</v>
-      </c>
-      <c r="B315" t="n">
-        <v>11700</v>
-      </c>
-      <c r="C315" t="n">
-        <v>11700</v>
-      </c>
-      <c r="D315" t="n">
-        <v>11700</v>
-      </c>
-      <c r="E315" t="n">
-        <v>11700</v>
-      </c>
-      <c r="F315" t="n">
-        <v>540.3949</v>
-      </c>
-      <c r="G315" t="n">
-        <v>-1978.14245318999</v>
-      </c>
-      <c r="H315" t="n">
-        <v>2</v>
-      </c>
-      <c r="I315" t="inlineStr"/>
-      <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
-      <c r="L315" t="n">
-        <v>1</v>
-      </c>
-      <c r="M315" t="inlineStr"/>
-    </row>
-    <row r="316">
-      <c r="A316" s="1" t="n">
-        <v>314</v>
-      </c>
-      <c r="B316" t="n">
-        <v>11670</v>
-      </c>
-      <c r="C316" t="n">
-        <v>11660</v>
-      </c>
-      <c r="D316" t="n">
-        <v>11670</v>
-      </c>
-      <c r="E316" t="n">
-        <v>11660</v>
-      </c>
-      <c r="F316" t="n">
-        <v>50</v>
-      </c>
-      <c r="G316" t="n">
-        <v>-2028.14245318999</v>
-      </c>
-      <c r="H316" t="n">
-        <v>2</v>
-      </c>
-      <c r="I316" t="inlineStr"/>
-      <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
-      <c r="L316" t="n">
-        <v>1</v>
-      </c>
-      <c r="M316" t="inlineStr"/>
-    </row>
-    <row r="317">
-      <c r="A317" s="1" t="n">
-        <v>315</v>
-      </c>
-      <c r="B317" t="n">
-        <v>11710</v>
-      </c>
-      <c r="C317" t="n">
-        <v>11700</v>
-      </c>
-      <c r="D317" t="n">
-        <v>11710</v>
-      </c>
-      <c r="E317" t="n">
-        <v>11650</v>
-      </c>
-      <c r="F317" t="n">
-        <v>129.8615</v>
-      </c>
-      <c r="G317" t="n">
-        <v>-1898.28095318999</v>
-      </c>
-      <c r="H317" t="n">
-        <v>2</v>
-      </c>
-      <c r="I317" t="inlineStr"/>
-      <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
-      <c r="L317" t="n">
-        <v>1</v>
-      </c>
-      <c r="M317" t="inlineStr"/>
-    </row>
-    <row r="318">
-      <c r="A318" s="1" t="n">
-        <v>316</v>
-      </c>
-      <c r="B318" t="n">
-        <v>11700</v>
-      </c>
-      <c r="C318" t="n">
-        <v>11710</v>
-      </c>
-      <c r="D318" t="n">
-        <v>11710</v>
-      </c>
-      <c r="E318" t="n">
-        <v>11700</v>
-      </c>
-      <c r="F318" t="n">
-        <v>131.5</v>
-      </c>
-      <c r="G318" t="n">
-        <v>-1766.78095318999</v>
-      </c>
-      <c r="H318" t="n">
-        <v>2</v>
-      </c>
-      <c r="I318" t="inlineStr"/>
-      <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
-      <c r="L318" t="n">
-        <v>1</v>
-      </c>
-      <c r="M318" t="inlineStr"/>
-    </row>
-    <row r="319">
-      <c r="A319" s="1" t="n">
-        <v>317</v>
-      </c>
-      <c r="B319" t="n">
-        <v>11700</v>
-      </c>
-      <c r="C319" t="n">
-        <v>11680</v>
-      </c>
-      <c r="D319" t="n">
-        <v>11710</v>
-      </c>
-      <c r="E319" t="n">
-        <v>11680</v>
-      </c>
-      <c r="F319" t="n">
-        <v>209.5</v>
-      </c>
-      <c r="G319" t="n">
-        <v>-1976.28095318999</v>
-      </c>
-      <c r="H319" t="n">
-        <v>2</v>
-      </c>
-      <c r="I319" t="inlineStr"/>
-      <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
-      <c r="L319" t="n">
-        <v>1</v>
-      </c>
-      <c r="M319" t="inlineStr"/>
-    </row>
-    <row r="320">
-      <c r="A320" s="1" t="n">
-        <v>318</v>
-      </c>
-      <c r="B320" t="n">
-        <v>11710</v>
-      </c>
-      <c r="C320" t="n">
-        <v>11720</v>
-      </c>
-      <c r="D320" t="n">
-        <v>11720</v>
-      </c>
-      <c r="E320" t="n">
-        <v>11710</v>
-      </c>
-      <c r="F320" t="n">
-        <v>70</v>
-      </c>
-      <c r="G320" t="n">
-        <v>-1906.28095318999</v>
-      </c>
-      <c r="H320" t="n">
-        <v>2</v>
-      </c>
-      <c r="I320" t="inlineStr"/>
-      <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
-      <c r="L320" t="n">
-        <v>1</v>
-      </c>
-      <c r="M320" t="inlineStr"/>
-    </row>
-    <row r="321">
-      <c r="A321" s="1" t="n">
-        <v>319</v>
-      </c>
-      <c r="B321" t="n">
-        <v>11720</v>
-      </c>
-      <c r="C321" t="n">
-        <v>11730</v>
-      </c>
-      <c r="D321" t="n">
-        <v>11730</v>
-      </c>
-      <c r="E321" t="n">
-        <v>11720</v>
-      </c>
-      <c r="F321" t="n">
-        <v>628.5661</v>
-      </c>
-      <c r="G321" t="n">
-        <v>-1277.71485318999</v>
-      </c>
-      <c r="H321" t="n">
-        <v>2</v>
-      </c>
-      <c r="I321" t="inlineStr"/>
-      <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
-      <c r="L321" t="n">
-        <v>1</v>
-      </c>
-      <c r="M321" t="inlineStr"/>
-    </row>
-    <row r="322">
-      <c r="A322" s="1" t="n">
-        <v>320</v>
-      </c>
-      <c r="B322" t="n">
-        <v>11730</v>
-      </c>
-      <c r="C322" t="n">
-        <v>11730</v>
-      </c>
-      <c r="D322" t="n">
-        <v>11730</v>
-      </c>
-      <c r="E322" t="n">
-        <v>11730</v>
-      </c>
-      <c r="F322" t="n">
-        <v>79.48999999999999</v>
-      </c>
-      <c r="G322" t="n">
-        <v>-1277.71485318999</v>
-      </c>
-      <c r="H322" t="n">
-        <v>0</v>
-      </c>
-      <c r="I322" t="inlineStr"/>
-      <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
-      <c r="L322" t="n">
-        <v>1</v>
-      </c>
-      <c r="M322" t="inlineStr"/>
-    </row>
-    <row r="323">
-      <c r="A323" s="1" t="n">
-        <v>321</v>
-      </c>
-      <c r="B323" t="n">
-        <v>11730</v>
-      </c>
-      <c r="C323" t="n">
-        <v>11810</v>
-      </c>
-      <c r="D323" t="n">
-        <v>11810</v>
-      </c>
-      <c r="E323" t="n">
-        <v>11730</v>
-      </c>
-      <c r="F323" t="n">
-        <v>599.383</v>
-      </c>
-      <c r="G323" t="n">
-        <v>-678.3318531899902</v>
-      </c>
-      <c r="H323" t="n">
-        <v>0</v>
-      </c>
-      <c r="I323" t="inlineStr"/>
-      <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
-      <c r="L323" t="n">
-        <v>1</v>
-      </c>
-      <c r="M323" t="inlineStr"/>
-    </row>
-    <row r="324">
-      <c r="A324" s="1" t="n">
-        <v>322</v>
-      </c>
-      <c r="B324" t="n">
-        <v>11800</v>
-      </c>
-      <c r="C324" t="n">
-        <v>11800</v>
-      </c>
-      <c r="D324" t="n">
-        <v>11800</v>
-      </c>
-      <c r="E324" t="n">
-        <v>11800</v>
-      </c>
-      <c r="F324" t="n">
-        <v>156.66168135</v>
-      </c>
-      <c r="G324" t="n">
-        <v>-834.9935345399902</v>
-      </c>
-      <c r="H324" t="n">
-        <v>2</v>
-      </c>
-      <c r="I324" t="inlineStr"/>
-      <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
-      <c r="L324" t="n">
-        <v>1</v>
-      </c>
-      <c r="M324" t="inlineStr"/>
-    </row>
-    <row r="325">
-      <c r="A325" s="1" t="n">
-        <v>323</v>
-      </c>
-      <c r="B325" t="n">
-        <v>11790</v>
-      </c>
-      <c r="C325" t="n">
-        <v>11800</v>
-      </c>
-      <c r="D325" t="n">
-        <v>11800</v>
-      </c>
-      <c r="E325" t="n">
-        <v>11790</v>
-      </c>
-      <c r="F325" t="n">
-        <v>42.1513</v>
-      </c>
-      <c r="G325" t="n">
-        <v>-834.9935345399902</v>
-      </c>
-      <c r="H325" t="n">
-        <v>2</v>
-      </c>
-      <c r="I325" t="inlineStr"/>
-      <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
-      <c r="L325" t="n">
-        <v>1</v>
-      </c>
-      <c r="M325" t="inlineStr"/>
-    </row>
-    <row r="326">
-      <c r="A326" s="1" t="n">
-        <v>324</v>
-      </c>
-      <c r="B326" t="n">
-        <v>11800</v>
-      </c>
-      <c r="C326" t="n">
-        <v>11900</v>
-      </c>
-      <c r="D326" t="n">
-        <v>11900</v>
-      </c>
-      <c r="E326" t="n">
-        <v>11800</v>
-      </c>
-      <c r="F326" t="n">
-        <v>514.16301865</v>
-      </c>
-      <c r="G326" t="n">
-        <v>-320.8305158899901</v>
-      </c>
-      <c r="H326" t="n">
-        <v>2</v>
-      </c>
-      <c r="I326" t="inlineStr"/>
-      <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
-      <c r="L326" t="n">
-        <v>1</v>
-      </c>
-      <c r="M326" t="inlineStr"/>
-    </row>
-    <row r="327">
-      <c r="A327" s="1" t="n">
-        <v>325</v>
-      </c>
-      <c r="B327" t="n">
-        <v>11900</v>
-      </c>
-      <c r="C327" t="n">
-        <v>11950</v>
-      </c>
-      <c r="D327" t="n">
-        <v>11990</v>
-      </c>
-      <c r="E327" t="n">
-        <v>11900</v>
-      </c>
-      <c r="F327" t="n">
-        <v>1382.5096</v>
-      </c>
-      <c r="G327" t="n">
-        <v>1061.67908411001</v>
-      </c>
-      <c r="H327" t="n">
-        <v>2</v>
-      </c>
-      <c r="I327" t="inlineStr"/>
-      <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
-      <c r="L327" t="n">
-        <v>1</v>
-      </c>
-      <c r="M327" t="inlineStr"/>
-    </row>
-    <row r="328">
-      <c r="A328" s="1" t="n">
-        <v>326</v>
-      </c>
-      <c r="B328" t="n">
-        <v>11930</v>
-      </c>
-      <c r="C328" t="n">
-        <v>11990</v>
-      </c>
-      <c r="D328" t="n">
-        <v>11990</v>
-      </c>
-      <c r="E328" t="n">
-        <v>11920</v>
-      </c>
-      <c r="F328" t="n">
-        <v>1325.5812</v>
-      </c>
-      <c r="G328" t="n">
-        <v>2387.26028411001</v>
-      </c>
-      <c r="H328" t="n">
-        <v>0</v>
-      </c>
-      <c r="I328" t="inlineStr"/>
-      <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
       <c r="L328" t="n">
-        <v>1</v>
-      </c>
-      <c r="M328" t="inlineStr"/>
+        <v>1.059831261101243</v>
+      </c>
+      <c r="M328" t="n">
+        <v>1.065120428189117</v>
+      </c>
     </row>
     <row r="329">
       <c r="A329" s="1" t="n">
@@ -11740,7 +11890,7 @@
         <v>2278.03118411001</v>
       </c>
       <c r="H329" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -11773,7 +11923,7 @@
         <v>1757.54648411001</v>
       </c>
       <c r="H330" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -11806,7 +11956,7 @@
         <v>1752.54648411001</v>
       </c>
       <c r="H331" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -11839,7 +11989,7 @@
         <v>1689.89388411001</v>
       </c>
       <c r="H332" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -11872,7 +12022,7 @@
         <v>1680.36148411001</v>
       </c>
       <c r="H333" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -11905,7 +12055,7 @@
         <v>1455.16389776001</v>
       </c>
       <c r="H334" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -11938,7 +12088,7 @@
         <v>1234.79179776001</v>
       </c>
       <c r="H335" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -11971,7 +12121,7 @@
         <v>1278.20449776001</v>
       </c>
       <c r="H336" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -12004,7 +12154,7 @@
         <v>1305.14999776001</v>
       </c>
       <c r="H337" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -12037,7 +12187,7 @@
         <v>1136.81789776001</v>
       </c>
       <c r="H338" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -12070,7 +12220,7 @@
         <v>1166.31789776001</v>
       </c>
       <c r="H339" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -12103,7 +12253,7 @@
         <v>1142.54079776001</v>
       </c>
       <c r="H340" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -12136,7 +12286,7 @@
         <v>1142.54079776001</v>
       </c>
       <c r="H341" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -12169,7 +12319,7 @@
         <v>1086.59379776001</v>
       </c>
       <c r="H342" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -12202,7 +12352,7 @@
         <v>1097.90229776001</v>
       </c>
       <c r="H343" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -12235,7 +12385,7 @@
         <v>1097.99329776001</v>
       </c>
       <c r="H344" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -12268,7 +12418,7 @@
         <v>1087.99329776001</v>
       </c>
       <c r="H345" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -12301,7 +12451,7 @@
         <v>1373.06759776001</v>
       </c>
       <c r="H346" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -12334,7 +12484,7 @@
         <v>950.2407977600101</v>
       </c>
       <c r="H347" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -12367,7 +12517,7 @@
         <v>467.0372977600101</v>
       </c>
       <c r="H348" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -12400,7 +12550,7 @@
         <v>642.03729776001</v>
       </c>
       <c r="H349" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -12433,7 +12583,7 @@
         <v>452.23129776001</v>
       </c>
       <c r="H350" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -12466,7 +12616,7 @@
         <v>460.18799776001</v>
       </c>
       <c r="H351" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -12499,7 +12649,7 @@
         <v>786.68239776001</v>
       </c>
       <c r="H352" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -12532,7 +12682,7 @@
         <v>786.68239776001</v>
       </c>
       <c r="H353" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -12565,7 +12715,7 @@
         <v>786.68239776001</v>
       </c>
       <c r="H354" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -12598,7 +12748,7 @@
         <v>433.4856977600099</v>
       </c>
       <c r="H355" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -12631,7 +12781,7 @@
         <v>512.57319776001</v>
       </c>
       <c r="H356" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -12664,7 +12814,7 @@
         <v>460.84209776001</v>
       </c>
       <c r="H357" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -12697,7 +12847,7 @@
         <v>460.84209776001</v>
       </c>
       <c r="H358" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -12730,7 +12880,7 @@
         <v>196.49459776001</v>
       </c>
       <c r="H359" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -12763,7 +12913,7 @@
         <v>136.54599776001</v>
       </c>
       <c r="H360" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -12796,7 +12946,7 @@
         <v>100.80449776001</v>
       </c>
       <c r="H361" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -14974,7 +15124,7 @@
         <v>-970.06720223999</v>
       </c>
       <c r="H427" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
@@ -15601,7 +15751,7 @@
         <v>-1673.46440223999</v>
       </c>
       <c r="H446" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
@@ -15700,7 +15850,7 @@
         <v>-1444.17500223999</v>
       </c>
       <c r="H449" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
@@ -15733,7 +15883,7 @@
         <v>-1444.17500223999</v>
       </c>
       <c r="H450" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
@@ -16426,7 +16576,7 @@
         <v>2149.44507694001</v>
       </c>
       <c r="H471" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
@@ -16492,7 +16642,7 @@
         <v>2188.795476940009</v>
       </c>
       <c r="H473" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
@@ -16525,7 +16675,7 @@
         <v>2188.795476940009</v>
       </c>
       <c r="H474" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
@@ -16558,7 +16708,7 @@
         <v>2346.77597694001</v>
       </c>
       <c r="H475" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
@@ -16591,7 +16741,7 @@
         <v>2346.55407694001</v>
       </c>
       <c r="H476" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
@@ -16624,7 +16774,7 @@
         <v>2383.77377694001</v>
       </c>
       <c r="H477" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
@@ -16657,7 +16807,7 @@
         <v>2232.21437694001</v>
       </c>
       <c r="H478" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
@@ -16690,7 +16840,7 @@
         <v>1340.164176940009</v>
       </c>
       <c r="H479" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
@@ -16723,7 +16873,7 @@
         <v>1340.587476940009</v>
       </c>
       <c r="H480" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
@@ -16888,7 +17038,7 @@
         <v>1372.873576940009</v>
       </c>
       <c r="H485" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
@@ -17020,7 +17170,7 @@
         <v>1974.894076940009</v>
       </c>
       <c r="H489" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
@@ -17086,7 +17236,7 @@
         <v>1524.056176940009</v>
       </c>
       <c r="H491" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
@@ -19693,7 +19843,7 @@
         <v>-3012.947335299988</v>
       </c>
       <c r="H570" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
@@ -19726,7 +19876,7 @@
         <v>-2411.555135299988</v>
       </c>
       <c r="H571" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="inlineStr"/>
@@ -19759,7 +19909,7 @@
         <v>-2376.139935299988</v>
       </c>
       <c r="H572" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="inlineStr"/>
@@ -19792,7 +19942,7 @@
         <v>-2393.184635299988</v>
       </c>
       <c r="H573" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="inlineStr"/>
@@ -19825,7 +19975,7 @@
         <v>-631.5364352999882</v>
       </c>
       <c r="H574" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="inlineStr"/>
@@ -19891,7 +20041,7 @@
         <v>4595.294489680012</v>
       </c>
       <c r="H576" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="inlineStr"/>
@@ -19924,7 +20074,7 @@
         <v>3180.575789680012</v>
       </c>
       <c r="H577" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="inlineStr"/>
@@ -19957,7 +20107,7 @@
         <v>2897.045989680012</v>
       </c>
       <c r="H578" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="inlineStr"/>
@@ -19990,7 +20140,7 @@
         <v>2830.328489680012</v>
       </c>
       <c r="H579" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I579" t="inlineStr"/>
       <c r="J579" t="inlineStr"/>
@@ -20287,7 +20437,7 @@
         <v>3555.753643240012</v>
       </c>
       <c r="H588" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I588" t="inlineStr"/>
       <c r="J588" t="inlineStr"/>
@@ -20320,7 +20470,7 @@
         <v>3801.279043240012</v>
       </c>
       <c r="H589" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="inlineStr"/>
@@ -20353,7 +20503,7 @@
         <v>3791.279043240012</v>
       </c>
       <c r="H590" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="inlineStr"/>
@@ -20386,7 +20536,7 @@
         <v>3791.279043240012</v>
       </c>
       <c r="H591" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="inlineStr"/>
@@ -20551,7 +20701,7 @@
         <v>3818.310043240012</v>
       </c>
       <c r="H596" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I596" t="inlineStr"/>
       <c r="J596" t="inlineStr"/>
@@ -20584,7 +20734,7 @@
         <v>3827.310043240012</v>
       </c>
       <c r="H597" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="inlineStr"/>
@@ -20617,7 +20767,7 @@
         <v>3851.895743240012</v>
       </c>
       <c r="H598" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I598" t="inlineStr"/>
       <c r="J598" t="inlineStr"/>
@@ -20650,7 +20800,7 @@
         <v>3851.895743240012</v>
       </c>
       <c r="H599" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I599" t="inlineStr"/>
       <c r="J599" t="inlineStr"/>
@@ -20683,7 +20833,7 @@
         <v>4120.925743240012</v>
       </c>
       <c r="H600" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I600" t="inlineStr"/>
       <c r="J600" t="inlineStr"/>
@@ -20716,7 +20866,7 @@
         <v>4084.388643240012</v>
       </c>
       <c r="H601" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="inlineStr"/>
@@ -20749,7 +20899,7 @@
         <v>4073.748743240012</v>
       </c>
       <c r="H602" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I602" t="inlineStr"/>
       <c r="J602" t="inlineStr"/>
@@ -20782,7 +20932,7 @@
         <v>3985.987443240012</v>
       </c>
       <c r="H603" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I603" t="inlineStr"/>
       <c r="J603" t="inlineStr"/>
@@ -20815,7 +20965,7 @@
         <v>3985.987443240012</v>
       </c>
       <c r="H604" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
@@ -20848,7 +20998,7 @@
         <v>3985.987443240012</v>
       </c>
       <c r="H605" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="inlineStr"/>
@@ -20881,7 +21031,7 @@
         <v>3984.622443240012</v>
       </c>
       <c r="H606" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr"/>
@@ -20914,7 +21064,7 @@
         <v>4645.374570390011</v>
       </c>
       <c r="H607" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr"/>
@@ -20947,7 +21097,7 @@
         <v>4641.263470390011</v>
       </c>
       <c r="H608" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr"/>
@@ -20980,7 +21130,7 @@
         <v>4687.721170390011</v>
       </c>
       <c r="H609" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I609" t="inlineStr"/>
       <c r="J609" t="inlineStr"/>
@@ -21013,7 +21163,7 @@
         <v>4711.501170390011</v>
       </c>
       <c r="H610" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I610" t="inlineStr"/>
       <c r="J610" t="inlineStr"/>
@@ -21046,7 +21196,7 @@
         <v>4788.530670390011</v>
       </c>
       <c r="H611" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I611" t="inlineStr"/>
       <c r="J611" t="inlineStr"/>
@@ -21079,7 +21229,7 @@
         <v>4788.530670390011</v>
       </c>
       <c r="H612" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I612" t="inlineStr"/>
       <c r="J612" t="inlineStr"/>
@@ -21112,7 +21262,7 @@
         <v>4754.302770390011</v>
       </c>
       <c r="H613" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I613" t="inlineStr"/>
       <c r="J613" t="inlineStr"/>
@@ -21145,7 +21295,7 @@
         <v>4754.302770390011</v>
       </c>
       <c r="H614" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I614" t="inlineStr"/>
       <c r="J614" t="inlineStr"/>
@@ -25171,7 +25321,7 @@
         <v>6460.160036530013</v>
       </c>
       <c r="H736" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I736" t="inlineStr"/>
       <c r="J736" t="inlineStr"/>
@@ -25204,7 +25354,7 @@
         <v>6130.774936530012</v>
       </c>
       <c r="H737" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I737" t="inlineStr"/>
       <c r="J737" t="inlineStr"/>
@@ -25303,7 +25453,7 @@
         <v>5961.774936530012</v>
       </c>
       <c r="H740" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I740" t="inlineStr"/>
       <c r="J740" t="inlineStr"/>
@@ -25402,7 +25552,7 @@
         <v>6094.223031780012</v>
       </c>
       <c r="H743" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I743" t="inlineStr"/>
       <c r="J743" t="inlineStr"/>
@@ -25435,7 +25585,7 @@
         <v>6090.643031780012</v>
       </c>
       <c r="H744" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I744" t="inlineStr"/>
       <c r="J744" t="inlineStr"/>
@@ -25468,7 +25618,7 @@
         <v>6068.433931780012</v>
       </c>
       <c r="H745" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I745" t="inlineStr"/>
       <c r="J745" t="inlineStr"/>
@@ -25501,7 +25651,7 @@
         <v>5741.778131780013</v>
       </c>
       <c r="H746" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I746" t="inlineStr"/>
       <c r="J746" t="inlineStr"/>
@@ -25534,7 +25684,7 @@
         <v>5519.549231780013</v>
       </c>
       <c r="H747" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I747" t="inlineStr"/>
       <c r="J747" t="inlineStr"/>
@@ -25567,7 +25717,7 @@
         <v>5519.423431780013</v>
       </c>
       <c r="H748" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I748" t="inlineStr"/>
       <c r="J748" t="inlineStr"/>
